--- a/others/Web-Page-Design-i18n.xlsx
+++ b/others/Web-Page-Design-i18n.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="178">
   <si>
     <t>Chinese</t>
   </si>
@@ -287,7 +287,13 @@
     <t>Address</t>
   </si>
   <si>
+    <t>dataForm</t>
+  </si>
+  <si>
     <t>firstTime</t>
+  </si>
+  <si>
+    <t>dataFormFirstTime</t>
   </si>
   <si>
     <t>第1次請領</t>
@@ -299,6 +305,9 @@
     <t>certificateHasCeased</t>
   </si>
   <si>
+    <t>dataFormCertificateHasCeased</t>
+  </si>
+  <si>
     <t>撤銷原因消滅補發</t>
   </si>
   <si>
@@ -306,6 +315,9 @@
   </si>
   <si>
     <t>lost</t>
+  </si>
+  <si>
+    <t>dataFormLost</t>
   </si>
   <si>
     <t>遺失補發</t>
@@ -317,6 +329,9 @@
     <t>replacement</t>
   </si>
   <si>
+    <t>dataFormReplacement</t>
+  </si>
+  <si>
     <t>換發記帳士證書</t>
   </si>
   <si>
@@ -324,6 +339,9 @@
   </si>
   <si>
     <t>englishVersion</t>
+  </si>
+  <si>
+    <t>dataFormEnglishVersion</t>
   </si>
   <si>
     <t>英文版記帳士證書</t>
@@ -30763,14 +30781,14 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -30789,6 +30807,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -30797,18 +30816,20 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -30826,35 +30847,38 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="str">
-        <f t="shared" ref="B3:B29" si="1">"[language=Chinese] [select=true][i18n="&amp;C3&amp;"]:before{content:"""&amp;char(9745)&amp;D3&amp;"""}"
-&amp;"[language=Chinese] [select=false][i18n="&amp;C3&amp;"]:before{content:"""&amp;char(9744)&amp;D3&amp;"""}"
-&amp;"[language=English] [select=true][i18n="&amp;C3&amp;"]:before{content:"""&amp;char(9745)&amp;E3&amp;"""}"
-&amp;"[language=English] [select=false][i18n="&amp;C3&amp;"]:before{content:"""&amp;char(9744)&amp;E3&amp;"""}"
+        <f t="shared" ref="B3:B29" si="1">"[language=Chinese] [select=true][i18n="&amp;C3&amp;"]:before{content:"""&amp;char(9745)&amp;E3&amp;"""}"
+&amp;"[language=Chinese] [select=false][i18n="&amp;C3&amp;"]:before{content:"""&amp;char(9744)&amp;E3&amp;"""}"
+&amp;"[language=English] [select=true][i18n="&amp;C3&amp;"]:before{content:"""&amp;char(9745)&amp;F3&amp;"""}"
+&amp;"[language=English] [select=false][i18n="&amp;C3&amp;"]:before{content:"""&amp;char(9744)&amp;F3&amp;"""}"
 </f>
         <v>[language=Chinese] [select=true][i18n=firstTime]:before{content:"☑第1次請領"}[language=Chinese] [select=false][i18n=firstTime]:before{content:"☐第1次請領"}[language=English] [select=true][i18n=firstTime]:before{content:"☑Issuance for the first time"}[language=English] [select=false][i18n=firstTime]:before{content:"☐Issuance for the first time"}</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E29" si="2">if(G3&lt;&gt;"",G3,F3)</f>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F29" si="2">if(H3&lt;&gt;"",H3,G3)</f>
         <v>Issuance for the first time</v>
       </c>
-      <c r="F3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D3,""zh-tw"",""en""),"""")"),"The first time, please lead")</f>
+      <c r="G3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E3,""zh-tw"",""en""),"""")"),"The first time, please lead")</f>
         <v>The first time, please lead</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>93</v>
+      <c r="H3" s="3" t="s">
+        <v>95</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -30872,6 +30896,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -30880,23 +30905,25 @@
         <v>[language=Chinese] [select=true][i18n=certificateHasCeased]:before{content:"☑撤銷原因消滅補發"}[language=Chinese] [select=false][i18n=certificateHasCeased]:before{content:"☐撤銷原因消滅補發"}[language=English] [select=true][i18n=certificateHasCeased]:before{content:"☑Reissuance due to the reason for the revocation or cancellation of the original certificate has ceased to exist"}[language=English] [select=false][i18n=certificateHasCeased]:before{content:"☐Reissuance due to the reason for the revocation or cancellation of the original certificate has ceased to exist"}</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>95</v>
+      <c r="D4" s="2" t="s">
+        <v>97</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Reissuance due to the reason for the revocation or cancellation of the original certificate has ceased to exist</v>
       </c>
-      <c r="F4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D4,""zh-tw"",""en""),"""")"),"Rejuvenation reasons to eliminate replenishment")</f>
+      <c r="G4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E4,""zh-tw"",""en""),"""")"),"Rejuvenation reasons to eliminate replenishment")</f>
         <v>Rejuvenation reasons to eliminate replenishment</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>96</v>
+      <c r="H4" s="3" t="s">
+        <v>99</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -30914,6 +30941,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
@@ -30922,23 +30950,25 @@
         <v>[language=Chinese] [select=true][i18n=lost]:before{content:"☑遺失補發"}[language=Chinese] [select=false][i18n=lost]:before{content:"☐遺失補發"}[language=English] [select=true][i18n=lost]:before{content:"☑Reissuance for lost certificate"}[language=English] [select=false][i18n=lost]:before{content:"☐Reissuance for lost certificate"}</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>98</v>
+      <c r="D5" s="2" t="s">
+        <v>101</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Reissuance for lost certificate</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D5,""zh-tw"",""en""),"""")"),"Loss of replenishment")</f>
+      <c r="G5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E5,""zh-tw"",""en""),"""")"),"Loss of replenishment")</f>
         <v>Loss of replenishment</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>99</v>
+      <c r="H5" s="3" t="s">
+        <v>103</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -30956,6 +30986,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
@@ -30964,23 +30995,25 @@
         <v>[language=Chinese] [select=true][i18n=replacement]:before{content:"☑換發記帳士證書"}[language=Chinese] [select=false][i18n=replacement]:before{content:"☐換發記帳士證書"}[language=English] [select=true][i18n=replacement]:before{content:"☑Replacement of the Certificate of Public Bookkeeper"}[language=English] [select=false][i18n=replacement]:before{content:"☐Replacement of the Certificate of Public Bookkeeper"}</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>101</v>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Replacement of the Certificate of Public Bookkeeper</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D6,""zh-tw"",""en""),"""")"),"Removal account certificate certificate")</f>
+      <c r="G6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E6,""zh-tw"",""en""),"""")"),"Removal account certificate certificate")</f>
         <v>Removal account certificate certificate</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>102</v>
+      <c r="H6" s="3" t="s">
+        <v>107</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -30998,6 +31031,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
@@ -31006,23 +31040,25 @@
         <v>[language=Chinese] [select=true][i18n=englishVersion]:before{content:"☑英文版記帳士證書"}[language=Chinese] [select=false][i18n=englishVersion]:before{content:"☐英文版記帳士證書"}[language=English] [select=true][i18n=englishVersion]:before{content:"☑The English Version of the Certificate of Public Bookkeeper"}[language=English] [select=false][i18n=englishVersion]:before{content:"☐The English Version of the Certificate of Public Bookkeeper"}</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>The English Version of the Certificate of Public Bookkeeper</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D7,""zh-tw"",""en""),"""")"),"English version of the bookkeeper certificate")</f>
+      <c r="G7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E7,""zh-tw"",""en""),"""")"),"English version of the bookkeeper certificate")</f>
         <v>English version of the bookkeeper certificate</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>105</v>
+      <c r="H7" s="3" t="s">
+        <v>111</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -31040,6 +31076,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
@@ -31048,23 +31085,26 @@
         <v>[language=Chinese] [select=true][i18n=taipeiCity]:before{content:"☑台北市"}[language=Chinese] [select=false][i18n=taipeiCity]:before{content:"☐台北市"}[language=English] [select=true][i18n=taipeiCity]:before{content:"☑Taipei City"}[language=English] [select=false][i18n=taipeiCity]:before{content:"☐Taipei City"}</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>107</v>
+      <c r="D8" s="2" t="str">
+        <f t="shared" ref="D8:D29" si="3">"dataForm" &amp; replace(C8,1,1, UPPER(LEFT(C8,1)))</f>
+        <v>dataFormTaipeiCity</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Taipei City</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D8,""zh-tw"",""en""),"""")"),"Taipei City")</f>
+      <c r="G8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E8,""zh-tw"",""en""),"""")"),"Taipei City")</f>
         <v>Taipei City</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>108</v>
+      <c r="H8" s="2" t="s">
+        <v>114</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -31082,6 +31122,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
@@ -31090,23 +31131,26 @@
         <v>[language=Chinese] [select=true][i18n=keelungCity]:before{content:"☑基隆市"}[language=Chinese] [select=false][i18n=keelungCity]:before{content:"☐基隆市"}[language=English] [select=true][i18n=keelungCity]:before{content:"☑Keelung City"}[language=English] [select=false][i18n=keelungCity]:before{content:"☐Keelung City"}</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>110</v>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormKeelungCity</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Keelung City</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D9,""zh-tw"",""en""),"""")"),"Keelung City")</f>
+      <c r="G9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E9,""zh-tw"",""en""),"""")"),"Keelung City")</f>
         <v>Keelung City</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>111</v>
+      <c r="H9" s="2" t="s">
+        <v>117</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -31124,6 +31168,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
@@ -31132,23 +31177,26 @@
         <v>[language=Chinese] [select=true][i18n=newTaipeiCity]:before{content:"☑新北市"}[language=Chinese] [select=false][i18n=newTaipeiCity]:before{content:"☐新北市"}[language=English] [select=true][i18n=newTaipeiCity]:before{content:"☑New Taipei City"}[language=English] [select=false][i18n=newTaipeiCity]:before{content:"☐New Taipei City"}</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>113</v>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormNewTaipeiCity</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Taipei City</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D10,""zh-tw"",""en""),"""")"),"New Taipei City")</f>
+      <c r="G10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E10,""zh-tw"",""en""),"""")"),"New Taipei City")</f>
         <v>New Taipei City</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>114</v>
+      <c r="H10" s="2" t="s">
+        <v>120</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -31166,6 +31214,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
@@ -31174,23 +31223,26 @@
         <v>[language=Chinese] [select=true][i18n=lienchiangCounty]:before{content:"☑連江縣"}[language=Chinese] [select=false][i18n=lienchiangCounty]:before{content:"☐連江縣"}[language=English] [select=true][i18n=lienchiangCounty]:before{content:"☑Lienchiang County"}[language=English] [select=false][i18n=lienchiangCounty]:before{content:"☐Lienchiang County"}</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>116</v>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormLienchiangCounty</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="E11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Lienchiang County</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D11,""zh-tw"",""en""),"""")"),"Lianjiang County")</f>
+      <c r="G11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E11,""zh-tw"",""en""),"""")"),"Lianjiang County")</f>
         <v>Lianjiang County</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>117</v>
+      <c r="H11" s="2" t="s">
+        <v>123</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -31208,6 +31260,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
@@ -31216,23 +31269,26 @@
         <v>[language=Chinese] [select=true][i18n=yilanCounty]:before{content:"☑宜蘭縣"}[language=Chinese] [select=false][i18n=yilanCounty]:before{content:"☐宜蘭縣"}[language=English] [select=true][i18n=yilanCounty]:before{content:"☑Yilan County"}[language=English] [select=false][i18n=yilanCounty]:before{content:"☐Yilan County"}</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>119</v>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormYilanCounty</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Yilan County</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D12,""zh-tw"",""en""),"""")"),"Yilan County")</f>
+      <c r="G12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E12,""zh-tw"",""en""),"""")"),"Yilan County")</f>
         <v>Yilan County</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>120</v>
+      <c r="H12" s="2" t="s">
+        <v>126</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -31250,6 +31306,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
@@ -31258,23 +31315,26 @@
         <v>[language=Chinese] [select=true][i18n=hsinchuCity]:before{content:"☑新竹市"}[language=Chinese] [select=false][i18n=hsinchuCity]:before{content:"☐新竹市"}[language=English] [select=true][i18n=hsinchuCity]:before{content:"☑Hsinchu City"}[language=English] [select=false][i18n=hsinchuCity]:before{content:"☐Hsinchu City"}</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>122</v>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormHsinchuCity</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Hsinchu City</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D13,""zh-tw"",""en""),"""")"),"Hsinchu City")</f>
+      <c r="G13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E13,""zh-tw"",""en""),"""")"),"Hsinchu City")</f>
         <v>Hsinchu City</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>123</v>
+      <c r="H13" s="2" t="s">
+        <v>129</v>
       </c>
-      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -31292,6 +31352,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -31300,23 +31361,26 @@
         <v>[language=Chinese] [select=true][i18n=hsinchuCounty]:before{content:"☑新竹縣"}[language=Chinese] [select=false][i18n=hsinchuCounty]:before{content:"☐新竹縣"}[language=English] [select=true][i18n=hsinchuCounty]:before{content:"☑Hsinchu County"}[language=English] [select=false][i18n=hsinchuCounty]:before{content:"☐Hsinchu County"}</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>125</v>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormHsinchuCounty</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Hsinchu County</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D14,""zh-tw"",""en""),"""")"),"Hsinchu County")</f>
+      <c r="G14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E14,""zh-tw"",""en""),"""")"),"Hsinchu County")</f>
         <v>Hsinchu County</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>126</v>
+      <c r="H14" s="2" t="s">
+        <v>132</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -31334,6 +31398,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
@@ -31342,23 +31407,26 @@
         <v>[language=Chinese] [select=true][i18n=taoyuanCity]:before{content:"☑桃園市"}[language=Chinese] [select=false][i18n=taoyuanCity]:before{content:"☐桃園市"}[language=English] [select=true][i18n=taoyuanCity]:before{content:"☑Taoyuan City"}[language=English] [select=false][i18n=taoyuanCity]:before{content:"☐Taoyuan City"}</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>128</v>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormTaoyuanCity</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Taoyuan City</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D15,""zh-tw"",""en""),"""")"),"Taoyuan City")</f>
+      <c r="G15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E15,""zh-tw"",""en""),"""")"),"Taoyuan City")</f>
         <v>Taoyuan City</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>129</v>
+      <c r="H15" s="2" t="s">
+        <v>135</v>
       </c>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -31376,6 +31444,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
@@ -31384,23 +31453,26 @@
         <v>[language=Chinese] [select=true][i18n=miaoliCounty]:before{content:"☑苗栗縣"}[language=Chinese] [select=false][i18n=miaoliCounty]:before{content:"☐苗栗縣"}[language=English] [select=true][i18n=miaoliCounty]:before{content:"☑Miaoli County"}[language=English] [select=false][i18n=miaoliCounty]:before{content:"☐Miaoli County"}</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>131</v>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormMiaoliCounty</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Miaoli County</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D16,""zh-tw"",""en""),"""")"),"Miaoli County")</f>
+      <c r="G16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E16,""zh-tw"",""en""),"""")"),"Miaoli County")</f>
         <v>Miaoli County</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>132</v>
+      <c r="H16" s="2" t="s">
+        <v>138</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -31418,6 +31490,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
@@ -31426,23 +31499,26 @@
         <v>[language=Chinese] [select=true][i18n=taichungCity]:before{content:"☑台中市"}[language=Chinese] [select=false][i18n=taichungCity]:before{content:"☐台中市"}[language=English] [select=true][i18n=taichungCity]:before{content:"☑Taichung City"}[language=English] [select=false][i18n=taichungCity]:before{content:"☐Taichung City"}</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>134</v>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormTaichungCity</v>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="E17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Taichung City</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D17,""zh-tw"",""en""),"""")"),"Taichung City")</f>
+      <c r="G17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E17,""zh-tw"",""en""),"""")"),"Taichung City")</f>
         <v>Taichung City</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>135</v>
+      <c r="H17" s="2" t="s">
+        <v>141</v>
       </c>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -31460,6 +31536,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
@@ -31468,23 +31545,26 @@
         <v>[language=Chinese] [select=true][i18n=changhuaCounty]:before{content:"☑彰化縣"}[language=Chinese] [select=false][i18n=changhuaCounty]:before{content:"☐彰化縣"}[language=English] [select=true][i18n=changhuaCounty]:before{content:"☑Changhua County"}[language=English] [select=false][i18n=changhuaCounty]:before{content:"☐Changhua County"}</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>137</v>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormChanghuaCounty</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="E18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Changhua County</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D18,""zh-tw"",""en""),"""")"),"Changhua County")</f>
+      <c r="G18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E18,""zh-tw"",""en""),"""")"),"Changhua County")</f>
         <v>Changhua County</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>138</v>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -31502,6 +31582,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
@@ -31510,23 +31591,26 @@
         <v>[language=Chinese] [select=true][i18n=nantouCounty]:before{content:"☑南投縣"}[language=Chinese] [select=false][i18n=nantouCounty]:before{content:"☐南投縣"}[language=English] [select=true][i18n=nantouCounty]:before{content:"☑Nantou County"}[language=English] [select=false][i18n=nantouCounty]:before{content:"☐Nantou County"}</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormNantouCounty</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="E19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Nantou County</v>
       </c>
-      <c r="F19" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D19,""zh-tw"",""en""),"""")"),"Nantou County")</f>
+      <c r="G19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E19,""zh-tw"",""en""),"""")"),"Nantou County")</f>
         <v>Nantou County</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>141</v>
+      <c r="H19" s="2" t="s">
+        <v>147</v>
       </c>
-      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -31544,6 +31628,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
@@ -31552,23 +31637,26 @@
         <v>[language=Chinese] [select=true][i18n=chiayiCity]:before{content:"☑嘉義市"}[language=Chinese] [select=false][i18n=chiayiCity]:before{content:"☐嘉義市"}[language=English] [select=true][i18n=chiayiCity]:before{content:"☑Chiayi City"}[language=English] [select=false][i18n=chiayiCity]:before{content:"☐Chiayi City"}</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>143</v>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormChiayiCity</v>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="E20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Chiayi City</v>
       </c>
-      <c r="F20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D20,""zh-tw"",""en""),"""")"),"Chiayi City")</f>
+      <c r="G20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E20,""zh-tw"",""en""),"""")"),"Chiayi City")</f>
         <v>Chiayi City</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>144</v>
+      <c r="H20" s="2" t="s">
+        <v>150</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -31586,6 +31674,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
@@ -31594,23 +31683,26 @@
         <v>[language=Chinese] [select=true][i18n=chiayiCounty]:before{content:"☑嘉義縣"}[language=Chinese] [select=false][i18n=chiayiCounty]:before{content:"☐嘉義縣"}[language=English] [select=true][i18n=chiayiCounty]:before{content:"☑Chiayi County"}[language=English] [select=false][i18n=chiayiCounty]:before{content:"☐Chiayi County"}</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>146</v>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormChiayiCounty</v>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="E21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Chiayi County</v>
       </c>
-      <c r="F21" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D21,""zh-tw"",""en""),"""")"),"Chiayi County")</f>
+      <c r="G21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E21,""zh-tw"",""en""),"""")"),"Chiayi County")</f>
         <v>Chiayi County</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>147</v>
+      <c r="H21" s="2" t="s">
+        <v>153</v>
       </c>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -31628,6 +31720,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
@@ -31636,23 +31729,26 @@
         <v>[language=Chinese] [select=true][i18n=yunlinCounty]:before{content:"☑雲林縣"}[language=Chinese] [select=false][i18n=yunlinCounty]:before{content:"☐雲林縣"}[language=English] [select=true][i18n=yunlinCounty]:before{content:"☑Yunlin County"}[language=English] [select=false][i18n=yunlinCounty]:before{content:"☐Yunlin County"}</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>149</v>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormYunlinCounty</v>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="E22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Yunlin County</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D22,""zh-tw"",""en""),"""")"),"Yunlin County")</f>
+      <c r="G22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E22,""zh-tw"",""en""),"""")"),"Yunlin County")</f>
         <v>Yunlin County</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>150</v>
+      <c r="H22" s="2" t="s">
+        <v>156</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -31670,6 +31766,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
@@ -31678,23 +31775,26 @@
         <v>[language=Chinese] [select=true][i18n=tainanCity]:before{content:"☑台南市"}[language=Chinese] [select=false][i18n=tainanCity]:before{content:"☐台南市"}[language=English] [select=true][i18n=tainanCity]:before{content:"☑Tainan City"}[language=English] [select=false][i18n=tainanCity]:before{content:"☐Tainan City"}</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>152</v>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormTainanCity</v>
       </c>
-      <c r="E23" s="2" t="str">
+      <c r="E23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Tainan City</v>
       </c>
-      <c r="F23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D23,""zh-tw"",""en""),"""")"),"Tainan City")</f>
+      <c r="G23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E23,""zh-tw"",""en""),"""")"),"Tainan City")</f>
         <v>Tainan City</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>153</v>
+      <c r="H23" s="2" t="s">
+        <v>159</v>
       </c>
-      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -31712,6 +31812,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
@@ -31720,23 +31821,26 @@
         <v>[language=Chinese] [select=true][i18n=kaohsiungCity]:before{content:"☑高雄市"}[language=Chinese] [select=false][i18n=kaohsiungCity]:before{content:"☐高雄市"}[language=English] [select=true][i18n=kaohsiungCity]:before{content:"☑Kaohsiung City"}[language=English] [select=false][i18n=kaohsiungCity]:before{content:"☐Kaohsiung City"}</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>155</v>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormKaohsiungCity</v>
       </c>
-      <c r="E24" s="2" t="str">
+      <c r="E24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Kaohsiung City</v>
       </c>
-      <c r="F24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D24,""zh-tw"",""en""),"""")"),"Kaohsiung")</f>
+      <c r="G24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E24,""zh-tw"",""en""),"""")"),"Kaohsiung")</f>
         <v>Kaohsiung</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>156</v>
+      <c r="H24" s="2" t="s">
+        <v>162</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -31754,6 +31858,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
@@ -31762,23 +31867,26 @@
         <v>[language=Chinese] [select=true][i18n=penghuCounty]:before{content:"☑澎湖縣"}[language=Chinese] [select=false][i18n=penghuCounty]:before{content:"☐澎湖縣"}[language=English] [select=true][i18n=penghuCounty]:before{content:"☑Penghu County"}[language=English] [select=false][i18n=penghuCounty]:before{content:"☐Penghu County"}</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>158</v>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormPenghuCounty</v>
       </c>
-      <c r="E25" s="2" t="str">
+      <c r="E25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Penghu County</v>
       </c>
-      <c r="F25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D25,""zh-tw"",""en""),"""")"),"Penghu County")</f>
+      <c r="G25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E25,""zh-tw"",""en""),"""")"),"Penghu County")</f>
         <v>Penghu County</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>159</v>
+      <c r="H25" s="2" t="s">
+        <v>165</v>
       </c>
-      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -31796,6 +31904,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
@@ -31804,23 +31913,26 @@
         <v>[language=Chinese] [select=true][i18n=kinmenCounty]:before{content:"☑金門縣"}[language=Chinese] [select=false][i18n=kinmenCounty]:before{content:"☐金門縣"}[language=English] [select=true][i18n=kinmenCounty]:before{content:"☑Kinmen County"}[language=English] [select=false][i18n=kinmenCounty]:before{content:"☐Kinmen County"}</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>161</v>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormKinmenCounty</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="E26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Kinmen County</v>
       </c>
-      <c r="F26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D26,""zh-tw"",""en""),"""")"),"Kinmen County")</f>
+      <c r="G26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E26,""zh-tw"",""en""),"""")"),"Kinmen County")</f>
         <v>Kinmen County</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>162</v>
+      <c r="H26" s="2" t="s">
+        <v>168</v>
       </c>
-      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -31838,6 +31950,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
@@ -31846,23 +31959,26 @@
         <v>[language=Chinese] [select=true][i18n=pingtungCounty]:before{content:"☑屏東縣"}[language=Chinese] [select=false][i18n=pingtungCounty]:before{content:"☐屏東縣"}[language=English] [select=true][i18n=pingtungCounty]:before{content:"☑Pingtung County"}[language=English] [select=false][i18n=pingtungCounty]:before{content:"☐Pingtung County"}</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>164</v>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormPingtungCounty</v>
       </c>
-      <c r="E27" s="2" t="str">
+      <c r="E27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Pingtung County</v>
       </c>
-      <c r="F27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D27,""zh-tw"",""en""),"""")"),"Pingtung County")</f>
+      <c r="G27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E27,""zh-tw"",""en""),"""")"),"Pingtung County")</f>
         <v>Pingtung County</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>165</v>
+      <c r="H27" s="2" t="s">
+        <v>171</v>
       </c>
-      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -31880,6 +31996,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
@@ -31888,23 +32005,26 @@
         <v>[language=Chinese] [select=true][i18n=taitungCounty]:before{content:"☑台東縣"}[language=Chinese] [select=false][i18n=taitungCounty]:before{content:"☐台東縣"}[language=English] [select=true][i18n=taitungCounty]:before{content:"☑Taitung County"}[language=English] [select=false][i18n=taitungCounty]:before{content:"☐Taitung County"}</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>167</v>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormTaitungCounty</v>
       </c>
-      <c r="E28" s="2" t="str">
+      <c r="E28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Taitung County</v>
       </c>
-      <c r="F28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D28,""zh-tw"",""en""),"""")"),"Taitung County")</f>
+      <c r="G28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E28,""zh-tw"",""en""),"""")"),"Taitung County")</f>
         <v>Taitung County</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>168</v>
+      <c r="H28" s="2" t="s">
+        <v>174</v>
       </c>
-      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -31922,6 +32042,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
@@ -31930,23 +32051,26 @@
         <v>[language=Chinese] [select=true][i18n=hualienCounty]:before{content:"☑花蓮縣"}[language=Chinese] [select=false][i18n=hualienCounty]:before{content:"☐花蓮縣"}[language=English] [select=true][i18n=hualienCounty]:before{content:"☑Hualien County"}[language=English] [select=false][i18n=hualienCounty]:before{content:"☐Hualien County"}</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>170</v>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormHualienCounty</v>
       </c>
-      <c r="E29" s="2" t="str">
+      <c r="E29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Hualien County</v>
       </c>
-      <c r="F29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D29,""zh-tw"",""en""),"""")"),"Hualien County")</f>
+      <c r="G29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E29,""zh-tw"",""en""),"""")"),"Hualien County")</f>
         <v>Hualien County</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>171</v>
+      <c r="H29" s="2" t="s">
+        <v>177</v>
       </c>
-      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -31964,6 +32088,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -31971,11 +32096,11 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D30,""zh-tw"",""en""),"""")"),"")</f>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E30,""zh-tw"",""en""),"""")"),"")</f>
         <v/>
       </c>
-      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -31994,6 +32119,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
@@ -32021,6 +32147,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
@@ -32048,6 +32175,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
@@ -32075,6 +32203,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
@@ -32102,6 +32231,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
@@ -32129,6 +32259,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
@@ -32156,6 +32287,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
@@ -32183,6 +32315,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
@@ -32210,6 +32343,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
@@ -32237,6 +32371,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
@@ -32264,6 +32399,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
@@ -32291,6 +32427,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
@@ -32318,6 +32455,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
@@ -32345,6 +32483,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
@@ -32372,6 +32511,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
@@ -32399,6 +32539,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
@@ -32426,6 +32567,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
@@ -32453,6 +32595,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
@@ -32480,6 +32623,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
@@ -32507,6 +32651,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
@@ -32534,6 +32679,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
@@ -32561,6 +32707,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
@@ -32588,6 +32735,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
@@ -32615,6 +32763,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
@@ -32642,6 +32791,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
@@ -32669,6 +32819,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
@@ -32696,6 +32847,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
@@ -32723,6 +32875,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
@@ -32750,6 +32903,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
@@ -32777,6 +32931,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
@@ -32804,6 +32959,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1"/>
@@ -32831,6 +32987,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
@@ -32858,6 +33015,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1"/>
@@ -32885,6 +33043,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
@@ -32912,6 +33071,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
@@ -32939,6 +33099,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
@@ -32966,6 +33127,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
@@ -32993,6 +33155,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
@@ -33020,6 +33183,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
@@ -33047,6 +33211,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
@@ -33074,6 +33239,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
@@ -33101,6 +33267,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
@@ -33128,6 +33295,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
@@ -33155,6 +33323,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
@@ -33182,6 +33351,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -33209,6 +33379,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
@@ -33236,6 +33407,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
@@ -33263,6 +33435,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
@@ -33290,6 +33463,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
@@ -33317,6 +33491,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
@@ -33344,6 +33519,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
@@ -33371,6 +33547,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
@@ -33398,6 +33575,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
@@ -33425,6 +33603,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
@@ -33452,6 +33631,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
@@ -33479,6 +33659,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
@@ -33506,6 +33687,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
@@ -33533,6 +33715,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
@@ -33560,6 +33743,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
@@ -33587,6 +33771,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
     </row>
     <row r="90">
       <c r="A90" s="1"/>
@@ -33614,6 +33799,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
@@ -33641,6 +33827,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
@@ -33668,6 +33855,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
@@ -33695,6 +33883,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
@@ -33722,6 +33911,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
@@ -33749,6 +33939,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
@@ -33776,6 +33967,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
@@ -33803,6 +33995,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
@@ -33830,6 +34023,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
@@ -33857,6 +34051,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
@@ -33884,6 +34079,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
@@ -33911,6 +34107,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
@@ -33938,6 +34135,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
@@ -33965,6 +34163,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
@@ -33992,6 +34191,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
@@ -34019,6 +34219,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
@@ -34046,6 +34247,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
@@ -34073,6 +34275,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
@@ -34100,6 +34303,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
@@ -34127,6 +34331,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
@@ -34154,6 +34359,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
@@ -34181,6 +34387,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
@@ -34208,6 +34415,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
@@ -34235,6 +34443,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
@@ -34262,6 +34471,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
@@ -34289,6 +34499,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
@@ -34316,6 +34527,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
@@ -34343,6 +34555,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
@@ -34370,6 +34583,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
     </row>
     <row r="119">
       <c r="A119" s="1"/>
@@ -34397,6 +34611,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
@@ -34424,6 +34639,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
     </row>
     <row r="121">
       <c r="A121" s="1"/>
@@ -34451,6 +34667,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
@@ -34478,6 +34695,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
@@ -34505,6 +34723,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
@@ -34532,6 +34751,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
@@ -34559,6 +34779,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
@@ -34586,6 +34807,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
@@ -34613,6 +34835,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
@@ -34640,6 +34863,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
@@ -34667,6 +34891,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
@@ -34694,6 +34919,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
@@ -34721,6 +34947,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
@@ -34748,6 +34975,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
@@ -34775,6 +35003,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
@@ -34802,6 +35031,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
@@ -34829,6 +35059,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
@@ -34856,6 +35087,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
@@ -34883,6 +35115,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
@@ -34910,6 +35143,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
@@ -34937,6 +35171,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
+      <c r="Z139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
@@ -34964,6 +35199,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
+      <c r="Z140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
@@ -34991,6 +35227,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
+      <c r="Z141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
@@ -35018,6 +35255,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
+      <c r="Z142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
@@ -35045,6 +35283,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
@@ -35072,6 +35311,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
@@ -35099,6 +35339,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
@@ -35126,6 +35367,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
@@ -35153,6 +35395,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
     </row>
     <row r="148">
       <c r="A148" s="1"/>
@@ -35180,6 +35423,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
+      <c r="Z148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
@@ -35207,6 +35451,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
+      <c r="Z149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" s="1"/>
@@ -35234,6 +35479,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
@@ -35261,6 +35507,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
+      <c r="Z151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
@@ -35288,6 +35535,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
@@ -35315,6 +35563,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
+      <c r="Z153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
@@ -35342,6 +35591,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
+      <c r="Z154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
@@ -35369,6 +35619,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
+      <c r="Z155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
@@ -35396,6 +35647,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
+      <c r="Z156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
@@ -35423,6 +35675,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
+      <c r="Z157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
@@ -35450,6 +35703,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
+      <c r="Z158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
@@ -35477,6 +35731,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
@@ -35504,6 +35759,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
+      <c r="Z160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
@@ -35531,6 +35787,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
+      <c r="Z161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
@@ -35558,6 +35815,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
+      <c r="Z162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
@@ -35585,6 +35843,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
+      <c r="Z163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
@@ -35612,6 +35871,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
+      <c r="Z164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
@@ -35639,6 +35899,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
+      <c r="Z165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
@@ -35666,6 +35927,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
+      <c r="Z166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
@@ -35693,6 +35955,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
+      <c r="Z167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
@@ -35720,6 +35983,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
+      <c r="Z168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
@@ -35747,6 +36011,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
+      <c r="Z169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
@@ -35774,6 +36039,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
+      <c r="Z170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
@@ -35801,6 +36067,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
+      <c r="Z171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
@@ -35828,6 +36095,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
+      <c r="Z172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
@@ -35855,6 +36123,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
+      <c r="Z173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
@@ -35882,6 +36151,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
+      <c r="Z174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
@@ -35909,6 +36179,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
+      <c r="Z175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
@@ -35936,6 +36207,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
+      <c r="Z176" s="1"/>
     </row>
     <row r="177">
       <c r="A177" s="1"/>
@@ -35963,6 +36235,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
+      <c r="Z177" s="1"/>
     </row>
     <row r="178">
       <c r="A178" s="1"/>
@@ -35990,6 +36263,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
+      <c r="Z178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
@@ -36017,6 +36291,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
+      <c r="Z179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
@@ -36044,6 +36319,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
+      <c r="Z180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
@@ -36071,6 +36347,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
+      <c r="Z181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
@@ -36098,6 +36375,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
+      <c r="Z182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
@@ -36125,6 +36403,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
+      <c r="Z183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
@@ -36152,6 +36431,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
+      <c r="Z184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
@@ -36179,6 +36459,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
+      <c r="Z185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
@@ -36206,6 +36487,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
+      <c r="Z186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
@@ -36233,6 +36515,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
+      <c r="Z187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
@@ -36260,6 +36543,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
+      <c r="Z188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
@@ -36287,6 +36571,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
+      <c r="Z189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
@@ -36314,6 +36599,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
+      <c r="Z190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
@@ -36341,6 +36627,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
+      <c r="Z191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
@@ -36368,6 +36655,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
+      <c r="Z192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
@@ -36395,6 +36683,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
+      <c r="Z193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
@@ -36422,6 +36711,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
@@ -36449,6 +36739,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
+      <c r="Z195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
@@ -36476,6 +36767,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
+      <c r="Z196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
@@ -36503,6 +36795,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
+      <c r="Z197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
@@ -36530,6 +36823,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
+      <c r="Z198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
@@ -36557,6 +36851,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
+      <c r="Z199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
@@ -36584,6 +36879,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
+      <c r="Z200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
@@ -36611,6 +36907,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
+      <c r="Z201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
@@ -36638,6 +36935,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
+      <c r="Z202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
@@ -36665,6 +36963,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
+      <c r="Z203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
@@ -36692,6 +36991,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
+      <c r="Z204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
@@ -36719,6 +37019,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
+      <c r="Z205" s="1"/>
     </row>
     <row r="206">
       <c r="A206" s="1"/>
@@ -36746,6 +37047,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
+      <c r="Z206" s="1"/>
     </row>
     <row r="207">
       <c r="A207" s="1"/>
@@ -36773,6 +37075,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
+      <c r="Z207" s="1"/>
     </row>
     <row r="208">
       <c r="A208" s="1"/>
@@ -36800,6 +37103,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
+      <c r="Z208" s="1"/>
     </row>
     <row r="209">
       <c r="A209" s="1"/>
@@ -36827,6 +37131,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
+      <c r="Z209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
@@ -36854,6 +37159,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
+      <c r="Z210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
@@ -36881,6 +37187,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
+      <c r="Z211" s="1"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
@@ -36908,6 +37215,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
+      <c r="Z212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
@@ -36935,6 +37243,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
+      <c r="Z213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
@@ -36962,6 +37271,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
+      <c r="Z214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
@@ -36989,6 +37299,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
+      <c r="Z215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
@@ -37016,6 +37327,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
+      <c r="Z216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
@@ -37043,6 +37355,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
+      <c r="Z217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
@@ -37070,6 +37383,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
+      <c r="Z218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
@@ -37097,6 +37411,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
@@ -37124,6 +37439,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
+      <c r="Z220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
@@ -37151,6 +37467,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
+      <c r="Z221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
@@ -37178,6 +37495,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
+      <c r="Z222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
@@ -37205,6 +37523,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
+      <c r="Z223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
@@ -37232,6 +37551,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
+      <c r="Z224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
@@ -37259,6 +37579,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
+      <c r="Z225" s="1"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
@@ -37286,6 +37607,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
+      <c r="Z226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
@@ -37313,6 +37635,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
@@ -37340,6 +37663,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
+      <c r="Z228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
@@ -37367,6 +37691,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
+      <c r="Z229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
@@ -37394,6 +37719,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
@@ -37421,6 +37747,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
@@ -37448,6 +37775,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
@@ -37475,6 +37803,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
@@ -37502,6 +37831,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
     </row>
     <row r="235">
       <c r="A235" s="1"/>
@@ -37529,6 +37859,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" s="1"/>
@@ -37556,6 +37887,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
+      <c r="Z236" s="1"/>
     </row>
     <row r="237">
       <c r="A237" s="1"/>
@@ -37583,6 +37915,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
     </row>
     <row r="238">
       <c r="A238" s="1"/>
@@ -37610,6 +37943,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
+      <c r="Z238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" s="1"/>
@@ -37637,6 +37971,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
     </row>
     <row r="240">
       <c r="A240" s="1"/>
@@ -37664,6 +37999,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
+      <c r="Z240" s="1"/>
     </row>
     <row r="241">
       <c r="A241" s="1"/>
@@ -37691,6 +38027,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
+      <c r="Z241" s="1"/>
     </row>
     <row r="242">
       <c r="A242" s="1"/>
@@ -37718,6 +38055,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
     </row>
     <row r="243">
       <c r="A243" s="1"/>
@@ -37745,6 +38083,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
     </row>
     <row r="244">
       <c r="A244" s="1"/>
@@ -37772,6 +38111,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
+      <c r="Z244" s="1"/>
     </row>
     <row r="245">
       <c r="A245" s="1"/>
@@ -37799,6 +38139,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
+      <c r="Z245" s="1"/>
     </row>
     <row r="246">
       <c r="A246" s="1"/>
@@ -37826,6 +38167,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
+      <c r="Z246" s="1"/>
     </row>
     <row r="247">
       <c r="A247" s="1"/>
@@ -37853,6 +38195,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
+      <c r="Z247" s="1"/>
     </row>
     <row r="248">
       <c r="A248" s="1"/>
@@ -37880,6 +38223,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
+      <c r="Z248" s="1"/>
     </row>
     <row r="249">
       <c r="A249" s="1"/>
@@ -37907,6 +38251,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
+      <c r="Z249" s="1"/>
     </row>
     <row r="250">
       <c r="A250" s="1"/>
@@ -37934,6 +38279,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
+      <c r="Z250" s="1"/>
     </row>
     <row r="251">
       <c r="A251" s="1"/>
@@ -37961,6 +38307,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
+      <c r="Z251" s="1"/>
     </row>
     <row r="252">
       <c r="A252" s="1"/>
@@ -37988,6 +38335,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
+      <c r="Z252" s="1"/>
     </row>
     <row r="253">
       <c r="A253" s="1"/>
@@ -38015,6 +38363,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
+      <c r="Z253" s="1"/>
     </row>
     <row r="254">
       <c r="A254" s="1"/>
@@ -38042,6 +38391,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
+      <c r="Z254" s="1"/>
     </row>
     <row r="255">
       <c r="A255" s="1"/>
@@ -38069,6 +38419,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
+      <c r="Z255" s="1"/>
     </row>
     <row r="256">
       <c r="A256" s="1"/>
@@ -38096,6 +38447,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
+      <c r="Z256" s="1"/>
     </row>
     <row r="257">
       <c r="A257" s="1"/>
@@ -38123,6 +38475,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
+      <c r="Z257" s="1"/>
     </row>
     <row r="258">
       <c r="A258" s="1"/>
@@ -38150,6 +38503,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
+      <c r="Z258" s="1"/>
     </row>
     <row r="259">
       <c r="A259" s="1"/>
@@ -38177,6 +38531,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
+      <c r="Z259" s="1"/>
     </row>
     <row r="260">
       <c r="A260" s="1"/>
@@ -38204,6 +38559,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
+      <c r="Z260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" s="1"/>
@@ -38231,6 +38587,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
+      <c r="Z261" s="1"/>
     </row>
     <row r="262">
       <c r="A262" s="1"/>
@@ -38258,6 +38615,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
+      <c r="Z262" s="1"/>
     </row>
     <row r="263">
       <c r="A263" s="1"/>
@@ -38285,6 +38643,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
+      <c r="Z263" s="1"/>
     </row>
     <row r="264">
       <c r="A264" s="1"/>
@@ -38312,6 +38671,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
+      <c r="Z264" s="1"/>
     </row>
     <row r="265">
       <c r="A265" s="1"/>
@@ -38339,6 +38699,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
+      <c r="Z265" s="1"/>
     </row>
     <row r="266">
       <c r="A266" s="1"/>
@@ -38366,6 +38727,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
+      <c r="Z266" s="1"/>
     </row>
     <row r="267">
       <c r="A267" s="1"/>
@@ -38393,6 +38755,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
+      <c r="Z267" s="1"/>
     </row>
     <row r="268">
       <c r="A268" s="1"/>
@@ -38420,6 +38783,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
+      <c r="Z268" s="1"/>
     </row>
     <row r="269">
       <c r="A269" s="1"/>
@@ -38447,6 +38811,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
+      <c r="Z269" s="1"/>
     </row>
     <row r="270">
       <c r="A270" s="1"/>
@@ -38474,6 +38839,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
+      <c r="Z270" s="1"/>
     </row>
     <row r="271">
       <c r="A271" s="1"/>
@@ -38501,6 +38867,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
+      <c r="Z271" s="1"/>
     </row>
     <row r="272">
       <c r="A272" s="1"/>
@@ -38528,6 +38895,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
+      <c r="Z272" s="1"/>
     </row>
     <row r="273">
       <c r="A273" s="1"/>
@@ -38555,6 +38923,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
+      <c r="Z273" s="1"/>
     </row>
     <row r="274">
       <c r="A274" s="1"/>
@@ -38582,6 +38951,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
+      <c r="Z274" s="1"/>
     </row>
     <row r="275">
       <c r="A275" s="1"/>
@@ -38609,6 +38979,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
+      <c r="Z275" s="1"/>
     </row>
     <row r="276">
       <c r="A276" s="1"/>
@@ -38636,6 +39007,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
+      <c r="Z276" s="1"/>
     </row>
     <row r="277">
       <c r="A277" s="1"/>
@@ -38663,6 +39035,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
+      <c r="Z277" s="1"/>
     </row>
     <row r="278">
       <c r="A278" s="1"/>
@@ -38690,6 +39063,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
+      <c r="Z278" s="1"/>
     </row>
     <row r="279">
       <c r="A279" s="1"/>
@@ -38717,6 +39091,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
+      <c r="Z279" s="1"/>
     </row>
     <row r="280">
       <c r="A280" s="1"/>
@@ -38744,6 +39119,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
+      <c r="Z280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" s="1"/>
@@ -38771,6 +39147,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
+      <c r="Z281" s="1"/>
     </row>
     <row r="282">
       <c r="A282" s="1"/>
@@ -38798,6 +39175,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
+      <c r="Z282" s="1"/>
     </row>
     <row r="283">
       <c r="A283" s="1"/>
@@ -38825,6 +39203,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
+      <c r="Z283" s="1"/>
     </row>
     <row r="284">
       <c r="A284" s="1"/>
@@ -38852,6 +39231,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
+      <c r="Z284" s="1"/>
     </row>
     <row r="285">
       <c r="A285" s="1"/>
@@ -38879,6 +39259,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
+      <c r="Z285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" s="1"/>
@@ -38906,6 +39287,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
+      <c r="Z286" s="1"/>
     </row>
     <row r="287">
       <c r="A287" s="1"/>
@@ -38933,6 +39315,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
+      <c r="Z287" s="1"/>
     </row>
     <row r="288">
       <c r="A288" s="1"/>
@@ -38960,6 +39343,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
+      <c r="Z288" s="1"/>
     </row>
     <row r="289">
       <c r="A289" s="1"/>
@@ -38987,6 +39371,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
+      <c r="Z289" s="1"/>
     </row>
     <row r="290">
       <c r="A290" s="1"/>
@@ -39014,6 +39399,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
+      <c r="Z290" s="1"/>
     </row>
     <row r="291">
       <c r="A291" s="1"/>
@@ -39041,6 +39427,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
+      <c r="Z291" s="1"/>
     </row>
     <row r="292">
       <c r="A292" s="1"/>
@@ -39068,6 +39455,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
+      <c r="Z292" s="1"/>
     </row>
     <row r="293">
       <c r="A293" s="1"/>
@@ -39095,6 +39483,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
+      <c r="Z293" s="1"/>
     </row>
     <row r="294">
       <c r="A294" s="1"/>
@@ -39122,6 +39511,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
+      <c r="Z294" s="1"/>
     </row>
     <row r="295">
       <c r="A295" s="1"/>
@@ -39149,6 +39539,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
+      <c r="Z295" s="1"/>
     </row>
     <row r="296">
       <c r="A296" s="1"/>
@@ -39176,6 +39567,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
+      <c r="Z296" s="1"/>
     </row>
     <row r="297">
       <c r="A297" s="1"/>
@@ -39203,6 +39595,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
+      <c r="Z297" s="1"/>
     </row>
     <row r="298">
       <c r="A298" s="1"/>
@@ -39230,6 +39623,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
+      <c r="Z298" s="1"/>
     </row>
     <row r="299">
       <c r="A299" s="1"/>
@@ -39257,6 +39651,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
+      <c r="Z299" s="1"/>
     </row>
     <row r="300">
       <c r="A300" s="1"/>
@@ -39284,6 +39679,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
+      <c r="Z300" s="1"/>
     </row>
     <row r="301">
       <c r="A301" s="1"/>
@@ -39311,6 +39707,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
+      <c r="Z301" s="1"/>
     </row>
     <row r="302">
       <c r="A302" s="1"/>
@@ -39338,6 +39735,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
+      <c r="Z302" s="1"/>
     </row>
     <row r="303">
       <c r="A303" s="1"/>
@@ -39365,6 +39763,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
+      <c r="Z303" s="1"/>
     </row>
     <row r="304">
       <c r="A304" s="1"/>
@@ -39392,6 +39791,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
+      <c r="Z304" s="1"/>
     </row>
     <row r="305">
       <c r="A305" s="1"/>
@@ -39419,6 +39819,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
+      <c r="Z305" s="1"/>
     </row>
     <row r="306">
       <c r="A306" s="1"/>
@@ -39446,6 +39847,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
+      <c r="Z306" s="1"/>
     </row>
     <row r="307">
       <c r="A307" s="1"/>
@@ -39473,6 +39875,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
+      <c r="Z307" s="1"/>
     </row>
     <row r="308">
       <c r="A308" s="1"/>
@@ -39500,6 +39903,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
+      <c r="Z308" s="1"/>
     </row>
     <row r="309">
       <c r="A309" s="1"/>
@@ -39527,6 +39931,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
+      <c r="Z309" s="1"/>
     </row>
     <row r="310">
       <c r="A310" s="1"/>
@@ -39554,6 +39959,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
+      <c r="Z310" s="1"/>
     </row>
     <row r="311">
       <c r="A311" s="1"/>
@@ -39581,6 +39987,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
+      <c r="Z311" s="1"/>
     </row>
     <row r="312">
       <c r="A312" s="1"/>
@@ -39608,6 +40015,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
+      <c r="Z312" s="1"/>
     </row>
     <row r="313">
       <c r="A313" s="1"/>
@@ -39635,6 +40043,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
+      <c r="Z313" s="1"/>
     </row>
     <row r="314">
       <c r="A314" s="1"/>
@@ -39662,6 +40071,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
+      <c r="Z314" s="1"/>
     </row>
     <row r="315">
       <c r="A315" s="1"/>
@@ -39689,6 +40099,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
+      <c r="Z315" s="1"/>
     </row>
     <row r="316">
       <c r="A316" s="1"/>
@@ -39716,6 +40127,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
+      <c r="Z316" s="1"/>
     </row>
     <row r="317">
       <c r="A317" s="1"/>
@@ -39743,6 +40155,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
+      <c r="Z317" s="1"/>
     </row>
     <row r="318">
       <c r="A318" s="1"/>
@@ -39770,6 +40183,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
+      <c r="Z318" s="1"/>
     </row>
     <row r="319">
       <c r="A319" s="1"/>
@@ -39797,6 +40211,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
+      <c r="Z319" s="1"/>
     </row>
     <row r="320">
       <c r="A320" s="1"/>
@@ -39824,6 +40239,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
+      <c r="Z320" s="1"/>
     </row>
     <row r="321">
       <c r="A321" s="1"/>
@@ -39851,6 +40267,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
+      <c r="Z321" s="1"/>
     </row>
     <row r="322">
       <c r="A322" s="1"/>
@@ -39878,6 +40295,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
+      <c r="Z322" s="1"/>
     </row>
     <row r="323">
       <c r="A323" s="1"/>
@@ -39905,6 +40323,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
+      <c r="Z323" s="1"/>
     </row>
     <row r="324">
       <c r="A324" s="1"/>
@@ -39932,6 +40351,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
+      <c r="Z324" s="1"/>
     </row>
     <row r="325">
       <c r="A325" s="1"/>
@@ -39959,6 +40379,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
+      <c r="Z325" s="1"/>
     </row>
     <row r="326">
       <c r="A326" s="1"/>
@@ -39986,6 +40407,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
+      <c r="Z326" s="1"/>
     </row>
     <row r="327">
       <c r="A327" s="1"/>
@@ -40013,6 +40435,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
+      <c r="Z327" s="1"/>
     </row>
     <row r="328">
       <c r="A328" s="1"/>
@@ -40040,6 +40463,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
+      <c r="Z328" s="1"/>
     </row>
     <row r="329">
       <c r="A329" s="1"/>
@@ -40067,6 +40491,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
+      <c r="Z329" s="1"/>
     </row>
     <row r="330">
       <c r="A330" s="1"/>
@@ -40094,6 +40519,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
+      <c r="Z330" s="1"/>
     </row>
     <row r="331">
       <c r="A331" s="1"/>
@@ -40121,6 +40547,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
+      <c r="Z331" s="1"/>
     </row>
     <row r="332">
       <c r="A332" s="1"/>
@@ -40148,6 +40575,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
+      <c r="Z332" s="1"/>
     </row>
     <row r="333">
       <c r="A333" s="1"/>
@@ -40175,6 +40603,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
+      <c r="Z333" s="1"/>
     </row>
     <row r="334">
       <c r="A334" s="1"/>
@@ -40202,6 +40631,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
+      <c r="Z334" s="1"/>
     </row>
     <row r="335">
       <c r="A335" s="1"/>
@@ -40229,6 +40659,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
+      <c r="Z335" s="1"/>
     </row>
     <row r="336">
       <c r="A336" s="1"/>
@@ -40256,6 +40687,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
+      <c r="Z336" s="1"/>
     </row>
     <row r="337">
       <c r="A337" s="1"/>
@@ -40283,6 +40715,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
+      <c r="Z337" s="1"/>
     </row>
     <row r="338">
       <c r="A338" s="1"/>
@@ -40310,6 +40743,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
+      <c r="Z338" s="1"/>
     </row>
     <row r="339">
       <c r="A339" s="1"/>
@@ -40337,6 +40771,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
+      <c r="Z339" s="1"/>
     </row>
     <row r="340">
       <c r="A340" s="1"/>
@@ -40364,6 +40799,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
+      <c r="Z340" s="1"/>
     </row>
     <row r="341">
       <c r="A341" s="1"/>
@@ -40391,6 +40827,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
+      <c r="Z341" s="1"/>
     </row>
     <row r="342">
       <c r="A342" s="1"/>
@@ -40418,6 +40855,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
+      <c r="Z342" s="1"/>
     </row>
     <row r="343">
       <c r="A343" s="1"/>
@@ -40445,6 +40883,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
+      <c r="Z343" s="1"/>
     </row>
     <row r="344">
       <c r="A344" s="1"/>
@@ -40472,6 +40911,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
+      <c r="Z344" s="1"/>
     </row>
     <row r="345">
       <c r="A345" s="1"/>
@@ -40499,6 +40939,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
+      <c r="Z345" s="1"/>
     </row>
     <row r="346">
       <c r="A346" s="1"/>
@@ -40526,6 +40967,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
+      <c r="Z346" s="1"/>
     </row>
     <row r="347">
       <c r="A347" s="1"/>
@@ -40553,6 +40995,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
+      <c r="Z347" s="1"/>
     </row>
     <row r="348">
       <c r="A348" s="1"/>
@@ -40580,6 +41023,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
+      <c r="Z348" s="1"/>
     </row>
     <row r="349">
       <c r="A349" s="1"/>
@@ -40607,6 +41051,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
+      <c r="Z349" s="1"/>
     </row>
     <row r="350">
       <c r="A350" s="1"/>
@@ -40634,6 +41079,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
+      <c r="Z350" s="1"/>
     </row>
     <row r="351">
       <c r="A351" s="1"/>
@@ -40661,6 +41107,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
+      <c r="Z351" s="1"/>
     </row>
     <row r="352">
       <c r="A352" s="1"/>
@@ -40688,6 +41135,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
+      <c r="Z352" s="1"/>
     </row>
     <row r="353">
       <c r="A353" s="1"/>
@@ -40715,6 +41163,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
+      <c r="Z353" s="1"/>
     </row>
     <row r="354">
       <c r="A354" s="1"/>
@@ -40742,6 +41191,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
+      <c r="Z354" s="1"/>
     </row>
     <row r="355">
       <c r="A355" s="1"/>
@@ -40769,6 +41219,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
+      <c r="Z355" s="1"/>
     </row>
     <row r="356">
       <c r="A356" s="1"/>
@@ -40796,6 +41247,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
+      <c r="Z356" s="1"/>
     </row>
     <row r="357">
       <c r="A357" s="1"/>
@@ -40823,6 +41275,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
+      <c r="Z357" s="1"/>
     </row>
     <row r="358">
       <c r="A358" s="1"/>
@@ -40850,6 +41303,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
+      <c r="Z358" s="1"/>
     </row>
     <row r="359">
       <c r="A359" s="1"/>
@@ -40877,6 +41331,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
+      <c r="Z359" s="1"/>
     </row>
     <row r="360">
       <c r="A360" s="1"/>
@@ -40904,6 +41359,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
+      <c r="Z360" s="1"/>
     </row>
     <row r="361">
       <c r="A361" s="1"/>
@@ -40931,6 +41387,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
+      <c r="Z361" s="1"/>
     </row>
     <row r="362">
       <c r="A362" s="1"/>
@@ -40958,6 +41415,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
+      <c r="Z362" s="1"/>
     </row>
     <row r="363">
       <c r="A363" s="1"/>
@@ -40985,6 +41443,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
+      <c r="Z363" s="1"/>
     </row>
     <row r="364">
       <c r="A364" s="1"/>
@@ -41012,6 +41471,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
+      <c r="Z364" s="1"/>
     </row>
     <row r="365">
       <c r="A365" s="1"/>
@@ -41039,6 +41499,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
+      <c r="Z365" s="1"/>
     </row>
     <row r="366">
       <c r="A366" s="1"/>
@@ -41066,6 +41527,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
+      <c r="Z366" s="1"/>
     </row>
     <row r="367">
       <c r="A367" s="1"/>
@@ -41093,6 +41555,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
+      <c r="Z367" s="1"/>
     </row>
     <row r="368">
       <c r="A368" s="1"/>
@@ -41120,6 +41583,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
+      <c r="Z368" s="1"/>
     </row>
     <row r="369">
       <c r="A369" s="1"/>
@@ -41147,6 +41611,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
+      <c r="Z369" s="1"/>
     </row>
     <row r="370">
       <c r="A370" s="1"/>
@@ -41174,6 +41639,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
+      <c r="Z370" s="1"/>
     </row>
     <row r="371">
       <c r="A371" s="1"/>
@@ -41201,6 +41667,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
+      <c r="Z371" s="1"/>
     </row>
     <row r="372">
       <c r="A372" s="1"/>
@@ -41228,6 +41695,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
+      <c r="Z372" s="1"/>
     </row>
     <row r="373">
       <c r="A373" s="1"/>
@@ -41255,6 +41723,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
+      <c r="Z373" s="1"/>
     </row>
     <row r="374">
       <c r="A374" s="1"/>
@@ -41282,6 +41751,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
+      <c r="Z374" s="1"/>
     </row>
     <row r="375">
       <c r="A375" s="1"/>
@@ -41309,6 +41779,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
+      <c r="Z375" s="1"/>
     </row>
     <row r="376">
       <c r="A376" s="1"/>
@@ -41336,6 +41807,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
+      <c r="Z376" s="1"/>
     </row>
     <row r="377">
       <c r="A377" s="1"/>
@@ -41363,6 +41835,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
+      <c r="Z377" s="1"/>
     </row>
     <row r="378">
       <c r="A378" s="1"/>
@@ -41390,6 +41863,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
+      <c r="Z378" s="1"/>
     </row>
     <row r="379">
       <c r="A379" s="1"/>
@@ -41417,6 +41891,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
+      <c r="Z379" s="1"/>
     </row>
     <row r="380">
       <c r="A380" s="1"/>
@@ -41444,6 +41919,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
+      <c r="Z380" s="1"/>
     </row>
     <row r="381">
       <c r="A381" s="1"/>
@@ -41471,6 +41947,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
+      <c r="Z381" s="1"/>
     </row>
     <row r="382">
       <c r="A382" s="1"/>
@@ -41498,6 +41975,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
+      <c r="Z382" s="1"/>
     </row>
     <row r="383">
       <c r="A383" s="1"/>
@@ -41525,6 +42003,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
+      <c r="Z383" s="1"/>
     </row>
     <row r="384">
       <c r="A384" s="1"/>
@@ -41552,6 +42031,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
+      <c r="Z384" s="1"/>
     </row>
     <row r="385">
       <c r="A385" s="1"/>
@@ -41579,6 +42059,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
+      <c r="Z385" s="1"/>
     </row>
     <row r="386">
       <c r="A386" s="1"/>
@@ -41606,6 +42087,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
+      <c r="Z386" s="1"/>
     </row>
     <row r="387">
       <c r="A387" s="1"/>
@@ -41633,6 +42115,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
+      <c r="Z387" s="1"/>
     </row>
     <row r="388">
       <c r="A388" s="1"/>
@@ -41660,6 +42143,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
+      <c r="Z388" s="1"/>
     </row>
     <row r="389">
       <c r="A389" s="1"/>
@@ -41687,6 +42171,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
+      <c r="Z389" s="1"/>
     </row>
     <row r="390">
       <c r="A390" s="1"/>
@@ -41714,6 +42199,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
+      <c r="Z390" s="1"/>
     </row>
     <row r="391">
       <c r="A391" s="1"/>
@@ -41741,6 +42227,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
+      <c r="Z391" s="1"/>
     </row>
     <row r="392">
       <c r="A392" s="1"/>
@@ -41768,6 +42255,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
+      <c r="Z392" s="1"/>
     </row>
     <row r="393">
       <c r="A393" s="1"/>
@@ -41795,6 +42283,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
+      <c r="Z393" s="1"/>
     </row>
     <row r="394">
       <c r="A394" s="1"/>
@@ -41822,6 +42311,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
+      <c r="Z394" s="1"/>
     </row>
     <row r="395">
       <c r="A395" s="1"/>
@@ -41849,6 +42339,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
+      <c r="Z395" s="1"/>
     </row>
     <row r="396">
       <c r="A396" s="1"/>
@@ -41876,6 +42367,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
+      <c r="Z396" s="1"/>
     </row>
     <row r="397">
       <c r="A397" s="1"/>
@@ -41903,6 +42395,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
+      <c r="Z397" s="1"/>
     </row>
     <row r="398">
       <c r="A398" s="1"/>
@@ -41930,6 +42423,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
+      <c r="Z398" s="1"/>
     </row>
     <row r="399">
       <c r="A399" s="1"/>
@@ -41957,6 +42451,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
+      <c r="Z399" s="1"/>
     </row>
     <row r="400">
       <c r="A400" s="1"/>
@@ -41984,6 +42479,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
+      <c r="Z400" s="1"/>
     </row>
     <row r="401">
       <c r="A401" s="1"/>
@@ -42011,6 +42507,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
+      <c r="Z401" s="1"/>
     </row>
     <row r="402">
       <c r="A402" s="1"/>
@@ -42038,6 +42535,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
+      <c r="Z402" s="1"/>
     </row>
     <row r="403">
       <c r="A403" s="1"/>
@@ -42065,6 +42563,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
+      <c r="Z403" s="1"/>
     </row>
     <row r="404">
       <c r="A404" s="1"/>
@@ -42092,6 +42591,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
+      <c r="Z404" s="1"/>
     </row>
     <row r="405">
       <c r="A405" s="1"/>
@@ -42119,6 +42619,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
+      <c r="Z405" s="1"/>
     </row>
     <row r="406">
       <c r="A406" s="1"/>
@@ -42146,6 +42647,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
+      <c r="Z406" s="1"/>
     </row>
     <row r="407">
       <c r="A407" s="1"/>
@@ -42173,6 +42675,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
+      <c r="Z407" s="1"/>
     </row>
     <row r="408">
       <c r="A408" s="1"/>
@@ -42200,6 +42703,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
+      <c r="Z408" s="1"/>
     </row>
     <row r="409">
       <c r="A409" s="1"/>
@@ -42227,6 +42731,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
+      <c r="Z409" s="1"/>
     </row>
     <row r="410">
       <c r="A410" s="1"/>
@@ -42254,6 +42759,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
+      <c r="Z410" s="1"/>
     </row>
     <row r="411">
       <c r="A411" s="1"/>
@@ -42281,6 +42787,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
+      <c r="Z411" s="1"/>
     </row>
     <row r="412">
       <c r="A412" s="1"/>
@@ -42308,6 +42815,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
+      <c r="Z412" s="1"/>
     </row>
     <row r="413">
       <c r="A413" s="1"/>
@@ -42335,6 +42843,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
+      <c r="Z413" s="1"/>
     </row>
     <row r="414">
       <c r="A414" s="1"/>
@@ -42362,6 +42871,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
+      <c r="Z414" s="1"/>
     </row>
     <row r="415">
       <c r="A415" s="1"/>
@@ -42389,6 +42899,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
+      <c r="Z415" s="1"/>
     </row>
     <row r="416">
       <c r="A416" s="1"/>
@@ -42416,6 +42927,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
+      <c r="Z416" s="1"/>
     </row>
     <row r="417">
       <c r="A417" s="1"/>
@@ -42443,6 +42955,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
+      <c r="Z417" s="1"/>
     </row>
     <row r="418">
       <c r="A418" s="1"/>
@@ -42470,6 +42983,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
+      <c r="Z418" s="1"/>
     </row>
     <row r="419">
       <c r="A419" s="1"/>
@@ -42497,6 +43011,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
+      <c r="Z419" s="1"/>
     </row>
     <row r="420">
       <c r="A420" s="1"/>
@@ -42524,6 +43039,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
+      <c r="Z420" s="1"/>
     </row>
     <row r="421">
       <c r="A421" s="1"/>
@@ -42551,6 +43067,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
+      <c r="Z421" s="1"/>
     </row>
     <row r="422">
       <c r="A422" s="1"/>
@@ -42578,6 +43095,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
+      <c r="Z422" s="1"/>
     </row>
     <row r="423">
       <c r="A423" s="1"/>
@@ -42605,6 +43123,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
+      <c r="Z423" s="1"/>
     </row>
     <row r="424">
       <c r="A424" s="1"/>
@@ -42632,6 +43151,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
+      <c r="Z424" s="1"/>
     </row>
     <row r="425">
       <c r="A425" s="1"/>
@@ -42659,6 +43179,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
+      <c r="Z425" s="1"/>
     </row>
     <row r="426">
       <c r="A426" s="1"/>
@@ -42686,6 +43207,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
+      <c r="Z426" s="1"/>
     </row>
     <row r="427">
       <c r="A427" s="1"/>
@@ -42713,6 +43235,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
+      <c r="Z427" s="1"/>
     </row>
     <row r="428">
       <c r="A428" s="1"/>
@@ -42740,6 +43263,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
+      <c r="Z428" s="1"/>
     </row>
     <row r="429">
       <c r="A429" s="1"/>
@@ -42767,6 +43291,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
+      <c r="Z429" s="1"/>
     </row>
     <row r="430">
       <c r="A430" s="1"/>
@@ -42794,6 +43319,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
+      <c r="Z430" s="1"/>
     </row>
     <row r="431">
       <c r="A431" s="1"/>
@@ -42821,6 +43347,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
+      <c r="Z431" s="1"/>
     </row>
     <row r="432">
       <c r="A432" s="1"/>
@@ -42848,6 +43375,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
+      <c r="Z432" s="1"/>
     </row>
     <row r="433">
       <c r="A433" s="1"/>
@@ -42875,6 +43403,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
+      <c r="Z433" s="1"/>
     </row>
     <row r="434">
       <c r="A434" s="1"/>
@@ -42902,6 +43431,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
+      <c r="Z434" s="1"/>
     </row>
     <row r="435">
       <c r="A435" s="1"/>
@@ -42929,6 +43459,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
+      <c r="Z435" s="1"/>
     </row>
     <row r="436">
       <c r="A436" s="1"/>
@@ -42956,6 +43487,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
+      <c r="Z436" s="1"/>
     </row>
     <row r="437">
       <c r="A437" s="1"/>
@@ -42983,6 +43515,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
+      <c r="Z437" s="1"/>
     </row>
     <row r="438">
       <c r="A438" s="1"/>
@@ -43010,6 +43543,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
+      <c r="Z438" s="1"/>
     </row>
     <row r="439">
       <c r="A439" s="1"/>
@@ -43037,6 +43571,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
+      <c r="Z439" s="1"/>
     </row>
     <row r="440">
       <c r="A440" s="1"/>
@@ -43064,6 +43599,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
+      <c r="Z440" s="1"/>
     </row>
     <row r="441">
       <c r="A441" s="1"/>
@@ -43091,6 +43627,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
+      <c r="Z441" s="1"/>
     </row>
     <row r="442">
       <c r="A442" s="1"/>
@@ -43118,6 +43655,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
+      <c r="Z442" s="1"/>
     </row>
     <row r="443">
       <c r="A443" s="1"/>
@@ -43145,6 +43683,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
+      <c r="Z443" s="1"/>
     </row>
     <row r="444">
       <c r="A444" s="1"/>
@@ -43172,6 +43711,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
+      <c r="Z444" s="1"/>
     </row>
     <row r="445">
       <c r="A445" s="1"/>
@@ -43199,6 +43739,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
+      <c r="Z445" s="1"/>
     </row>
     <row r="446">
       <c r="A446" s="1"/>
@@ -43226,6 +43767,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
+      <c r="Z446" s="1"/>
     </row>
     <row r="447">
       <c r="A447" s="1"/>
@@ -43253,6 +43795,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
+      <c r="Z447" s="1"/>
     </row>
     <row r="448">
       <c r="A448" s="1"/>
@@ -43280,6 +43823,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
+      <c r="Z448" s="1"/>
     </row>
     <row r="449">
       <c r="A449" s="1"/>
@@ -43307,6 +43851,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
+      <c r="Z449" s="1"/>
     </row>
     <row r="450">
       <c r="A450" s="1"/>
@@ -43334,6 +43879,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
+      <c r="Z450" s="1"/>
     </row>
     <row r="451">
       <c r="A451" s="1"/>
@@ -43361,6 +43907,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
+      <c r="Z451" s="1"/>
     </row>
     <row r="452">
       <c r="A452" s="1"/>
@@ -43388,6 +43935,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
+      <c r="Z452" s="1"/>
     </row>
     <row r="453">
       <c r="A453" s="1"/>
@@ -43415,6 +43963,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
+      <c r="Z453" s="1"/>
     </row>
     <row r="454">
       <c r="A454" s="1"/>
@@ -43442,6 +43991,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
+      <c r="Z454" s="1"/>
     </row>
     <row r="455">
       <c r="A455" s="1"/>
@@ -43469,6 +44019,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
+      <c r="Z455" s="1"/>
     </row>
     <row r="456">
       <c r="A456" s="1"/>
@@ -43496,6 +44047,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
+      <c r="Z456" s="1"/>
     </row>
     <row r="457">
       <c r="A457" s="1"/>
@@ -43523,6 +44075,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
+      <c r="Z457" s="1"/>
     </row>
     <row r="458">
       <c r="A458" s="1"/>
@@ -43550,6 +44103,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
+      <c r="Z458" s="1"/>
     </row>
     <row r="459">
       <c r="A459" s="1"/>
@@ -43577,6 +44131,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
+      <c r="Z459" s="1"/>
     </row>
     <row r="460">
       <c r="A460" s="1"/>
@@ -43604,6 +44159,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
+      <c r="Z460" s="1"/>
     </row>
     <row r="461">
       <c r="A461" s="1"/>
@@ -43631,6 +44187,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
+      <c r="Z461" s="1"/>
     </row>
     <row r="462">
       <c r="A462" s="1"/>
@@ -43658,6 +44215,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
+      <c r="Z462" s="1"/>
     </row>
     <row r="463">
       <c r="A463" s="1"/>
@@ -43685,6 +44243,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
+      <c r="Z463" s="1"/>
     </row>
     <row r="464">
       <c r="A464" s="1"/>
@@ -43712,6 +44271,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
+      <c r="Z464" s="1"/>
     </row>
     <row r="465">
       <c r="A465" s="1"/>
@@ -43739,6 +44299,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
+      <c r="Z465" s="1"/>
     </row>
     <row r="466">
       <c r="A466" s="1"/>
@@ -43766,6 +44327,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
+      <c r="Z466" s="1"/>
     </row>
     <row r="467">
       <c r="A467" s="1"/>
@@ -43793,6 +44355,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
+      <c r="Z467" s="1"/>
     </row>
     <row r="468">
       <c r="A468" s="1"/>
@@ -43820,6 +44383,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
+      <c r="Z468" s="1"/>
     </row>
     <row r="469">
       <c r="A469" s="1"/>
@@ -43847,6 +44411,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
+      <c r="Z469" s="1"/>
     </row>
     <row r="470">
       <c r="A470" s="1"/>
@@ -43874,6 +44439,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
+      <c r="Z470" s="1"/>
     </row>
     <row r="471">
       <c r="A471" s="1"/>
@@ -43901,6 +44467,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
+      <c r="Z471" s="1"/>
     </row>
     <row r="472">
       <c r="A472" s="1"/>
@@ -43928,6 +44495,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
+      <c r="Z472" s="1"/>
     </row>
     <row r="473">
       <c r="A473" s="1"/>
@@ -43955,6 +44523,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
+      <c r="Z473" s="1"/>
     </row>
     <row r="474">
       <c r="A474" s="1"/>
@@ -43982,6 +44551,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
+      <c r="Z474" s="1"/>
     </row>
     <row r="475">
       <c r="A475" s="1"/>
@@ -44009,6 +44579,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
+      <c r="Z475" s="1"/>
     </row>
     <row r="476">
       <c r="A476" s="1"/>
@@ -44036,6 +44607,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
+      <c r="Z476" s="1"/>
     </row>
     <row r="477">
       <c r="A477" s="1"/>
@@ -44063,6 +44635,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
+      <c r="Z477" s="1"/>
     </row>
     <row r="478">
       <c r="A478" s="1"/>
@@ -44090,6 +44663,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
+      <c r="Z478" s="1"/>
     </row>
     <row r="479">
       <c r="A479" s="1"/>
@@ -44117,6 +44691,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
+      <c r="Z479" s="1"/>
     </row>
     <row r="480">
       <c r="A480" s="1"/>
@@ -44144,6 +44719,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
+      <c r="Z480" s="1"/>
     </row>
     <row r="481">
       <c r="A481" s="1"/>
@@ -44171,6 +44747,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
+      <c r="Z481" s="1"/>
     </row>
     <row r="482">
       <c r="A482" s="1"/>
@@ -44198,6 +44775,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
+      <c r="Z482" s="1"/>
     </row>
     <row r="483">
       <c r="A483" s="1"/>
@@ -44225,6 +44803,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
+      <c r="Z483" s="1"/>
     </row>
     <row r="484">
       <c r="A484" s="1"/>
@@ -44252,6 +44831,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
+      <c r="Z484" s="1"/>
     </row>
     <row r="485">
       <c r="A485" s="1"/>
@@ -44279,6 +44859,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
+      <c r="Z485" s="1"/>
     </row>
     <row r="486">
       <c r="A486" s="1"/>
@@ -44306,6 +44887,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
+      <c r="Z486" s="1"/>
     </row>
     <row r="487">
       <c r="A487" s="1"/>
@@ -44333,6 +44915,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
+      <c r="Z487" s="1"/>
     </row>
     <row r="488">
       <c r="A488" s="1"/>
@@ -44360,6 +44943,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
+      <c r="Z488" s="1"/>
     </row>
     <row r="489">
       <c r="A489" s="1"/>
@@ -44387,6 +44971,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
+      <c r="Z489" s="1"/>
     </row>
     <row r="490">
       <c r="A490" s="1"/>
@@ -44414,6 +44999,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
+      <c r="Z490" s="1"/>
     </row>
     <row r="491">
       <c r="A491" s="1"/>
@@ -44441,6 +45027,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
+      <c r="Z491" s="1"/>
     </row>
     <row r="492">
       <c r="A492" s="1"/>
@@ -44468,6 +45055,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
+      <c r="Z492" s="1"/>
     </row>
     <row r="493">
       <c r="A493" s="1"/>
@@ -44495,6 +45083,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
+      <c r="Z493" s="1"/>
     </row>
     <row r="494">
       <c r="A494" s="1"/>
@@ -44522,6 +45111,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
+      <c r="Z494" s="1"/>
     </row>
     <row r="495">
       <c r="A495" s="1"/>
@@ -44549,6 +45139,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
+      <c r="Z495" s="1"/>
     </row>
     <row r="496">
       <c r="A496" s="1"/>
@@ -44576,6 +45167,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
+      <c r="Z496" s="1"/>
     </row>
     <row r="497">
       <c r="A497" s="1"/>
@@ -44603,6 +45195,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
+      <c r="Z497" s="1"/>
     </row>
     <row r="498">
       <c r="A498" s="1"/>
@@ -44630,6 +45223,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
+      <c r="Z498" s="1"/>
     </row>
     <row r="499">
       <c r="A499" s="1"/>
@@ -44657,6 +45251,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
+      <c r="Z499" s="1"/>
     </row>
     <row r="500">
       <c r="A500" s="1"/>
@@ -44684,6 +45279,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
+      <c r="Z500" s="1"/>
     </row>
     <row r="501">
       <c r="A501" s="1"/>
@@ -44711,6 +45307,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
+      <c r="Z501" s="1"/>
     </row>
     <row r="502">
       <c r="A502" s="1"/>
@@ -44738,6 +45335,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
+      <c r="Z502" s="1"/>
     </row>
     <row r="503">
       <c r="A503" s="1"/>
@@ -44765,6 +45363,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
+      <c r="Z503" s="1"/>
     </row>
     <row r="504">
       <c r="A504" s="1"/>
@@ -44792,6 +45391,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
+      <c r="Z504" s="1"/>
     </row>
     <row r="505">
       <c r="A505" s="1"/>
@@ -44819,6 +45419,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
+      <c r="Z505" s="1"/>
     </row>
     <row r="506">
       <c r="A506" s="1"/>
@@ -44846,6 +45447,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
+      <c r="Z506" s="1"/>
     </row>
     <row r="507">
       <c r="A507" s="1"/>
@@ -44873,6 +45475,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
+      <c r="Z507" s="1"/>
     </row>
     <row r="508">
       <c r="A508" s="1"/>
@@ -44900,6 +45503,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
+      <c r="Z508" s="1"/>
     </row>
     <row r="509">
       <c r="A509" s="1"/>
@@ -44927,6 +45531,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
+      <c r="Z509" s="1"/>
     </row>
     <row r="510">
       <c r="A510" s="1"/>
@@ -44954,6 +45559,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
+      <c r="Z510" s="1"/>
     </row>
     <row r="511">
       <c r="A511" s="1"/>
@@ -44981,6 +45587,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
+      <c r="Z511" s="1"/>
     </row>
     <row r="512">
       <c r="A512" s="1"/>
@@ -45008,6 +45615,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
+      <c r="Z512" s="1"/>
     </row>
     <row r="513">
       <c r="A513" s="1"/>
@@ -45035,6 +45643,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
+      <c r="Z513" s="1"/>
     </row>
     <row r="514">
       <c r="A514" s="1"/>
@@ -45062,6 +45671,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
+      <c r="Z514" s="1"/>
     </row>
     <row r="515">
       <c r="A515" s="1"/>
@@ -45089,6 +45699,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
+      <c r="Z515" s="1"/>
     </row>
     <row r="516">
       <c r="A516" s="1"/>
@@ -45116,6 +45727,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
+      <c r="Z516" s="1"/>
     </row>
     <row r="517">
       <c r="A517" s="1"/>
@@ -45143,6 +45755,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
+      <c r="Z517" s="1"/>
     </row>
     <row r="518">
       <c r="A518" s="1"/>
@@ -45170,6 +45783,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
+      <c r="Z518" s="1"/>
     </row>
     <row r="519">
       <c r="A519" s="1"/>
@@ -45197,6 +45811,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
+      <c r="Z519" s="1"/>
     </row>
     <row r="520">
       <c r="A520" s="1"/>
@@ -45224,6 +45839,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
+      <c r="Z520" s="1"/>
     </row>
     <row r="521">
       <c r="A521" s="1"/>
@@ -45251,6 +45867,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
+      <c r="Z521" s="1"/>
     </row>
     <row r="522">
       <c r="A522" s="1"/>
@@ -45278,6 +45895,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
+      <c r="Z522" s="1"/>
     </row>
     <row r="523">
       <c r="A523" s="1"/>
@@ -45305,6 +45923,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
+      <c r="Z523" s="1"/>
     </row>
     <row r="524">
       <c r="A524" s="1"/>
@@ -45332,6 +45951,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
+      <c r="Z524" s="1"/>
     </row>
     <row r="525">
       <c r="A525" s="1"/>
@@ -45359,6 +45979,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
+      <c r="Z525" s="1"/>
     </row>
     <row r="526">
       <c r="A526" s="1"/>
@@ -45386,6 +46007,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
+      <c r="Z526" s="1"/>
     </row>
     <row r="527">
       <c r="A527" s="1"/>
@@ -45413,6 +46035,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
+      <c r="Z527" s="1"/>
     </row>
     <row r="528">
       <c r="A528" s="1"/>
@@ -45440,6 +46063,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
+      <c r="Z528" s="1"/>
     </row>
     <row r="529">
       <c r="A529" s="1"/>
@@ -45467,6 +46091,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
+      <c r="Z529" s="1"/>
     </row>
     <row r="530">
       <c r="A530" s="1"/>
@@ -45494,6 +46119,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
+      <c r="Z530" s="1"/>
     </row>
     <row r="531">
       <c r="A531" s="1"/>
@@ -45521,6 +46147,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
+      <c r="Z531" s="1"/>
     </row>
     <row r="532">
       <c r="A532" s="1"/>
@@ -45548,6 +46175,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
+      <c r="Z532" s="1"/>
     </row>
     <row r="533">
       <c r="A533" s="1"/>
@@ -45575,6 +46203,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
+      <c r="Z533" s="1"/>
     </row>
     <row r="534">
       <c r="A534" s="1"/>
@@ -45602,6 +46231,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
+      <c r="Z534" s="1"/>
     </row>
     <row r="535">
       <c r="A535" s="1"/>
@@ -45629,6 +46259,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
+      <c r="Z535" s="1"/>
     </row>
     <row r="536">
       <c r="A536" s="1"/>
@@ -45656,6 +46287,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
+      <c r="Z536" s="1"/>
     </row>
     <row r="537">
       <c r="A537" s="1"/>
@@ -45683,6 +46315,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
+      <c r="Z537" s="1"/>
     </row>
     <row r="538">
       <c r="A538" s="1"/>
@@ -45710,6 +46343,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
+      <c r="Z538" s="1"/>
     </row>
     <row r="539">
       <c r="A539" s="1"/>
@@ -45737,6 +46371,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
+      <c r="Z539" s="1"/>
     </row>
     <row r="540">
       <c r="A540" s="1"/>
@@ -45764,6 +46399,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
+      <c r="Z540" s="1"/>
     </row>
     <row r="541">
       <c r="A541" s="1"/>
@@ -45791,6 +46427,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
+      <c r="Z541" s="1"/>
     </row>
     <row r="542">
       <c r="A542" s="1"/>
@@ -45818,6 +46455,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
+      <c r="Z542" s="1"/>
     </row>
     <row r="543">
       <c r="A543" s="1"/>
@@ -45845,6 +46483,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
+      <c r="Z543" s="1"/>
     </row>
     <row r="544">
       <c r="A544" s="1"/>
@@ -45872,6 +46511,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
+      <c r="Z544" s="1"/>
     </row>
     <row r="545">
       <c r="A545" s="1"/>
@@ -45899,6 +46539,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
+      <c r="Z545" s="1"/>
     </row>
     <row r="546">
       <c r="A546" s="1"/>
@@ -45926,6 +46567,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
+      <c r="Z546" s="1"/>
     </row>
     <row r="547">
       <c r="A547" s="1"/>
@@ -45953,6 +46595,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
+      <c r="Z547" s="1"/>
     </row>
     <row r="548">
       <c r="A548" s="1"/>
@@ -45980,6 +46623,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
+      <c r="Z548" s="1"/>
     </row>
     <row r="549">
       <c r="A549" s="1"/>
@@ -46007,6 +46651,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
+      <c r="Z549" s="1"/>
     </row>
     <row r="550">
       <c r="A550" s="1"/>
@@ -46034,6 +46679,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
+      <c r="Z550" s="1"/>
     </row>
     <row r="551">
       <c r="A551" s="1"/>
@@ -46061,6 +46707,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
+      <c r="Z551" s="1"/>
     </row>
     <row r="552">
       <c r="A552" s="1"/>
@@ -46088,6 +46735,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
+      <c r="Z552" s="1"/>
     </row>
     <row r="553">
       <c r="A553" s="1"/>
@@ -46115,6 +46763,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
+      <c r="Z553" s="1"/>
     </row>
     <row r="554">
       <c r="A554" s="1"/>
@@ -46142,6 +46791,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
+      <c r="Z554" s="1"/>
     </row>
     <row r="555">
       <c r="A555" s="1"/>
@@ -46169,6 +46819,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
+      <c r="Z555" s="1"/>
     </row>
     <row r="556">
       <c r="A556" s="1"/>
@@ -46196,6 +46847,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
+      <c r="Z556" s="1"/>
     </row>
     <row r="557">
       <c r="A557" s="1"/>
@@ -46223,6 +46875,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
+      <c r="Z557" s="1"/>
     </row>
     <row r="558">
       <c r="A558" s="1"/>
@@ -46250,6 +46903,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
+      <c r="Z558" s="1"/>
     </row>
     <row r="559">
       <c r="A559" s="1"/>
@@ -46277,6 +46931,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
+      <c r="Z559" s="1"/>
     </row>
     <row r="560">
       <c r="A560" s="1"/>
@@ -46304,6 +46959,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
+      <c r="Z560" s="1"/>
     </row>
     <row r="561">
       <c r="A561" s="1"/>
@@ -46331,6 +46987,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
+      <c r="Z561" s="1"/>
     </row>
     <row r="562">
       <c r="A562" s="1"/>
@@ -46358,6 +47015,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
+      <c r="Z562" s="1"/>
     </row>
     <row r="563">
       <c r="A563" s="1"/>
@@ -46385,6 +47043,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
+      <c r="Z563" s="1"/>
     </row>
     <row r="564">
       <c r="A564" s="1"/>
@@ -46412,6 +47071,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
+      <c r="Z564" s="1"/>
     </row>
     <row r="565">
       <c r="A565" s="1"/>
@@ -46439,6 +47099,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
+      <c r="Z565" s="1"/>
     </row>
     <row r="566">
       <c r="A566" s="1"/>
@@ -46466,6 +47127,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
+      <c r="Z566" s="1"/>
     </row>
     <row r="567">
       <c r="A567" s="1"/>
@@ -46493,6 +47155,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
+      <c r="Z567" s="1"/>
     </row>
     <row r="568">
       <c r="A568" s="1"/>
@@ -46520,6 +47183,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
+      <c r="Z568" s="1"/>
     </row>
     <row r="569">
       <c r="A569" s="1"/>
@@ -46547,6 +47211,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
+      <c r="Z569" s="1"/>
     </row>
     <row r="570">
       <c r="A570" s="1"/>
@@ -46574,6 +47239,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
+      <c r="Z570" s="1"/>
     </row>
     <row r="571">
       <c r="A571" s="1"/>
@@ -46601,6 +47267,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
+      <c r="Z571" s="1"/>
     </row>
     <row r="572">
       <c r="A572" s="1"/>
@@ -46628,6 +47295,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
+      <c r="Z572" s="1"/>
     </row>
     <row r="573">
       <c r="A573" s="1"/>
@@ -46655,6 +47323,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
+      <c r="Z573" s="1"/>
     </row>
     <row r="574">
       <c r="A574" s="1"/>
@@ -46682,6 +47351,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
+      <c r="Z574" s="1"/>
     </row>
     <row r="575">
       <c r="A575" s="1"/>
@@ -46709,6 +47379,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
+      <c r="Z575" s="1"/>
     </row>
     <row r="576">
       <c r="A576" s="1"/>
@@ -46736,6 +47407,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
+      <c r="Z576" s="1"/>
     </row>
     <row r="577">
       <c r="A577" s="1"/>
@@ -46763,6 +47435,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
+      <c r="Z577" s="1"/>
     </row>
     <row r="578">
       <c r="A578" s="1"/>
@@ -46790,6 +47463,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
+      <c r="Z578" s="1"/>
     </row>
     <row r="579">
       <c r="A579" s="1"/>
@@ -46817,6 +47491,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
+      <c r="Z579" s="1"/>
     </row>
     <row r="580">
       <c r="A580" s="1"/>
@@ -46844,6 +47519,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
+      <c r="Z580" s="1"/>
     </row>
     <row r="581">
       <c r="A581" s="1"/>
@@ -46871,6 +47547,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
+      <c r="Z581" s="1"/>
     </row>
     <row r="582">
       <c r="A582" s="1"/>
@@ -46898,6 +47575,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
+      <c r="Z582" s="1"/>
     </row>
     <row r="583">
       <c r="A583" s="1"/>
@@ -46925,6 +47603,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
+      <c r="Z583" s="1"/>
     </row>
     <row r="584">
       <c r="A584" s="1"/>
@@ -46952,6 +47631,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
+      <c r="Z584" s="1"/>
     </row>
     <row r="585">
       <c r="A585" s="1"/>
@@ -46979,6 +47659,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
+      <c r="Z585" s="1"/>
     </row>
     <row r="586">
       <c r="A586" s="1"/>
@@ -47006,6 +47687,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
+      <c r="Z586" s="1"/>
     </row>
     <row r="587">
       <c r="A587" s="1"/>
@@ -47033,6 +47715,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
+      <c r="Z587" s="1"/>
     </row>
     <row r="588">
       <c r="A588" s="1"/>
@@ -47060,6 +47743,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
+      <c r="Z588" s="1"/>
     </row>
     <row r="589">
       <c r="A589" s="1"/>
@@ -47087,6 +47771,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
+      <c r="Z589" s="1"/>
     </row>
     <row r="590">
       <c r="A590" s="1"/>
@@ -47114,6 +47799,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
+      <c r="Z590" s="1"/>
     </row>
     <row r="591">
       <c r="A591" s="1"/>
@@ -47141,6 +47827,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
+      <c r="Z591" s="1"/>
     </row>
     <row r="592">
       <c r="A592" s="1"/>
@@ -47168,6 +47855,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
+      <c r="Z592" s="1"/>
     </row>
     <row r="593">
       <c r="A593" s="1"/>
@@ -47195,6 +47883,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
+      <c r="Z593" s="1"/>
     </row>
     <row r="594">
       <c r="A594" s="1"/>
@@ -47222,6 +47911,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
+      <c r="Z594" s="1"/>
     </row>
     <row r="595">
       <c r="A595" s="1"/>
@@ -47249,6 +47939,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
+      <c r="Z595" s="1"/>
     </row>
     <row r="596">
       <c r="A596" s="1"/>
@@ -47276,6 +47967,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
+      <c r="Z596" s="1"/>
     </row>
     <row r="597">
       <c r="A597" s="1"/>
@@ -47303,6 +47995,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
+      <c r="Z597" s="1"/>
     </row>
     <row r="598">
       <c r="A598" s="1"/>
@@ -47330,6 +48023,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
+      <c r="Z598" s="1"/>
     </row>
     <row r="599">
       <c r="A599" s="1"/>
@@ -47357,6 +48051,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
+      <c r="Z599" s="1"/>
     </row>
     <row r="600">
       <c r="A600" s="1"/>
@@ -47384,6 +48079,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
+      <c r="Z600" s="1"/>
     </row>
     <row r="601">
       <c r="A601" s="1"/>
@@ -47411,6 +48107,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
+      <c r="Z601" s="1"/>
     </row>
     <row r="602">
       <c r="A602" s="1"/>
@@ -47438,6 +48135,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
+      <c r="Z602" s="1"/>
     </row>
     <row r="603">
       <c r="A603" s="1"/>
@@ -47465,6 +48163,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
+      <c r="Z603" s="1"/>
     </row>
     <row r="604">
       <c r="A604" s="1"/>
@@ -47492,6 +48191,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
+      <c r="Z604" s="1"/>
     </row>
     <row r="605">
       <c r="A605" s="1"/>
@@ -47519,6 +48219,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
+      <c r="Z605" s="1"/>
     </row>
     <row r="606">
       <c r="A606" s="1"/>
@@ -47546,6 +48247,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
+      <c r="Z606" s="1"/>
     </row>
     <row r="607">
       <c r="A607" s="1"/>
@@ -47573,6 +48275,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
+      <c r="Z607" s="1"/>
     </row>
     <row r="608">
       <c r="A608" s="1"/>
@@ -47600,6 +48303,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
+      <c r="Z608" s="1"/>
     </row>
     <row r="609">
       <c r="A609" s="1"/>
@@ -47627,6 +48331,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
+      <c r="Z609" s="1"/>
     </row>
     <row r="610">
       <c r="A610" s="1"/>
@@ -47654,6 +48359,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
+      <c r="Z610" s="1"/>
     </row>
     <row r="611">
       <c r="A611" s="1"/>
@@ -47681,6 +48387,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
+      <c r="Z611" s="1"/>
     </row>
     <row r="612">
       <c r="A612" s="1"/>
@@ -47708,6 +48415,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
+      <c r="Z612" s="1"/>
     </row>
     <row r="613">
       <c r="A613" s="1"/>
@@ -47735,6 +48443,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
+      <c r="Z613" s="1"/>
     </row>
     <row r="614">
       <c r="A614" s="1"/>
@@ -47762,6 +48471,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
+      <c r="Z614" s="1"/>
     </row>
     <row r="615">
       <c r="A615" s="1"/>
@@ -47789,6 +48499,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
+      <c r="Z615" s="1"/>
     </row>
     <row r="616">
       <c r="A616" s="1"/>
@@ -47816,6 +48527,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
+      <c r="Z616" s="1"/>
     </row>
     <row r="617">
       <c r="A617" s="1"/>
@@ -47843,6 +48555,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
+      <c r="Z617" s="1"/>
     </row>
     <row r="618">
       <c r="A618" s="1"/>
@@ -47870,6 +48583,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
+      <c r="Z618" s="1"/>
     </row>
     <row r="619">
       <c r="A619" s="1"/>
@@ -47897,6 +48611,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
+      <c r="Z619" s="1"/>
     </row>
     <row r="620">
       <c r="A620" s="1"/>
@@ -47924,6 +48639,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
+      <c r="Z620" s="1"/>
     </row>
     <row r="621">
       <c r="A621" s="1"/>
@@ -47951,6 +48667,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
+      <c r="Z621" s="1"/>
     </row>
     <row r="622">
       <c r="A622" s="1"/>
@@ -47978,6 +48695,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
+      <c r="Z622" s="1"/>
     </row>
     <row r="623">
       <c r="A623" s="1"/>
@@ -48005,6 +48723,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
+      <c r="Z623" s="1"/>
     </row>
     <row r="624">
       <c r="A624" s="1"/>
@@ -48032,6 +48751,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
+      <c r="Z624" s="1"/>
     </row>
     <row r="625">
       <c r="A625" s="1"/>
@@ -48059,6 +48779,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
+      <c r="Z625" s="1"/>
     </row>
     <row r="626">
       <c r="A626" s="1"/>
@@ -48086,6 +48807,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
+      <c r="Z626" s="1"/>
     </row>
     <row r="627">
       <c r="A627" s="1"/>
@@ -48113,6 +48835,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
+      <c r="Z627" s="1"/>
     </row>
     <row r="628">
       <c r="A628" s="1"/>
@@ -48140,6 +48863,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
+      <c r="Z628" s="1"/>
     </row>
     <row r="629">
       <c r="A629" s="1"/>
@@ -48167,6 +48891,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
+      <c r="Z629" s="1"/>
     </row>
     <row r="630">
       <c r="A630" s="1"/>
@@ -48194,6 +48919,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
+      <c r="Z630" s="1"/>
     </row>
     <row r="631">
       <c r="A631" s="1"/>
@@ -48221,6 +48947,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
+      <c r="Z631" s="1"/>
     </row>
     <row r="632">
       <c r="A632" s="1"/>
@@ -48248,6 +48975,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
+      <c r="Z632" s="1"/>
     </row>
     <row r="633">
       <c r="A633" s="1"/>
@@ -48275,6 +49003,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
+      <c r="Z633" s="1"/>
     </row>
     <row r="634">
       <c r="A634" s="1"/>
@@ -48302,6 +49031,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
+      <c r="Z634" s="1"/>
     </row>
     <row r="635">
       <c r="A635" s="1"/>
@@ -48329,6 +49059,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
+      <c r="Z635" s="1"/>
     </row>
     <row r="636">
       <c r="A636" s="1"/>
@@ -48356,6 +49087,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
+      <c r="Z636" s="1"/>
     </row>
     <row r="637">
       <c r="A637" s="1"/>
@@ -48383,6 +49115,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
+      <c r="Z637" s="1"/>
     </row>
     <row r="638">
       <c r="A638" s="1"/>
@@ -48410,6 +49143,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
+      <c r="Z638" s="1"/>
     </row>
     <row r="639">
       <c r="A639" s="1"/>
@@ -48437,6 +49171,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
+      <c r="Z639" s="1"/>
     </row>
     <row r="640">
       <c r="A640" s="1"/>
@@ -48464,6 +49199,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
+      <c r="Z640" s="1"/>
     </row>
     <row r="641">
       <c r="A641" s="1"/>
@@ -48491,6 +49227,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
+      <c r="Z641" s="1"/>
     </row>
     <row r="642">
       <c r="A642" s="1"/>
@@ -48518,6 +49255,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
+      <c r="Z642" s="1"/>
     </row>
     <row r="643">
       <c r="A643" s="1"/>
@@ -48545,6 +49283,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
+      <c r="Z643" s="1"/>
     </row>
     <row r="644">
       <c r="A644" s="1"/>
@@ -48572,6 +49311,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
+      <c r="Z644" s="1"/>
     </row>
     <row r="645">
       <c r="A645" s="1"/>
@@ -48599,6 +49339,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
+      <c r="Z645" s="1"/>
     </row>
     <row r="646">
       <c r="A646" s="1"/>
@@ -48626,6 +49367,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
+      <c r="Z646" s="1"/>
     </row>
     <row r="647">
       <c r="A647" s="1"/>
@@ -48653,6 +49395,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
+      <c r="Z647" s="1"/>
     </row>
     <row r="648">
       <c r="A648" s="1"/>
@@ -48680,6 +49423,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
+      <c r="Z648" s="1"/>
     </row>
     <row r="649">
       <c r="A649" s="1"/>
@@ -48707,6 +49451,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
+      <c r="Z649" s="1"/>
     </row>
     <row r="650">
       <c r="A650" s="1"/>
@@ -48734,6 +49479,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
+      <c r="Z650" s="1"/>
     </row>
     <row r="651">
       <c r="A651" s="1"/>
@@ -48761,6 +49507,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
+      <c r="Z651" s="1"/>
     </row>
     <row r="652">
       <c r="A652" s="1"/>
@@ -48788,6 +49535,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
+      <c r="Z652" s="1"/>
     </row>
     <row r="653">
       <c r="A653" s="1"/>
@@ -48815,6 +49563,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
+      <c r="Z653" s="1"/>
     </row>
     <row r="654">
       <c r="A654" s="1"/>
@@ -48842,6 +49591,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
+      <c r="Z654" s="1"/>
     </row>
     <row r="655">
       <c r="A655" s="1"/>
@@ -48869,6 +49619,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
+      <c r="Z655" s="1"/>
     </row>
     <row r="656">
       <c r="A656" s="1"/>
@@ -48896,6 +49647,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
+      <c r="Z656" s="1"/>
     </row>
     <row r="657">
       <c r="A657" s="1"/>
@@ -48923,6 +49675,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
+      <c r="Z657" s="1"/>
     </row>
     <row r="658">
       <c r="A658" s="1"/>
@@ -48950,6 +49703,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
+      <c r="Z658" s="1"/>
     </row>
     <row r="659">
       <c r="A659" s="1"/>
@@ -48977,6 +49731,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
+      <c r="Z659" s="1"/>
     </row>
     <row r="660">
       <c r="A660" s="1"/>
@@ -49004,6 +49759,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
+      <c r="Z660" s="1"/>
     </row>
     <row r="661">
       <c r="A661" s="1"/>
@@ -49031,6 +49787,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
+      <c r="Z661" s="1"/>
     </row>
     <row r="662">
       <c r="A662" s="1"/>
@@ -49058,6 +49815,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
+      <c r="Z662" s="1"/>
     </row>
     <row r="663">
       <c r="A663" s="1"/>
@@ -49085,6 +49843,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
+      <c r="Z663" s="1"/>
     </row>
     <row r="664">
       <c r="A664" s="1"/>
@@ -49112,6 +49871,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
+      <c r="Z664" s="1"/>
     </row>
     <row r="665">
       <c r="A665" s="1"/>
@@ -49139,6 +49899,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
+      <c r="Z665" s="1"/>
     </row>
     <row r="666">
       <c r="A666" s="1"/>
@@ -49166,6 +49927,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
+      <c r="Z666" s="1"/>
     </row>
     <row r="667">
       <c r="A667" s="1"/>
@@ -49193,6 +49955,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
+      <c r="Z667" s="1"/>
     </row>
     <row r="668">
       <c r="A668" s="1"/>
@@ -49220,6 +49983,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
+      <c r="Z668" s="1"/>
     </row>
     <row r="669">
       <c r="A669" s="1"/>
@@ -49247,6 +50011,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
+      <c r="Z669" s="1"/>
     </row>
     <row r="670">
       <c r="A670" s="1"/>
@@ -49274,6 +50039,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
+      <c r="Z670" s="1"/>
     </row>
     <row r="671">
       <c r="A671" s="1"/>
@@ -49301,6 +50067,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
+      <c r="Z671" s="1"/>
     </row>
     <row r="672">
       <c r="A672" s="1"/>
@@ -49328,6 +50095,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
+      <c r="Z672" s="1"/>
     </row>
     <row r="673">
       <c r="A673" s="1"/>
@@ -49355,6 +50123,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
+      <c r="Z673" s="1"/>
     </row>
     <row r="674">
       <c r="A674" s="1"/>
@@ -49382,6 +50151,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
+      <c r="Z674" s="1"/>
     </row>
     <row r="675">
       <c r="A675" s="1"/>
@@ -49409,6 +50179,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
+      <c r="Z675" s="1"/>
     </row>
     <row r="676">
       <c r="A676" s="1"/>
@@ -49436,6 +50207,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
+      <c r="Z676" s="1"/>
     </row>
     <row r="677">
       <c r="A677" s="1"/>
@@ -49463,6 +50235,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
+      <c r="Z677" s="1"/>
     </row>
     <row r="678">
       <c r="A678" s="1"/>
@@ -49490,6 +50263,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
+      <c r="Z678" s="1"/>
     </row>
     <row r="679">
       <c r="A679" s="1"/>
@@ -49517,6 +50291,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
+      <c r="Z679" s="1"/>
     </row>
     <row r="680">
       <c r="A680" s="1"/>
@@ -49544,6 +50319,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
+      <c r="Z680" s="1"/>
     </row>
     <row r="681">
       <c r="A681" s="1"/>
@@ -49571,6 +50347,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
+      <c r="Z681" s="1"/>
     </row>
     <row r="682">
       <c r="A682" s="1"/>
@@ -49598,6 +50375,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
+      <c r="Z682" s="1"/>
     </row>
     <row r="683">
       <c r="A683" s="1"/>
@@ -49625,6 +50403,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
+      <c r="Z683" s="1"/>
     </row>
     <row r="684">
       <c r="A684" s="1"/>
@@ -49652,6 +50431,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
+      <c r="Z684" s="1"/>
     </row>
     <row r="685">
       <c r="A685" s="1"/>
@@ -49679,6 +50459,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
+      <c r="Z685" s="1"/>
     </row>
     <row r="686">
       <c r="A686" s="1"/>
@@ -49706,6 +50487,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
+      <c r="Z686" s="1"/>
     </row>
     <row r="687">
       <c r="A687" s="1"/>
@@ -49733,6 +50515,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
+      <c r="Z687" s="1"/>
     </row>
     <row r="688">
       <c r="A688" s="1"/>
@@ -49760,6 +50543,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
+      <c r="Z688" s="1"/>
     </row>
     <row r="689">
       <c r="A689" s="1"/>
@@ -49787,6 +50571,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
+      <c r="Z689" s="1"/>
     </row>
     <row r="690">
       <c r="A690" s="1"/>
@@ -49814,6 +50599,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
+      <c r="Z690" s="1"/>
     </row>
     <row r="691">
       <c r="A691" s="1"/>
@@ -49841,6 +50627,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
+      <c r="Z691" s="1"/>
     </row>
     <row r="692">
       <c r="A692" s="1"/>
@@ -49868,6 +50655,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
+      <c r="Z692" s="1"/>
     </row>
     <row r="693">
       <c r="A693" s="1"/>
@@ -49895,6 +50683,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
+      <c r="Z693" s="1"/>
     </row>
     <row r="694">
       <c r="A694" s="1"/>
@@ -49922,6 +50711,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
+      <c r="Z694" s="1"/>
     </row>
     <row r="695">
       <c r="A695" s="1"/>
@@ -49949,6 +50739,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
+      <c r="Z695" s="1"/>
     </row>
     <row r="696">
       <c r="A696" s="1"/>
@@ -49976,6 +50767,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
+      <c r="Z696" s="1"/>
     </row>
     <row r="697">
       <c r="A697" s="1"/>
@@ -50003,6 +50795,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
+      <c r="Z697" s="1"/>
     </row>
     <row r="698">
       <c r="A698" s="1"/>
@@ -50030,6 +50823,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
+      <c r="Z698" s="1"/>
     </row>
     <row r="699">
       <c r="A699" s="1"/>
@@ -50057,6 +50851,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
+      <c r="Z699" s="1"/>
     </row>
     <row r="700">
       <c r="A700" s="1"/>
@@ -50084,6 +50879,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
+      <c r="Z700" s="1"/>
     </row>
     <row r="701">
       <c r="A701" s="1"/>
@@ -50111,6 +50907,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
+      <c r="Z701" s="1"/>
     </row>
     <row r="702">
       <c r="A702" s="1"/>
@@ -50138,6 +50935,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
+      <c r="Z702" s="1"/>
     </row>
     <row r="703">
       <c r="A703" s="1"/>
@@ -50165,6 +50963,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
+      <c r="Z703" s="1"/>
     </row>
     <row r="704">
       <c r="A704" s="1"/>
@@ -50192,6 +50991,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
+      <c r="Z704" s="1"/>
     </row>
     <row r="705">
       <c r="A705" s="1"/>
@@ -50219,6 +51019,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
+      <c r="Z705" s="1"/>
     </row>
     <row r="706">
       <c r="A706" s="1"/>
@@ -50246,6 +51047,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
+      <c r="Z706" s="1"/>
     </row>
     <row r="707">
       <c r="A707" s="1"/>
@@ -50273,6 +51075,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
+      <c r="Z707" s="1"/>
     </row>
     <row r="708">
       <c r="A708" s="1"/>
@@ -50300,6 +51103,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
+      <c r="Z708" s="1"/>
     </row>
     <row r="709">
       <c r="A709" s="1"/>
@@ -50327,6 +51131,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
+      <c r="Z709" s="1"/>
     </row>
     <row r="710">
       <c r="A710" s="1"/>
@@ -50354,6 +51159,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
+      <c r="Z710" s="1"/>
     </row>
     <row r="711">
       <c r="A711" s="1"/>
@@ -50381,6 +51187,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
+      <c r="Z711" s="1"/>
     </row>
     <row r="712">
       <c r="A712" s="1"/>
@@ -50408,6 +51215,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
+      <c r="Z712" s="1"/>
     </row>
     <row r="713">
       <c r="A713" s="1"/>
@@ -50435,6 +51243,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
+      <c r="Z713" s="1"/>
     </row>
     <row r="714">
       <c r="A714" s="1"/>
@@ -50462,6 +51271,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
+      <c r="Z714" s="1"/>
     </row>
     <row r="715">
       <c r="A715" s="1"/>
@@ -50489,6 +51299,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
+      <c r="Z715" s="1"/>
     </row>
     <row r="716">
       <c r="A716" s="1"/>
@@ -50516,6 +51327,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
+      <c r="Z716" s="1"/>
     </row>
     <row r="717">
       <c r="A717" s="1"/>
@@ -50543,6 +51355,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
+      <c r="Z717" s="1"/>
     </row>
     <row r="718">
       <c r="A718" s="1"/>
@@ -50570,6 +51383,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
+      <c r="Z718" s="1"/>
     </row>
     <row r="719">
       <c r="A719" s="1"/>
@@ -50597,6 +51411,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
+      <c r="Z719" s="1"/>
     </row>
     <row r="720">
       <c r="A720" s="1"/>
@@ -50624,6 +51439,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
+      <c r="Z720" s="1"/>
     </row>
     <row r="721">
       <c r="A721" s="1"/>
@@ -50651,6 +51467,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
+      <c r="Z721" s="1"/>
     </row>
     <row r="722">
       <c r="A722" s="1"/>
@@ -50678,6 +51495,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
+      <c r="Z722" s="1"/>
     </row>
     <row r="723">
       <c r="A723" s="1"/>
@@ -50705,6 +51523,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
+      <c r="Z723" s="1"/>
     </row>
     <row r="724">
       <c r="A724" s="1"/>
@@ -50732,6 +51551,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
+      <c r="Z724" s="1"/>
     </row>
     <row r="725">
       <c r="A725" s="1"/>
@@ -50759,6 +51579,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
+      <c r="Z725" s="1"/>
     </row>
     <row r="726">
       <c r="A726" s="1"/>
@@ -50786,6 +51607,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
+      <c r="Z726" s="1"/>
     </row>
     <row r="727">
       <c r="A727" s="1"/>
@@ -50813,6 +51635,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
+      <c r="Z727" s="1"/>
     </row>
     <row r="728">
       <c r="A728" s="1"/>
@@ -50840,6 +51663,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
+      <c r="Z728" s="1"/>
     </row>
     <row r="729">
       <c r="A729" s="1"/>
@@ -50867,6 +51691,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
+      <c r="Z729" s="1"/>
     </row>
     <row r="730">
       <c r="A730" s="1"/>
@@ -50894,6 +51719,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
+      <c r="Z730" s="1"/>
     </row>
     <row r="731">
       <c r="A731" s="1"/>
@@ -50921,6 +51747,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
+      <c r="Z731" s="1"/>
     </row>
     <row r="732">
       <c r="A732" s="1"/>
@@ -50948,6 +51775,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
+      <c r="Z732" s="1"/>
     </row>
     <row r="733">
       <c r="A733" s="1"/>
@@ -50975,6 +51803,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
+      <c r="Z733" s="1"/>
     </row>
     <row r="734">
       <c r="A734" s="1"/>
@@ -51002,6 +51831,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
+      <c r="Z734" s="1"/>
     </row>
     <row r="735">
       <c r="A735" s="1"/>
@@ -51029,6 +51859,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
+      <c r="Z735" s="1"/>
     </row>
     <row r="736">
       <c r="A736" s="1"/>
@@ -51056,6 +51887,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
+      <c r="Z736" s="1"/>
     </row>
     <row r="737">
       <c r="A737" s="1"/>
@@ -51083,6 +51915,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
+      <c r="Z737" s="1"/>
     </row>
     <row r="738">
       <c r="A738" s="1"/>
@@ -51110,6 +51943,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
+      <c r="Z738" s="1"/>
     </row>
     <row r="739">
       <c r="A739" s="1"/>
@@ -51137,6 +51971,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
+      <c r="Z739" s="1"/>
     </row>
     <row r="740">
       <c r="A740" s="1"/>
@@ -51164,6 +51999,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
+      <c r="Z740" s="1"/>
     </row>
     <row r="741">
       <c r="A741" s="1"/>
@@ -51191,6 +52027,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
+      <c r="Z741" s="1"/>
     </row>
     <row r="742">
       <c r="A742" s="1"/>
@@ -51218,6 +52055,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
+      <c r="Z742" s="1"/>
     </row>
     <row r="743">
       <c r="A743" s="1"/>
@@ -51245,6 +52083,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
+      <c r="Z743" s="1"/>
     </row>
     <row r="744">
       <c r="A744" s="1"/>
@@ -51272,6 +52111,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
+      <c r="Z744" s="1"/>
     </row>
     <row r="745">
       <c r="A745" s="1"/>
@@ -51299,6 +52139,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
+      <c r="Z745" s="1"/>
     </row>
     <row r="746">
       <c r="A746" s="1"/>
@@ -51326,6 +52167,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
+      <c r="Z746" s="1"/>
     </row>
     <row r="747">
       <c r="A747" s="1"/>
@@ -51353,6 +52195,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
+      <c r="Z747" s="1"/>
     </row>
     <row r="748">
       <c r="A748" s="1"/>
@@ -51380,6 +52223,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
+      <c r="Z748" s="1"/>
     </row>
     <row r="749">
       <c r="A749" s="1"/>
@@ -51407,6 +52251,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
+      <c r="Z749" s="1"/>
     </row>
     <row r="750">
       <c r="A750" s="1"/>
@@ -51434,6 +52279,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
+      <c r="Z750" s="1"/>
     </row>
     <row r="751">
       <c r="A751" s="1"/>
@@ -51461,6 +52307,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
+      <c r="Z751" s="1"/>
     </row>
     <row r="752">
       <c r="A752" s="1"/>
@@ -51488,6 +52335,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
+      <c r="Z752" s="1"/>
     </row>
     <row r="753">
       <c r="A753" s="1"/>
@@ -51515,6 +52363,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
+      <c r="Z753" s="1"/>
     </row>
     <row r="754">
       <c r="A754" s="1"/>
@@ -51542,6 +52391,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
+      <c r="Z754" s="1"/>
     </row>
     <row r="755">
       <c r="A755" s="1"/>
@@ -51569,6 +52419,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
+      <c r="Z755" s="1"/>
     </row>
     <row r="756">
       <c r="A756" s="1"/>
@@ -51596,6 +52447,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
+      <c r="Z756" s="1"/>
     </row>
     <row r="757">
       <c r="A757" s="1"/>
@@ -51623,6 +52475,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
+      <c r="Z757" s="1"/>
     </row>
     <row r="758">
       <c r="A758" s="1"/>
@@ -51650,6 +52503,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
+      <c r="Z758" s="1"/>
     </row>
     <row r="759">
       <c r="A759" s="1"/>
@@ -51677,6 +52531,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
+      <c r="Z759" s="1"/>
     </row>
     <row r="760">
       <c r="A760" s="1"/>
@@ -51704,6 +52559,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
+      <c r="Z760" s="1"/>
     </row>
     <row r="761">
       <c r="A761" s="1"/>
@@ -51731,6 +52587,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
+      <c r="Z761" s="1"/>
     </row>
     <row r="762">
       <c r="A762" s="1"/>
@@ -51758,6 +52615,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
+      <c r="Z762" s="1"/>
     </row>
     <row r="763">
       <c r="A763" s="1"/>
@@ -51785,6 +52643,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
+      <c r="Z763" s="1"/>
     </row>
     <row r="764">
       <c r="A764" s="1"/>
@@ -51812,6 +52671,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
+      <c r="Z764" s="1"/>
     </row>
     <row r="765">
       <c r="A765" s="1"/>
@@ -51839,6 +52699,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
+      <c r="Z765" s="1"/>
     </row>
     <row r="766">
       <c r="A766" s="1"/>
@@ -51866,6 +52727,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
+      <c r="Z766" s="1"/>
     </row>
     <row r="767">
       <c r="A767" s="1"/>
@@ -51893,6 +52755,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
+      <c r="Z767" s="1"/>
     </row>
     <row r="768">
       <c r="A768" s="1"/>
@@ -51920,6 +52783,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
+      <c r="Z768" s="1"/>
     </row>
     <row r="769">
       <c r="A769" s="1"/>
@@ -51947,6 +52811,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
+      <c r="Z769" s="1"/>
     </row>
     <row r="770">
       <c r="A770" s="1"/>
@@ -51974,6 +52839,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
+      <c r="Z770" s="1"/>
     </row>
     <row r="771">
       <c r="A771" s="1"/>
@@ -52001,6 +52867,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
+      <c r="Z771" s="1"/>
     </row>
     <row r="772">
       <c r="A772" s="1"/>
@@ -52028,6 +52895,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
+      <c r="Z772" s="1"/>
     </row>
     <row r="773">
       <c r="A773" s="1"/>
@@ -52055,6 +52923,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
+      <c r="Z773" s="1"/>
     </row>
     <row r="774">
       <c r="A774" s="1"/>
@@ -52082,6 +52951,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
+      <c r="Z774" s="1"/>
     </row>
     <row r="775">
       <c r="A775" s="1"/>
@@ -52109,6 +52979,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
+      <c r="Z775" s="1"/>
     </row>
     <row r="776">
       <c r="A776" s="1"/>
@@ -52136,6 +53007,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
+      <c r="Z776" s="1"/>
     </row>
     <row r="777">
       <c r="A777" s="1"/>
@@ -52163,6 +53035,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
+      <c r="Z777" s="1"/>
     </row>
     <row r="778">
       <c r="A778" s="1"/>
@@ -52190,6 +53063,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
+      <c r="Z778" s="1"/>
     </row>
     <row r="779">
       <c r="A779" s="1"/>
@@ -52217,6 +53091,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
+      <c r="Z779" s="1"/>
     </row>
     <row r="780">
       <c r="A780" s="1"/>
@@ -52244,6 +53119,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
+      <c r="Z780" s="1"/>
     </row>
     <row r="781">
       <c r="A781" s="1"/>
@@ -52271,6 +53147,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
+      <c r="Z781" s="1"/>
     </row>
     <row r="782">
       <c r="A782" s="1"/>
@@ -52298,6 +53175,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
+      <c r="Z782" s="1"/>
     </row>
     <row r="783">
       <c r="A783" s="1"/>
@@ -52325,6 +53203,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
+      <c r="Z783" s="1"/>
     </row>
     <row r="784">
       <c r="A784" s="1"/>
@@ -52352,6 +53231,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
+      <c r="Z784" s="1"/>
     </row>
     <row r="785">
       <c r="A785" s="1"/>
@@ -52379,6 +53259,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
+      <c r="Z785" s="1"/>
     </row>
     <row r="786">
       <c r="A786" s="1"/>
@@ -52406,6 +53287,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
+      <c r="Z786" s="1"/>
     </row>
     <row r="787">
       <c r="A787" s="1"/>
@@ -52433,6 +53315,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
+      <c r="Z787" s="1"/>
     </row>
     <row r="788">
       <c r="A788" s="1"/>
@@ -52460,6 +53343,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
+      <c r="Z788" s="1"/>
     </row>
     <row r="789">
       <c r="A789" s="1"/>
@@ -52487,6 +53371,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
+      <c r="Z789" s="1"/>
     </row>
     <row r="790">
       <c r="A790" s="1"/>
@@ -52514,6 +53399,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
+      <c r="Z790" s="1"/>
     </row>
     <row r="791">
       <c r="A791" s="1"/>
@@ -52541,6 +53427,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
+      <c r="Z791" s="1"/>
     </row>
     <row r="792">
       <c r="A792" s="1"/>
@@ -52568,6 +53455,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
+      <c r="Z792" s="1"/>
     </row>
     <row r="793">
       <c r="A793" s="1"/>
@@ -52595,6 +53483,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
+      <c r="Z793" s="1"/>
     </row>
     <row r="794">
       <c r="A794" s="1"/>
@@ -52622,6 +53511,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
+      <c r="Z794" s="1"/>
     </row>
     <row r="795">
       <c r="A795" s="1"/>
@@ -52649,6 +53539,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
+      <c r="Z795" s="1"/>
     </row>
     <row r="796">
       <c r="A796" s="1"/>
@@ -52676,6 +53567,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
+      <c r="Z796" s="1"/>
     </row>
     <row r="797">
       <c r="A797" s="1"/>
@@ -52703,6 +53595,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
+      <c r="Z797" s="1"/>
     </row>
     <row r="798">
       <c r="A798" s="1"/>
@@ -52730,6 +53623,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
+      <c r="Z798" s="1"/>
     </row>
     <row r="799">
       <c r="A799" s="1"/>
@@ -52757,6 +53651,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
+      <c r="Z799" s="1"/>
     </row>
     <row r="800">
       <c r="A800" s="1"/>
@@ -52784,6 +53679,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
+      <c r="Z800" s="1"/>
     </row>
     <row r="801">
       <c r="A801" s="1"/>
@@ -52811,6 +53707,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
+      <c r="Z801" s="1"/>
     </row>
     <row r="802">
       <c r="A802" s="1"/>
@@ -52838,6 +53735,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
+      <c r="Z802" s="1"/>
     </row>
     <row r="803">
       <c r="A803" s="1"/>
@@ -52865,6 +53763,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
+      <c r="Z803" s="1"/>
     </row>
     <row r="804">
       <c r="A804" s="1"/>
@@ -52892,6 +53791,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
+      <c r="Z804" s="1"/>
     </row>
     <row r="805">
       <c r="A805" s="1"/>
@@ -52919,6 +53819,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
+      <c r="Z805" s="1"/>
     </row>
     <row r="806">
       <c r="A806" s="1"/>
@@ -52946,6 +53847,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
+      <c r="Z806" s="1"/>
     </row>
     <row r="807">
       <c r="A807" s="1"/>
@@ -52973,6 +53875,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
+      <c r="Z807" s="1"/>
     </row>
     <row r="808">
       <c r="A808" s="1"/>
@@ -53000,6 +53903,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
+      <c r="Z808" s="1"/>
     </row>
     <row r="809">
       <c r="A809" s="1"/>
@@ -53027,6 +53931,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
+      <c r="Z809" s="1"/>
     </row>
     <row r="810">
       <c r="A810" s="1"/>
@@ -53054,6 +53959,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
+      <c r="Z810" s="1"/>
     </row>
     <row r="811">
       <c r="A811" s="1"/>
@@ -53081,6 +53987,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
+      <c r="Z811" s="1"/>
     </row>
     <row r="812">
       <c r="A812" s="1"/>
@@ -53108,6 +54015,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
+      <c r="Z812" s="1"/>
     </row>
     <row r="813">
       <c r="A813" s="1"/>
@@ -53135,6 +54043,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
+      <c r="Z813" s="1"/>
     </row>
     <row r="814">
       <c r="A814" s="1"/>
@@ -53162,6 +54071,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
+      <c r="Z814" s="1"/>
     </row>
     <row r="815">
       <c r="A815" s="1"/>
@@ -53189,6 +54099,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
+      <c r="Z815" s="1"/>
     </row>
     <row r="816">
       <c r="A816" s="1"/>
@@ -53216,6 +54127,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
+      <c r="Z816" s="1"/>
     </row>
     <row r="817">
       <c r="A817" s="1"/>
@@ -53243,6 +54155,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
+      <c r="Z817" s="1"/>
     </row>
     <row r="818">
       <c r="A818" s="1"/>
@@ -53270,6 +54183,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
+      <c r="Z818" s="1"/>
     </row>
     <row r="819">
       <c r="A819" s="1"/>
@@ -53297,6 +54211,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
+      <c r="Z819" s="1"/>
     </row>
     <row r="820">
       <c r="A820" s="1"/>
@@ -53324,6 +54239,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
+      <c r="Z820" s="1"/>
     </row>
     <row r="821">
       <c r="A821" s="1"/>
@@ -53351,6 +54267,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
+      <c r="Z821" s="1"/>
     </row>
     <row r="822">
       <c r="A822" s="1"/>
@@ -53378,6 +54295,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
+      <c r="Z822" s="1"/>
     </row>
     <row r="823">
       <c r="A823" s="1"/>
@@ -53405,6 +54323,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
+      <c r="Z823" s="1"/>
     </row>
     <row r="824">
       <c r="A824" s="1"/>
@@ -53432,6 +54351,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
+      <c r="Z824" s="1"/>
     </row>
     <row r="825">
       <c r="A825" s="1"/>
@@ -53459,6 +54379,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
+      <c r="Z825" s="1"/>
     </row>
     <row r="826">
       <c r="A826" s="1"/>
@@ -53486,6 +54407,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
+      <c r="Z826" s="1"/>
     </row>
     <row r="827">
       <c r="A827" s="1"/>
@@ -53513,6 +54435,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
+      <c r="Z827" s="1"/>
     </row>
     <row r="828">
       <c r="A828" s="1"/>
@@ -53540,6 +54463,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
+      <c r="Z828" s="1"/>
     </row>
     <row r="829">
       <c r="A829" s="1"/>
@@ -53567,6 +54491,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
+      <c r="Z829" s="1"/>
     </row>
     <row r="830">
       <c r="A830" s="1"/>
@@ -53594,6 +54519,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
+      <c r="Z830" s="1"/>
     </row>
     <row r="831">
       <c r="A831" s="1"/>
@@ -53621,6 +54547,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
+      <c r="Z831" s="1"/>
     </row>
     <row r="832">
       <c r="A832" s="1"/>
@@ -53648,6 +54575,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
+      <c r="Z832" s="1"/>
     </row>
     <row r="833">
       <c r="A833" s="1"/>
@@ -53675,6 +54603,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
+      <c r="Z833" s="1"/>
     </row>
     <row r="834">
       <c r="A834" s="1"/>
@@ -53702,6 +54631,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
+      <c r="Z834" s="1"/>
     </row>
     <row r="835">
       <c r="A835" s="1"/>
@@ -53729,6 +54659,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
+      <c r="Z835" s="1"/>
     </row>
     <row r="836">
       <c r="A836" s="1"/>
@@ -53756,6 +54687,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
+      <c r="Z836" s="1"/>
     </row>
     <row r="837">
       <c r="A837" s="1"/>
@@ -53783,6 +54715,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
+      <c r="Z837" s="1"/>
     </row>
     <row r="838">
       <c r="A838" s="1"/>
@@ -53810,6 +54743,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
+      <c r="Z838" s="1"/>
     </row>
     <row r="839">
       <c r="A839" s="1"/>
@@ -53837,6 +54771,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
+      <c r="Z839" s="1"/>
     </row>
     <row r="840">
       <c r="A840" s="1"/>
@@ -53864,6 +54799,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
+      <c r="Z840" s="1"/>
     </row>
     <row r="841">
       <c r="A841" s="1"/>
@@ -53891,6 +54827,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
+      <c r="Z841" s="1"/>
     </row>
     <row r="842">
       <c r="A842" s="1"/>
@@ -53918,6 +54855,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
+      <c r="Z842" s="1"/>
     </row>
     <row r="843">
       <c r="A843" s="1"/>
@@ -53945,6 +54883,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
+      <c r="Z843" s="1"/>
     </row>
     <row r="844">
       <c r="A844" s="1"/>
@@ -53972,6 +54911,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
+      <c r="Z844" s="1"/>
     </row>
     <row r="845">
       <c r="A845" s="1"/>
@@ -53999,6 +54939,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
+      <c r="Z845" s="1"/>
     </row>
     <row r="846">
       <c r="A846" s="1"/>
@@ -54026,6 +54967,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
+      <c r="Z846" s="1"/>
     </row>
     <row r="847">
       <c r="A847" s="1"/>
@@ -54053,6 +54995,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
+      <c r="Z847" s="1"/>
     </row>
     <row r="848">
       <c r="A848" s="1"/>
@@ -54080,6 +55023,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
+      <c r="Z848" s="1"/>
     </row>
     <row r="849">
       <c r="A849" s="1"/>
@@ -54107,6 +55051,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
+      <c r="Z849" s="1"/>
     </row>
     <row r="850">
       <c r="A850" s="1"/>
@@ -54134,6 +55079,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
+      <c r="Z850" s="1"/>
     </row>
     <row r="851">
       <c r="A851" s="1"/>
@@ -54161,6 +55107,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
+      <c r="Z851" s="1"/>
     </row>
     <row r="852">
       <c r="A852" s="1"/>
@@ -54188,6 +55135,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
+      <c r="Z852" s="1"/>
     </row>
     <row r="853">
       <c r="A853" s="1"/>
@@ -54215,6 +55163,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
+      <c r="Z853" s="1"/>
     </row>
     <row r="854">
       <c r="A854" s="1"/>
@@ -54242,6 +55191,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
+      <c r="Z854" s="1"/>
     </row>
     <row r="855">
       <c r="A855" s="1"/>
@@ -54269,6 +55219,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
+      <c r="Z855" s="1"/>
     </row>
     <row r="856">
       <c r="A856" s="1"/>
@@ -54296,6 +55247,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
+      <c r="Z856" s="1"/>
     </row>
     <row r="857">
       <c r="A857" s="1"/>
@@ -54323,6 +55275,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
+      <c r="Z857" s="1"/>
     </row>
     <row r="858">
       <c r="A858" s="1"/>
@@ -54350,6 +55303,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
+      <c r="Z858" s="1"/>
     </row>
     <row r="859">
       <c r="A859" s="1"/>
@@ -54377,6 +55331,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
       <c r="Y859" s="1"/>
+      <c r="Z859" s="1"/>
     </row>
     <row r="860">
       <c r="A860" s="1"/>
@@ -54404,6 +55359,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
       <c r="Y860" s="1"/>
+      <c r="Z860" s="1"/>
     </row>
     <row r="861">
       <c r="A861" s="1"/>
@@ -54431,6 +55387,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
       <c r="Y861" s="1"/>
+      <c r="Z861" s="1"/>
     </row>
     <row r="862">
       <c r="A862" s="1"/>
@@ -54458,6 +55415,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
       <c r="Y862" s="1"/>
+      <c r="Z862" s="1"/>
     </row>
     <row r="863">
       <c r="A863" s="1"/>
@@ -54485,6 +55443,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
       <c r="Y863" s="1"/>
+      <c r="Z863" s="1"/>
     </row>
     <row r="864">
       <c r="A864" s="1"/>
@@ -54512,6 +55471,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
       <c r="Y864" s="1"/>
+      <c r="Z864" s="1"/>
     </row>
     <row r="865">
       <c r="A865" s="1"/>
@@ -54539,6 +55499,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
       <c r="Y865" s="1"/>
+      <c r="Z865" s="1"/>
     </row>
     <row r="866">
       <c r="A866" s="1"/>
@@ -54566,6 +55527,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
       <c r="Y866" s="1"/>
+      <c r="Z866" s="1"/>
     </row>
     <row r="867">
       <c r="A867" s="1"/>
@@ -54593,6 +55555,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
       <c r="Y867" s="1"/>
+      <c r="Z867" s="1"/>
     </row>
     <row r="868">
       <c r="A868" s="1"/>
@@ -54620,6 +55583,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
       <c r="Y868" s="1"/>
+      <c r="Z868" s="1"/>
     </row>
     <row r="869">
       <c r="A869" s="1"/>
@@ -54647,6 +55611,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
       <c r="Y869" s="1"/>
+      <c r="Z869" s="1"/>
     </row>
     <row r="870">
       <c r="A870" s="1"/>
@@ -54674,6 +55639,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
       <c r="Y870" s="1"/>
+      <c r="Z870" s="1"/>
     </row>
     <row r="871">
       <c r="A871" s="1"/>
@@ -54701,6 +55667,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
       <c r="Y871" s="1"/>
+      <c r="Z871" s="1"/>
     </row>
     <row r="872">
       <c r="A872" s="1"/>
@@ -54728,6 +55695,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
       <c r="Y872" s="1"/>
+      <c r="Z872" s="1"/>
     </row>
     <row r="873">
       <c r="A873" s="1"/>
@@ -54755,6 +55723,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
       <c r="Y873" s="1"/>
+      <c r="Z873" s="1"/>
     </row>
     <row r="874">
       <c r="A874" s="1"/>
@@ -54782,6 +55751,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
       <c r="Y874" s="1"/>
+      <c r="Z874" s="1"/>
     </row>
     <row r="875">
       <c r="A875" s="1"/>
@@ -54809,6 +55779,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
       <c r="Y875" s="1"/>
+      <c r="Z875" s="1"/>
     </row>
     <row r="876">
       <c r="A876" s="1"/>
@@ -54836,6 +55807,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
       <c r="Y876" s="1"/>
+      <c r="Z876" s="1"/>
     </row>
     <row r="877">
       <c r="A877" s="1"/>
@@ -54863,6 +55835,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
       <c r="Y877" s="1"/>
+      <c r="Z877" s="1"/>
     </row>
     <row r="878">
       <c r="A878" s="1"/>
@@ -54890,6 +55863,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
       <c r="Y878" s="1"/>
+      <c r="Z878" s="1"/>
     </row>
     <row r="879">
       <c r="A879" s="1"/>
@@ -54917,6 +55891,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
       <c r="Y879" s="1"/>
+      <c r="Z879" s="1"/>
     </row>
     <row r="880">
       <c r="A880" s="1"/>
@@ -54944,6 +55919,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
       <c r="Y880" s="1"/>
+      <c r="Z880" s="1"/>
     </row>
     <row r="881">
       <c r="A881" s="1"/>
@@ -54971,6 +55947,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
       <c r="Y881" s="1"/>
+      <c r="Z881" s="1"/>
     </row>
     <row r="882">
       <c r="A882" s="1"/>
@@ -54998,6 +55975,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
       <c r="Y882" s="1"/>
+      <c r="Z882" s="1"/>
     </row>
     <row r="883">
       <c r="A883" s="1"/>
@@ -55025,6 +56003,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
       <c r="Y883" s="1"/>
+      <c r="Z883" s="1"/>
     </row>
     <row r="884">
       <c r="A884" s="1"/>
@@ -55052,6 +56031,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
       <c r="Y884" s="1"/>
+      <c r="Z884" s="1"/>
     </row>
     <row r="885">
       <c r="A885" s="1"/>
@@ -55079,6 +56059,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
       <c r="Y885" s="1"/>
+      <c r="Z885" s="1"/>
     </row>
     <row r="886">
       <c r="A886" s="1"/>
@@ -55106,6 +56087,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
       <c r="Y886" s="1"/>
+      <c r="Z886" s="1"/>
     </row>
     <row r="887">
       <c r="A887" s="1"/>
@@ -55133,6 +56115,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
       <c r="Y887" s="1"/>
+      <c r="Z887" s="1"/>
     </row>
     <row r="888">
       <c r="A888" s="1"/>
@@ -55160,6 +56143,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
       <c r="Y888" s="1"/>
+      <c r="Z888" s="1"/>
     </row>
     <row r="889">
       <c r="A889" s="1"/>
@@ -55187,6 +56171,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
       <c r="Y889" s="1"/>
+      <c r="Z889" s="1"/>
     </row>
     <row r="890">
       <c r="A890" s="1"/>
@@ -55214,6 +56199,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
       <c r="Y890" s="1"/>
+      <c r="Z890" s="1"/>
     </row>
     <row r="891">
       <c r="A891" s="1"/>
@@ -55241,6 +56227,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
       <c r="Y891" s="1"/>
+      <c r="Z891" s="1"/>
     </row>
     <row r="892">
       <c r="A892" s="1"/>
@@ -55268,6 +56255,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
       <c r="Y892" s="1"/>
+      <c r="Z892" s="1"/>
     </row>
     <row r="893">
       <c r="A893" s="1"/>
@@ -55295,6 +56283,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
       <c r="Y893" s="1"/>
+      <c r="Z893" s="1"/>
     </row>
     <row r="894">
       <c r="A894" s="1"/>
@@ -55322,6 +56311,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
       <c r="Y894" s="1"/>
+      <c r="Z894" s="1"/>
     </row>
     <row r="895">
       <c r="A895" s="1"/>
@@ -55349,6 +56339,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
       <c r="Y895" s="1"/>
+      <c r="Z895" s="1"/>
     </row>
     <row r="896">
       <c r="A896" s="1"/>
@@ -55376,6 +56367,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
       <c r="Y896" s="1"/>
+      <c r="Z896" s="1"/>
     </row>
     <row r="897">
       <c r="A897" s="1"/>
@@ -55403,6 +56395,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
       <c r="Y897" s="1"/>
+      <c r="Z897" s="1"/>
     </row>
     <row r="898">
       <c r="A898" s="1"/>
@@ -55430,6 +56423,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
       <c r="Y898" s="1"/>
+      <c r="Z898" s="1"/>
     </row>
     <row r="899">
       <c r="A899" s="1"/>
@@ -55457,6 +56451,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
       <c r="Y899" s="1"/>
+      <c r="Z899" s="1"/>
     </row>
     <row r="900">
       <c r="A900" s="1"/>
@@ -55484,6 +56479,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
       <c r="Y900" s="1"/>
+      <c r="Z900" s="1"/>
     </row>
     <row r="901">
       <c r="A901" s="1"/>
@@ -55511,6 +56507,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
       <c r="Y901" s="1"/>
+      <c r="Z901" s="1"/>
     </row>
     <row r="902">
       <c r="A902" s="1"/>
@@ -55538,6 +56535,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
       <c r="Y902" s="1"/>
+      <c r="Z902" s="1"/>
     </row>
     <row r="903">
       <c r="A903" s="1"/>
@@ -55565,6 +56563,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
       <c r="Y903" s="1"/>
+      <c r="Z903" s="1"/>
     </row>
     <row r="904">
       <c r="A904" s="1"/>
@@ -55592,6 +56591,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
       <c r="Y904" s="1"/>
+      <c r="Z904" s="1"/>
     </row>
     <row r="905">
       <c r="A905" s="1"/>
@@ -55619,6 +56619,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
       <c r="Y905" s="1"/>
+      <c r="Z905" s="1"/>
     </row>
     <row r="906">
       <c r="A906" s="1"/>
@@ -55646,6 +56647,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
       <c r="Y906" s="1"/>
+      <c r="Z906" s="1"/>
     </row>
     <row r="907">
       <c r="A907" s="1"/>
@@ -55673,6 +56675,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
       <c r="Y907" s="1"/>
+      <c r="Z907" s="1"/>
     </row>
     <row r="908">
       <c r="A908" s="1"/>
@@ -55700,6 +56703,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
       <c r="Y908" s="1"/>
+      <c r="Z908" s="1"/>
     </row>
     <row r="909">
       <c r="A909" s="1"/>
@@ -55727,6 +56731,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
       <c r="Y909" s="1"/>
+      <c r="Z909" s="1"/>
     </row>
     <row r="910">
       <c r="A910" s="1"/>
@@ -55754,6 +56759,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
       <c r="Y910" s="1"/>
+      <c r="Z910" s="1"/>
     </row>
     <row r="911">
       <c r="A911" s="1"/>
@@ -55781,6 +56787,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
       <c r="Y911" s="1"/>
+      <c r="Z911" s="1"/>
     </row>
     <row r="912">
       <c r="A912" s="1"/>
@@ -55808,6 +56815,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
       <c r="Y912" s="1"/>
+      <c r="Z912" s="1"/>
     </row>
     <row r="913">
       <c r="A913" s="1"/>
@@ -55835,6 +56843,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
       <c r="Y913" s="1"/>
+      <c r="Z913" s="1"/>
     </row>
     <row r="914">
       <c r="A914" s="1"/>
@@ -55862,6 +56871,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
       <c r="Y914" s="1"/>
+      <c r="Z914" s="1"/>
     </row>
     <row r="915">
       <c r="A915" s="1"/>
@@ -55889,6 +56899,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
       <c r="Y915" s="1"/>
+      <c r="Z915" s="1"/>
     </row>
     <row r="916">
       <c r="A916" s="1"/>
@@ -55916,6 +56927,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
       <c r="Y916" s="1"/>
+      <c r="Z916" s="1"/>
     </row>
     <row r="917">
       <c r="A917" s="1"/>
@@ -55943,6 +56955,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
       <c r="Y917" s="1"/>
+      <c r="Z917" s="1"/>
     </row>
     <row r="918">
       <c r="A918" s="1"/>
@@ -55970,6 +56983,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
       <c r="Y918" s="1"/>
+      <c r="Z918" s="1"/>
     </row>
     <row r="919">
       <c r="A919" s="1"/>
@@ -55997,6 +57011,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
       <c r="Y919" s="1"/>
+      <c r="Z919" s="1"/>
     </row>
     <row r="920">
       <c r="A920" s="1"/>
@@ -56024,6 +57039,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
       <c r="Y920" s="1"/>
+      <c r="Z920" s="1"/>
     </row>
     <row r="921">
       <c r="A921" s="1"/>
@@ -56051,6 +57067,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
       <c r="Y921" s="1"/>
+      <c r="Z921" s="1"/>
     </row>
     <row r="922">
       <c r="A922" s="1"/>
@@ -56078,6 +57095,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
       <c r="Y922" s="1"/>
+      <c r="Z922" s="1"/>
     </row>
     <row r="923">
       <c r="A923" s="1"/>
@@ -56105,6 +57123,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
       <c r="Y923" s="1"/>
+      <c r="Z923" s="1"/>
     </row>
     <row r="924">
       <c r="A924" s="1"/>
@@ -56132,6 +57151,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
       <c r="Y924" s="1"/>
+      <c r="Z924" s="1"/>
     </row>
     <row r="925">
       <c r="A925" s="1"/>
@@ -56159,6 +57179,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
       <c r="Y925" s="1"/>
+      <c r="Z925" s="1"/>
     </row>
     <row r="926">
       <c r="A926" s="1"/>
@@ -56186,6 +57207,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
       <c r="Y926" s="1"/>
+      <c r="Z926" s="1"/>
     </row>
     <row r="927">
       <c r="A927" s="1"/>
@@ -56213,6 +57235,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
       <c r="Y927" s="1"/>
+      <c r="Z927" s="1"/>
     </row>
     <row r="928">
       <c r="A928" s="1"/>
@@ -56240,6 +57263,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
       <c r="Y928" s="1"/>
+      <c r="Z928" s="1"/>
     </row>
     <row r="929">
       <c r="A929" s="1"/>
@@ -56267,6 +57291,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
       <c r="Y929" s="1"/>
+      <c r="Z929" s="1"/>
     </row>
     <row r="930">
       <c r="A930" s="1"/>
@@ -56294,6 +57319,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
       <c r="Y930" s="1"/>
+      <c r="Z930" s="1"/>
     </row>
     <row r="931">
       <c r="A931" s="1"/>
@@ -56321,6 +57347,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
       <c r="Y931" s="1"/>
+      <c r="Z931" s="1"/>
     </row>
     <row r="932">
       <c r="A932" s="1"/>
@@ -56348,6 +57375,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
       <c r="Y932" s="1"/>
+      <c r="Z932" s="1"/>
     </row>
     <row r="933">
       <c r="A933" s="1"/>
@@ -56375,6 +57403,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
       <c r="Y933" s="1"/>
+      <c r="Z933" s="1"/>
     </row>
     <row r="934">
       <c r="A934" s="1"/>
@@ -56402,6 +57431,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
       <c r="Y934" s="1"/>
+      <c r="Z934" s="1"/>
     </row>
     <row r="935">
       <c r="A935" s="1"/>
@@ -56429,6 +57459,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
       <c r="Y935" s="1"/>
+      <c r="Z935" s="1"/>
     </row>
     <row r="936">
       <c r="A936" s="1"/>
@@ -56456,6 +57487,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
       <c r="Y936" s="1"/>
+      <c r="Z936" s="1"/>
     </row>
     <row r="937">
       <c r="A937" s="1"/>
@@ -56483,6 +57515,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
       <c r="Y937" s="1"/>
+      <c r="Z937" s="1"/>
     </row>
     <row r="938">
       <c r="A938" s="1"/>
@@ -56510,6 +57543,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
       <c r="Y938" s="1"/>
+      <c r="Z938" s="1"/>
     </row>
     <row r="939">
       <c r="A939" s="1"/>
@@ -56537,6 +57571,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
       <c r="Y939" s="1"/>
+      <c r="Z939" s="1"/>
     </row>
     <row r="940">
       <c r="A940" s="1"/>
@@ -56564,6 +57599,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
       <c r="Y940" s="1"/>
+      <c r="Z940" s="1"/>
     </row>
     <row r="941">
       <c r="A941" s="1"/>
@@ -56591,6 +57627,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
       <c r="Y941" s="1"/>
+      <c r="Z941" s="1"/>
     </row>
     <row r="942">
       <c r="A942" s="1"/>
@@ -56618,6 +57655,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
       <c r="Y942" s="1"/>
+      <c r="Z942" s="1"/>
     </row>
     <row r="943">
       <c r="A943" s="1"/>
@@ -56645,6 +57683,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
       <c r="Y943" s="1"/>
+      <c r="Z943" s="1"/>
     </row>
     <row r="944">
       <c r="A944" s="1"/>
@@ -56672,6 +57711,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
       <c r="Y944" s="1"/>
+      <c r="Z944" s="1"/>
     </row>
     <row r="945">
       <c r="A945" s="1"/>
@@ -56699,6 +57739,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
       <c r="Y945" s="1"/>
+      <c r="Z945" s="1"/>
     </row>
     <row r="946">
       <c r="A946" s="1"/>
@@ -56726,6 +57767,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
       <c r="Y946" s="1"/>
+      <c r="Z946" s="1"/>
     </row>
     <row r="947">
       <c r="A947" s="1"/>
@@ -56753,6 +57795,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
       <c r="Y947" s="1"/>
+      <c r="Z947" s="1"/>
     </row>
     <row r="948">
       <c r="A948" s="1"/>
@@ -56780,6 +57823,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
       <c r="Y948" s="1"/>
+      <c r="Z948" s="1"/>
     </row>
     <row r="949">
       <c r="A949" s="1"/>
@@ -56807,6 +57851,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
       <c r="Y949" s="1"/>
+      <c r="Z949" s="1"/>
     </row>
     <row r="950">
       <c r="A950" s="1"/>
@@ -56834,6 +57879,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
       <c r="Y950" s="1"/>
+      <c r="Z950" s="1"/>
     </row>
     <row r="951">
       <c r="A951" s="1"/>
@@ -56861,6 +57907,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
       <c r="Y951" s="1"/>
+      <c r="Z951" s="1"/>
     </row>
     <row r="952">
       <c r="A952" s="1"/>
@@ -56888,6 +57935,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
       <c r="Y952" s="1"/>
+      <c r="Z952" s="1"/>
     </row>
     <row r="953">
       <c r="A953" s="1"/>
@@ -56915,6 +57963,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
       <c r="Y953" s="1"/>
+      <c r="Z953" s="1"/>
     </row>
     <row r="954">
       <c r="A954" s="1"/>
@@ -56942,6 +57991,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
       <c r="Y954" s="1"/>
+      <c r="Z954" s="1"/>
     </row>
     <row r="955">
       <c r="A955" s="1"/>
@@ -56969,6 +58019,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
       <c r="Y955" s="1"/>
+      <c r="Z955" s="1"/>
     </row>
     <row r="956">
       <c r="A956" s="1"/>
@@ -56996,6 +58047,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
       <c r="Y956" s="1"/>
+      <c r="Z956" s="1"/>
     </row>
     <row r="957">
       <c r="A957" s="1"/>
@@ -57023,6 +58075,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
       <c r="Y957" s="1"/>
+      <c r="Z957" s="1"/>
     </row>
     <row r="958">
       <c r="A958" s="1"/>
@@ -57050,6 +58103,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
       <c r="Y958" s="1"/>
+      <c r="Z958" s="1"/>
     </row>
     <row r="959">
       <c r="A959" s="1"/>
@@ -57077,6 +58131,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
       <c r="Y959" s="1"/>
+      <c r="Z959" s="1"/>
     </row>
     <row r="960">
       <c r="A960" s="1"/>
@@ -57104,6 +58159,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
       <c r="Y960" s="1"/>
+      <c r="Z960" s="1"/>
     </row>
     <row r="961">
       <c r="A961" s="1"/>
@@ -57131,6 +58187,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
       <c r="Y961" s="1"/>
+      <c r="Z961" s="1"/>
     </row>
     <row r="962">
       <c r="A962" s="1"/>
@@ -57158,6 +58215,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
       <c r="Y962" s="1"/>
+      <c r="Z962" s="1"/>
     </row>
     <row r="963">
       <c r="A963" s="1"/>
@@ -57185,6 +58243,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
       <c r="Y963" s="1"/>
+      <c r="Z963" s="1"/>
     </row>
     <row r="964">
       <c r="A964" s="1"/>
@@ -57212,6 +58271,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
       <c r="Y964" s="1"/>
+      <c r="Z964" s="1"/>
     </row>
     <row r="965">
       <c r="A965" s="1"/>
@@ -57239,6 +58299,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
       <c r="Y965" s="1"/>
+      <c r="Z965" s="1"/>
     </row>
     <row r="966">
       <c r="A966" s="1"/>
@@ -57266,6 +58327,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
       <c r="Y966" s="1"/>
+      <c r="Z966" s="1"/>
     </row>
     <row r="967">
       <c r="A967" s="1"/>
@@ -57293,6 +58355,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
       <c r="Y967" s="1"/>
+      <c r="Z967" s="1"/>
     </row>
     <row r="968">
       <c r="A968" s="1"/>
@@ -57320,6 +58383,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
       <c r="Y968" s="1"/>
+      <c r="Z968" s="1"/>
     </row>
     <row r="969">
       <c r="A969" s="1"/>
@@ -57347,6 +58411,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
       <c r="Y969" s="1"/>
+      <c r="Z969" s="1"/>
     </row>
     <row r="970">
       <c r="A970" s="1"/>
@@ -57374,6 +58439,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
       <c r="Y970" s="1"/>
+      <c r="Z970" s="1"/>
     </row>
     <row r="971">
       <c r="A971" s="1"/>
@@ -57401,6 +58467,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
       <c r="Y971" s="1"/>
+      <c r="Z971" s="1"/>
     </row>
     <row r="972">
       <c r="A972" s="1"/>
@@ -57428,6 +58495,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
       <c r="Y972" s="1"/>
+      <c r="Z972" s="1"/>
     </row>
     <row r="973">
       <c r="A973" s="1"/>
@@ -57455,6 +58523,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
       <c r="Y973" s="1"/>
+      <c r="Z973" s="1"/>
     </row>
     <row r="974">
       <c r="A974" s="1"/>
@@ -57482,6 +58551,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
       <c r="Y974" s="1"/>
+      <c r="Z974" s="1"/>
     </row>
     <row r="975">
       <c r="A975" s="1"/>
@@ -57509,6 +58579,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
       <c r="Y975" s="1"/>
+      <c r="Z975" s="1"/>
     </row>
     <row r="976">
       <c r="A976" s="1"/>
@@ -57536,6 +58607,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
       <c r="Y976" s="1"/>
+      <c r="Z976" s="1"/>
     </row>
     <row r="977">
       <c r="A977" s="1"/>
@@ -57563,6 +58635,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
       <c r="Y977" s="1"/>
+      <c r="Z977" s="1"/>
     </row>
     <row r="978">
       <c r="A978" s="1"/>
@@ -57590,6 +58663,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
       <c r="Y978" s="1"/>
+      <c r="Z978" s="1"/>
     </row>
     <row r="979">
       <c r="A979" s="1"/>
@@ -57617,6 +58691,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
       <c r="Y979" s="1"/>
+      <c r="Z979" s="1"/>
     </row>
     <row r="980">
       <c r="A980" s="1"/>
@@ -57644,6 +58719,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
       <c r="Y980" s="1"/>
+      <c r="Z980" s="1"/>
     </row>
     <row r="981">
       <c r="A981" s="1"/>
@@ -57671,6 +58747,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
       <c r="Y981" s="1"/>
+      <c r="Z981" s="1"/>
     </row>
     <row r="982">
       <c r="A982" s="1"/>
@@ -57698,6 +58775,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
       <c r="Y982" s="1"/>
+      <c r="Z982" s="1"/>
     </row>
     <row r="983">
       <c r="A983" s="1"/>
@@ -57725,6 +58803,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
       <c r="Y983" s="1"/>
+      <c r="Z983" s="1"/>
     </row>
     <row r="984">
       <c r="A984" s="1"/>
@@ -57752,6 +58831,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
       <c r="Y984" s="1"/>
+      <c r="Z984" s="1"/>
     </row>
     <row r="985">
       <c r="A985" s="1"/>
@@ -57779,6 +58859,7 @@
       <c r="W985" s="1"/>
       <c r="X985" s="1"/>
       <c r="Y985" s="1"/>
+      <c r="Z985" s="1"/>
     </row>
     <row r="986">
       <c r="A986" s="1"/>
@@ -57806,6 +58887,7 @@
       <c r="W986" s="1"/>
       <c r="X986" s="1"/>
       <c r="Y986" s="1"/>
+      <c r="Z986" s="1"/>
     </row>
     <row r="987">
       <c r="A987" s="1"/>
@@ -57833,6 +58915,7 @@
       <c r="W987" s="1"/>
       <c r="X987" s="1"/>
       <c r="Y987" s="1"/>
+      <c r="Z987" s="1"/>
     </row>
     <row r="988">
       <c r="A988" s="1"/>
@@ -57860,6 +58943,7 @@
       <c r="W988" s="1"/>
       <c r="X988" s="1"/>
       <c r="Y988" s="1"/>
+      <c r="Z988" s="1"/>
     </row>
     <row r="989">
       <c r="A989" s="1"/>
@@ -57887,6 +58971,7 @@
       <c r="W989" s="1"/>
       <c r="X989" s="1"/>
       <c r="Y989" s="1"/>
+      <c r="Z989" s="1"/>
     </row>
     <row r="990">
       <c r="A990" s="1"/>
@@ -57914,6 +58999,7 @@
       <c r="W990" s="1"/>
       <c r="X990" s="1"/>
       <c r="Y990" s="1"/>
+      <c r="Z990" s="1"/>
     </row>
     <row r="991">
       <c r="A991" s="1"/>
@@ -57941,6 +59027,7 @@
       <c r="W991" s="1"/>
       <c r="X991" s="1"/>
       <c r="Y991" s="1"/>
+      <c r="Z991" s="1"/>
     </row>
     <row r="992">
       <c r="A992" s="1"/>
@@ -57968,6 +59055,7 @@
       <c r="W992" s="1"/>
       <c r="X992" s="1"/>
       <c r="Y992" s="1"/>
+      <c r="Z992" s="1"/>
     </row>
     <row r="993">
       <c r="A993" s="1"/>
@@ -57995,6 +59083,7 @@
       <c r="W993" s="1"/>
       <c r="X993" s="1"/>
       <c r="Y993" s="1"/>
+      <c r="Z993" s="1"/>
     </row>
     <row r="994">
       <c r="A994" s="1"/>
@@ -58022,6 +59111,7 @@
       <c r="W994" s="1"/>
       <c r="X994" s="1"/>
       <c r="Y994" s="1"/>
+      <c r="Z994" s="1"/>
     </row>
     <row r="995">
       <c r="A995" s="1"/>
@@ -58049,6 +59139,7 @@
       <c r="W995" s="1"/>
       <c r="X995" s="1"/>
       <c r="Y995" s="1"/>
+      <c r="Z995" s="1"/>
     </row>
     <row r="996">
       <c r="A996" s="1"/>
@@ -58076,6 +59167,7 @@
       <c r="W996" s="1"/>
       <c r="X996" s="1"/>
       <c r="Y996" s="1"/>
+      <c r="Z996" s="1"/>
     </row>
     <row r="997">
       <c r="A997" s="1"/>
@@ -58103,6 +59195,7 @@
       <c r="W997" s="1"/>
       <c r="X997" s="1"/>
       <c r="Y997" s="1"/>
+      <c r="Z997" s="1"/>
     </row>
     <row r="998">
       <c r="A998" s="1"/>
@@ -58130,6 +59223,7 @@
       <c r="W998" s="1"/>
       <c r="X998" s="1"/>
       <c r="Y998" s="1"/>
+      <c r="Z998" s="1"/>
     </row>
     <row r="999">
       <c r="A999" s="1"/>
@@ -58157,6 +59251,7 @@
       <c r="W999" s="1"/>
       <c r="X999" s="1"/>
       <c r="Y999" s="1"/>
+      <c r="Z999" s="1"/>
     </row>
     <row r="1000">
       <c r="A1000" s="1"/>
@@ -58184,6 +59279,7 @@
       <c r="W1000" s="1"/>
       <c r="X1000" s="1"/>
       <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/others/Web-Page-Design-i18n.xlsx
+++ b/others/Web-Page-Design-i18n.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="178">
   <si>
     <t>Chinese</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>i18n</t>
+  </si>
+  <si>
+    <t>dataForm</t>
   </si>
   <si>
     <t>front</t>
@@ -285,9 +288,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>dataForm</t>
   </si>
   <si>
     <t>firstTime</t>
@@ -820,15 +820,15 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -848,6 +848,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -862,18 +863,20 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -891,38 +894,39 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="str">
         <f t="shared" ref="B3:B30" si="1">if(C3="", "",
-"[language=Chinese] [i18n="&amp;C3&amp;"]:before{content:"""&amp;D3&amp;"""}"
-&amp;"[language=Chinese] [i18n="&amp;C3&amp;"]:after{content:"""&amp;E3&amp;"""}"
-&amp;"[language=English] [i18n="&amp;C3&amp;"]:before{content:"""&amp;F3&amp;"""}"
-&amp;"[language=English] [i18n="&amp;C3&amp;"]:after{content:"""&amp;I3&amp;"""}"
+"[language=Chinese] [i18n="&amp;C3&amp;"]:before{content:"""&amp;E3&amp;"""}"
+&amp;"[language=Chinese] [i18n="&amp;C3&amp;"]:after{content:"""&amp;F3&amp;"""}"
+&amp;"[language=English] [i18n="&amp;C3&amp;"]:before{content:"""&amp;G3&amp;"""}"
+&amp;"[language=English] [i18n="&amp;C3&amp;"]:after{content:"""&amp;J3&amp;"""}"
 )</f>
         <v>[language=Chinese] [i18n=header]:before{content:"請領（補發、換發）記帳士證書申請書"}[language=Chinese] [i18n=header]:after{content:""}[language=English] [i18n=header]:before{content:"Application Form for The Issuance (Reissuance, Replacement) of Certificate of Public Bookkeeper"}[language=English] [i18n=header]:after{content:""}</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F35" si="2">if(G3="", ""
-,if(H3&lt;&gt;"", H3, G3))</f>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G35" si="2">if(H3="", ""
+,if(I3&lt;&gt;"", I3, H3))</f>
         <v>Application Form for The Issuance (Reissuance, Replacement) of Certificate of Public Bookkeeper</v>
       </c>
-      <c r="G3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D3,""zh-tw"",""en""),"""")"),"Please lead (replenishment, renewal) bookkeeper certificate application")</f>
+      <c r="H3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E3,""zh-tw"",""en""),"""")"),"Please lead (replenishment, renewal) bookkeeper certificate application")</f>
         <v>Please lead (replenishment, renewal) bookkeeper certificate application</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -941,6 +945,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -949,24 +954,24 @@
         <v>[language=Chinese] [i18n=dateOfApplication]:before{content:"申請日期："}[language=Chinese] [i18n=dateOfApplication]:after{content:""}[language=English] [i18n=dateOfApplication]:before{content:"Date of Application: "}[language=English] [i18n=dateOfApplication]:after{content:""}</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="str">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Date of Application: </v>
       </c>
-      <c r="G4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D4,""zh-tw"",""en""),"""")"),"Date of Application:")</f>
+      <c r="H4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E4,""zh-tw"",""en""),"""")"),"Date of Application:")</f>
         <v>Date of Application:</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -985,6 +990,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
@@ -993,24 +999,24 @@
         <v>[language=Chinese] [i18n=recipient]:before{content:"受文者："}[language=Chinese] [i18n=recipient]:after{content:""}[language=English] [i18n=recipient]:before{content:"Recipient:"}[language=English] [i18n=recipient]:after{content:""}</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="str">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Recipient:</v>
       </c>
-      <c r="G5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D5,""zh-tw"",""en""),"""")"),"Writer:")</f>
+      <c r="H5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E5,""zh-tw"",""en""),"""")"),"Writer:")</f>
         <v>Writer:</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1029,6 +1035,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
@@ -1037,24 +1044,24 @@
         <v>[language=Chinese] [i18n=ministryOfFinance]:before{content:"財政部"}[language=Chinese] [i18n=ministryOfFinance]:after{content:""}[language=English] [i18n=ministryOfFinance]:before{content:"Ministry of Finance"}[language=English] [i18n=ministryOfFinance]:after{content:""}</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="str">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Ministry of Finance</v>
       </c>
-      <c r="G6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D6,""zh-tw"",""en""),"""")"),"Ministry of Finance")</f>
+      <c r="H6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E6,""zh-tw"",""en""),"""")"),"Ministry of Finance")</f>
         <v>Ministry of Finance</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1073,6 +1080,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
@@ -1081,24 +1089,24 @@
         <v>[language=Chinese] [i18n=purpose]:before{content:"主旨："}[language=Chinese] [i18n=purpose]:after{content:""}[language=English] [i18n=purpose]:before{content:"Purpose:"}[language=English] [i18n=purpose]:after{content:""}</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="str">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Purpose:</v>
       </c>
-      <c r="G7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D7,""zh-tw"",""en""),"""")"),"Theme:")</f>
+      <c r="H7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E7,""zh-tw"",""en""),"""")"),"Theme:")</f>
         <v>Theme:</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1117,6 +1125,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
@@ -1125,24 +1134,24 @@
         <v>[language=Chinese] [i18n=toApplyFor]:before{content:"申請"}[language=Chinese] [i18n=toApplyFor]:after{content:""}[language=English] [i18n=toApplyFor]:before{content:"To apply for"}[language=English] [i18n=toApplyFor]:after{content:""}</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="str">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>To apply for</v>
       </c>
-      <c r="G8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D8,""zh-tw"",""en""),"""")"),"Apply")</f>
+      <c r="H8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E8,""zh-tw"",""en""),"""")"),"Apply")</f>
         <v>Apply</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>24</v>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
       </c>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1161,6 +1170,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
@@ -1169,24 +1179,24 @@
         <v>[language=Chinese] [i18n=description]:before{content:"說明："}[language=Chinese] [i18n=description]:after{content:""}[language=English] [i18n=description]:before{content:"Description:"}[language=English] [i18n=description]:after{content:""}</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2" t="str">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Description:</v>
       </c>
-      <c r="G9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D9,""zh-tw"",""en""),"""")"),"illustrate:")</f>
+      <c r="H9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E9,""zh-tw"",""en""),"""")"),"illustrate:")</f>
         <v>illustrate:</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
+      <c r="I9" s="3" t="s">
+        <v>28</v>
       </c>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1205,6 +1215,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
@@ -1213,24 +1224,24 @@
         <v>[language=Chinese] [i18n=descriptionA]:before{content:"一、依記帳士法第 5 條暨記帳士證書核發辦法規定辦理。"}[language=Chinese] [i18n=descriptionA]:after{content:""}[language=English] [i18n=descriptionA]:before{content:"1. Handled in accordance with Article 5 of the Certified Public Bookkeepers Act and Rules Governing Issuance of Certificate of Public Bookkeeper."}[language=English] [i18n=descriptionA]:after{content:""}</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="str">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>1. Handled in accordance with Article 5 of the Certified Public Bookkeepers Act and Rules Governing Issuance of Certificate of Public Bookkeeper.</v>
       </c>
-      <c r="G10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D10,""zh-tw"",""en""),"""")"),"1. According to Article 5 of the Account Law and the Account Certificate, the method of issuance of the accounting certificate shall be handled.")</f>
+      <c r="H10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E10,""zh-tw"",""en""),"""")"),"1. According to Article 5 of the Account Law and the Account Certificate, the method of issuance of the accounting certificate shall be handled.")</f>
         <v>1. According to Article 5 of the Account Law and the Account Certificate, the method of issuance of the accounting certificate shall be handled.</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>30</v>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
       </c>
-      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1249,6 +1260,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
@@ -1257,24 +1269,24 @@
         <v>[language=Chinese] [i18n=descriptionB]:before{content:"二、茲檢具下列文件：（請勾選檢附項目，詳註二）。"}[language=Chinese] [i18n=descriptionB]:after{content:""}[language=English] [i18n=descriptionB]:before{content:"2. The following documents are hereby inspected: (Please tick the attached items, see Note 2)."}[language=English] [i18n=descriptionB]:after{content:""}</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="str">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>2. The following documents are hereby inspected: (Please tick the attached items, see Note 2).</v>
       </c>
-      <c r="G11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D11,""zh-tw"",""en""),"""")"),"Second, the following documents: (Please check the attachment project, detailed note 2).")</f>
+      <c r="H11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E11,""zh-tw"",""en""),"""")"),"Second, the following documents: (Please check the attachment project, detailed note 2).")</f>
         <v>Second, the following documents: (Please check the attachment project, detailed note 2).</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>33</v>
+      <c r="I11" s="3" t="s">
+        <v>34</v>
       </c>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1293,6 +1305,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
@@ -1301,24 +1314,24 @@
         <v>[language=Chinese] [i18n=descriptionBA]:before{content:"（一）記帳士考試及格證書正本及影本各 1 份；記帳士考試及格證書為電子證書型式者，為其列印本 1 份。"}[language=Chinese] [i18n=descriptionBA]:after{content:""}[language=English] [i18n=descriptionBA]:before{content:"a. The original and a photocopy of the certificate for passing the certified public bookkeepers examination; if the certificate for passing the certified public bookkeepers examination is of the electronic certificate type, the applicant shall attach a printout of the certificate."}[language=English] [i18n=descriptionBA]:after{content:""}</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2" t="str">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>a. The original and a photocopy of the certificate for passing the certified public bookkeepers examination; if the certificate for passing the certified public bookkeepers examination is of the electronic certificate type, the applicant shall attach a printout of the certificate.</v>
       </c>
-      <c r="G12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D12,""zh-tw"",""en""),"""")"),"(1) The original and one copy of the book test and a certificate; the bookkeeper test and the certificate of the certificate are the electronic certificate type, and one copy of them.")</f>
+      <c r="H12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E12,""zh-tw"",""en""),"""")"),"(1) The original and one copy of the book test and a certificate; the bookkeeper test and the certificate of the certificate are the electronic certificate type, and one copy of them.")</f>
         <v>(1) The original and one copy of the book test and a certificate; the bookkeeper test and the certificate of the certificate are the electronic certificate type, and one copy of them.</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>36</v>
+      <c r="I12" s="3" t="s">
+        <v>37</v>
       </c>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1337,6 +1350,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
@@ -1345,24 +1359,24 @@
         <v>[language=Chinese] [i18n=descriptionBB]:before{content:"（二）履歷表一份。"}[language=Chinese] [i18n=descriptionBB]:after{content:""}[language=English] [i18n=descriptionBB]:before{content:"b. A curriculum vitae of the applicant."}[language=English] [i18n=descriptionBB]:after{content:""}</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="str">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>b. A curriculum vitae of the applicant.</v>
       </c>
-      <c r="G13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D13,""zh-tw"",""en""),"""")"),"(2) A resume.")</f>
+      <c r="H13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E13,""zh-tw"",""en""),"""")"),"(2) A resume.")</f>
         <v>(2) A resume.</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
       </c>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1381,6 +1395,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -1389,24 +1404,24 @@
         <v>[language=Chinese] [i18n=descriptionBC]:before{content:"（三）國民身分證正反面影本 1 份（如範例），外國人為護照、外僑居留證或永久居留證影本。"}[language=Chinese] [i18n=descriptionBC]:after{content:""}[language=English] [i18n=descriptionBC]:before{content:"c. A photocopy of the front and back of the identification card of the applicant (See example), a photocopy of the passport, Alien Resident Certificate, or Alien Permanent Resident Certificate of the foreign applicant."}[language=English] [i18n=descriptionBC]:after{content:""}</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2" t="str">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>c. A photocopy of the front and back of the identification card of the applicant (See example), a photocopy of the passport, Alien Resident Certificate, or Alien Permanent Resident Certificate of the foreign applicant.</v>
       </c>
-      <c r="G14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D14,""zh-tw"",""en""),"""")"),"(3) One copy of the national identity card (such as examples), foreigners are passports, foreigners' residence permits or permanent residence permits.")</f>
+      <c r="H14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E14,""zh-tw"",""en""),"""")"),"(3) One copy of the national identity card (such as examples), foreigners are passports, foreigners' residence permits or permanent residence permits.")</f>
         <v>(3) One copy of the national identity card (such as examples), foreigners are passports, foreigners' residence permits or permanent residence permits.</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
+      <c r="I14" s="3" t="s">
+        <v>43</v>
       </c>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1425,6 +1440,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
@@ -1433,24 +1449,24 @@
         <v>[language=Chinese] [i18n=descriptionBD]:before{content:"（四）最近 1 年內 2 吋半身相片 2 張（詳註三）。"}[language=Chinese] [i18n=descriptionBD]:after{content:""}[language=English] [i18n=descriptionBD]:before{content:"d. Two 2-inch photographs of the applicant taken within the year (Note 3)."}[language=English] [i18n=descriptionBD]:after{content:""}</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2" t="str">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>d. Two 2-inch photographs of the applicant taken within the year (Note 3).</v>
       </c>
-      <c r="G15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D15,""zh-tw"",""en""),"""")"),"(4) Two 2 -inch half -body photos in the past year (details 3).")</f>
+      <c r="H15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E15,""zh-tw"",""en""),"""")"),"(4) Two 2 -inch half -body photos in the past year (details 3).")</f>
         <v>(4) Two 2 -inch half -body photos in the past year (details 3).</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>45</v>
+      <c r="I15" s="3" t="s">
+        <v>46</v>
       </c>
-      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1469,6 +1485,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
@@ -1477,24 +1494,24 @@
         <v>[language=Chinese] [i18n=descriptionBE]:before{content:"（五）證書費新臺幣壹仟伍佰元整（詳註四）。"}[language=Chinese] [i18n=descriptionBE]:after{content:""}[language=English] [i18n=descriptionBE]:before{content:"e. The amount of the certification fee payable is NT$1,500 (Note 4)."}[language=English] [i18n=descriptionBE]:after{content:""}</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2" t="str">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>e. The amount of the certification fee payable is NT$1,500 (Note 4).</v>
       </c>
-      <c r="G16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D16,""zh-tw"",""en""),"""")"),"(5) NT $ 1 of Certificate Fee Tong (Detailed Note 4).")</f>
+      <c r="H16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E16,""zh-tw"",""en""),"""")"),"(5) NT $ 1 of Certificate Fee Tong (Detailed Note 4).")</f>
         <v>(5) NT $ 1 of Certificate Fee Tong (Detailed Note 4).</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>48</v>
+      <c r="I16" s="3" t="s">
+        <v>49</v>
       </c>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1513,6 +1530,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
@@ -1521,24 +1539,24 @@
         <v>[language=Chinese] [i18n=descriptionBF]:before{content:"（六）原撤銷或廢止原因消滅之證明文件。"}[language=Chinese] [i18n=descriptionBF]:after{content:""}[language=English] [i18n=descriptionBF]:before{content:"f. Documentary evidence that the reason for the revocation or cancellation of the original certificate has ceased to exist."}[language=English] [i18n=descriptionBF]:after{content:""}</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2" t="str">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>f. Documentary evidence that the reason for the revocation or cancellation of the original certificate has ceased to exist.</v>
       </c>
-      <c r="G17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D17,""zh-tw"",""en""),"""")"),"(6) The document of the destruction of the cause of the reasons for dismissal.")</f>
+      <c r="H17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E17,""zh-tw"",""en""),"""")"),"(6) The document of the destruction of the cause of the reasons for dismissal.")</f>
         <v>(6) The document of the destruction of the cause of the reasons for dismissal.</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>51</v>
+      <c r="I17" s="3" t="s">
+        <v>52</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1557,6 +1575,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
@@ -1565,24 +1584,24 @@
         <v>[language=Chinese] [i18n=descriptionBG]:before{content:"（七）記帳士證書遺失或滅失登報 3 天聲明作廢之整張報紙。"}[language=Chinese] [i18n=descriptionBG]:after{content:""}[language=English] [i18n=descriptionBG]:before{content:"g. The whole page of the newspaper in which the notice of nullification of certificate of public bookkeeper due to loss or destruction thereof is published for three (3) days."}[language=English] [i18n=descriptionBG]:after{content:""}</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2" t="str">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>g. The whole page of the newspaper in which the notice of nullification of certificate of public bookkeeper due to loss or destruction thereof is published for three (3) days.</v>
       </c>
-      <c r="G18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D18,""zh-tw"",""en""),"""")"),"(7) The entire newspaper of the losses or loss of the bookkeeper's certificate is lost for 3 days.")</f>
+      <c r="H18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E18,""zh-tw"",""en""),"""")"),"(7) The entire newspaper of the losses or loss of the bookkeeper's certificate is lost for 3 days.")</f>
         <v>(7) The entire newspaper of the losses or loss of the bookkeeper's certificate is lost for 3 days.</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>54</v>
+      <c r="I18" s="3" t="s">
+        <v>55</v>
       </c>
-      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1601,6 +1620,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
@@ -1609,24 +1629,24 @@
         <v>[language=Chinese] [i18n=descriptionBH]:before{content:"（八）污損、破損或更名前之記帳士證書。"}[language=Chinese] [i18n=descriptionBH]:after{content:""}[language=English] [i18n=descriptionBH]:before{content:"h. The stained, damaged or pre-name Certified Public bookkeeper’s certificate."}[language=English] [i18n=descriptionBH]:after{content:""}</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="str">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>h. The stained, damaged or pre-name Certified Public bookkeeper’s certificate.</v>
       </c>
-      <c r="G19" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D19,""zh-tw"",""en""),"""")"),"(8) Discovery, damage, or renamed account certificate certificate.")</f>
+      <c r="H19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E19,""zh-tw"",""en""),"""")"),"(8) Discovery, damage, or renamed account certificate certificate.")</f>
         <v>(8) Discovery, damage, or renamed account certificate certificate.</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>57</v>
+      <c r="I19" s="3" t="s">
+        <v>58</v>
       </c>
-      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1645,6 +1665,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
@@ -1653,24 +1674,24 @@
         <v>[language=Chinese] [i18n=descriptionBI]:before{content:"（九）中文版記帳士證書及有效護照影本各 1  份。"}[language=Chinese] [i18n=descriptionBI]:after{content:""}[language=English] [i18n=descriptionBI]:before{content:"i. The Chinese Version of the Certificate of Public Bookkeeper and the valid passport of the applicant, with a photocopy of each."}[language=English] [i18n=descriptionBI]:after{content:""}</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2" t="str">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>i. The Chinese Version of the Certificate of Public Bookkeeper and the valid passport of the applicant, with a photocopy of each.</v>
       </c>
-      <c r="G20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D20,""zh-tw"",""en""),"""")"),"(9) The Chinese version of the bookkeeping certificate and the valid passport shadow.")</f>
+      <c r="H20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E20,""zh-tw"",""en""),"""")"),"(9) The Chinese version of the bookkeeping certificate and the valid passport shadow.")</f>
         <v>(9) The Chinese version of the bookkeeping certificate and the valid passport shadow.</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>60</v>
+      <c r="I20" s="3" t="s">
+        <v>61</v>
       </c>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1689,6 +1710,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
@@ -1697,24 +1719,24 @@
         <v>[language=Chinese] [i18n=descriptionC]:before{content:"三、聲明事項："}[language=Chinese] [i18n=descriptionC]:after{content:""}[language=English] [i18n=descriptionC]:before{content:"3. Disclaimer:"}[language=English] [i18n=descriptionC]:after{content:""}</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2" t="str">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>3. Disclaimer:</v>
       </c>
-      <c r="G21" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D21,""zh-tw"",""en""),"""")"),"3. Declaration matters:")</f>
+      <c r="H21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E21,""zh-tw"",""en""),"""")"),"3. Declaration matters:")</f>
         <v>3. Declaration matters:</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>63</v>
+      <c r="I21" s="3" t="s">
+        <v>64</v>
       </c>
-      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1733,6 +1755,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
@@ -1741,24 +1764,24 @@
         <v>[language=Chinese] [i18n=descriptionCA]:before{content:"（一）申請人確無記帳士法第 4 條第 1 項各款不得充任記帳士情事。"}[language=Chinese] [i18n=descriptionCA]:after{content:""}[language=English] [i18n=descriptionCA]:before{content:"a. The applicant does not have the conditions under Subparagraph 1, Article 4 of the Certified Public Bookkeepers Act that he/she shall not act as a certified public bookkeeper."}[language=English] [i18n=descriptionCA]:after{content:""}</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2" t="str">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>a. The applicant does not have the conditions under Subparagraph 1, Article 4 of the Certified Public Bookkeepers Act that he/she shall not act as a certified public bookkeeper.</v>
       </c>
-      <c r="G22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D22,""zh-tw"",""en""),"""")"),"(1) The applicant does not have the book 4 (1), paragraph 1, paragraph 1 of each account.")</f>
+      <c r="H22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E22,""zh-tw"",""en""),"""")"),"(1) The applicant does not have the book 4 (1), paragraph 1, paragraph 1 of each account.")</f>
         <v>(1) The applicant does not have the book 4 (1), paragraph 1, paragraph 1 of each account.</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>66</v>
+      <c r="I22" s="3" t="s">
+        <v>67</v>
       </c>
-      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1777,6 +1800,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
@@ -1785,24 +1809,24 @@
         <v>[language=Chinese] [i18n=descriptionCB]:before{content:"（二）申請人所填資料及附繳文件均為真實，如有不實願負法律責任。"}[language=Chinese] [i18n=descriptionCB]:after{content:""}[language=English] [i18n=descriptionCB]:before{content:"b. The information filled in by the applicant and the attached documents are all true; if there is any untrue statement, the applicant accepts the legal responsibility."}[language=English] [i18n=descriptionCB]:after{content:""}</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2" t="str">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>b. The information filled in by the applicant and the attached documents are all true; if there is any untrue statement, the applicant accepts the legal responsibility.</v>
       </c>
-      <c r="G23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D23,""zh-tw"",""en""),"""")"),"(2) The information filled by the applicant and the attachment documents are true, and if they are unreasonable, they are unwilling to bear legal responsibility.")</f>
+      <c r="H23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E23,""zh-tw"",""en""),"""")"),"(2) The information filled by the applicant and the attachment documents are true, and if they are unreasonable, they are unwilling to bear legal responsibility.")</f>
         <v>(2) The information filled by the applicant and the attachment documents are true, and if they are unreasonable, they are unwilling to bear legal responsibility.</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>69</v>
+      <c r="I23" s="3" t="s">
+        <v>70</v>
       </c>
-      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1821,6 +1845,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
@@ -1829,24 +1854,24 @@
         <v>[language=Chinese] [i18n=applicantInformation]:before{content:"申請人資料："}[language=Chinese] [i18n=applicantInformation]:after{content:""}[language=English] [i18n=applicantInformation]:before{content:"Applicant information:"}[language=English] [i18n=applicantInformation]:after{content:""}</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2" t="str">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Applicant information:</v>
       </c>
-      <c r="G24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D24,""zh-tw"",""en""),"""")"),"Applicant information:")</f>
+      <c r="H24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E24,""zh-tw"",""en""),"""")"),"Applicant information:")</f>
         <v>Applicant information:</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>72</v>
+      <c r="I24" s="3" t="s">
+        <v>73</v>
       </c>
-      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1865,6 +1890,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
@@ -1873,24 +1899,27 @@
         <v>[language=Chinese] [i18n=applicant]:before{content:"申請人"}[language=Chinese] [i18n=applicant]:after{content:""}[language=English] [i18n=applicant]:before{content:"Applicant"}[language=English] [i18n=applicant]:after{content:""}</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2" t="str">
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D30" si="3">"dataForm" &amp; replace(C25,1,1, UPPER(LEFT(C25,1)))</f>
+        <v>dataFormApplicant</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Applicant</v>
       </c>
-      <c r="G25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D25,""zh-tw"",""en""),"""")"),"applicant")</f>
+      <c r="H25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E25,""zh-tw"",""en""),"""")"),"applicant")</f>
         <v>applicant</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>75</v>
+      <c r="I25" s="3" t="s">
+        <v>76</v>
       </c>
-      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1909,6 +1938,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
@@ -1917,24 +1947,27 @@
         <v>[language=Chinese] [i18n=identityCardNumber]:before{content:"身分證字號"}[language=Chinese] [i18n=identityCardNumber]:after{content:""}[language=English] [i18n=identityCardNumber]:before{content:"ID number"}[language=English] [i18n=identityCardNumber]:after{content:""}</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2" t="str">
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormIdentityCardNumber</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ID number</v>
       </c>
-      <c r="G26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D26,""zh-tw"",""en""),"""")"),"ID number")</f>
+      <c r="H26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E26,""zh-tw"",""en""),"""")"),"ID number")</f>
         <v>ID number</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>78</v>
+      <c r="I26" s="3" t="s">
+        <v>79</v>
       </c>
-      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1953,6 +1986,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
@@ -1961,24 +1995,27 @@
         <v>[language=Chinese] [i18n=contactNumber]:before{content:"連絡電話"}[language=Chinese] [i18n=contactNumber]:after{content:""}[language=English] [i18n=contactNumber]:before{content:"Contact number"}[language=English] [i18n=contactNumber]:after{content:""}</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2" t="str">
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormContactNumber</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Contact number</v>
       </c>
-      <c r="G27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D27,""zh-tw"",""en""),"""")"),"Connection")</f>
+      <c r="H27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E27,""zh-tw"",""en""),"""")"),"Connection")</f>
         <v>Connection</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>81</v>
+      <c r="I27" s="3" t="s">
+        <v>82</v>
       </c>
-      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1997,6 +2034,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
@@ -2005,24 +2043,27 @@
         <v>[language=Chinese] [i18n=phoneNumber]:before{content:"手機號碼"}[language=Chinese] [i18n=phoneNumber]:after{content:""}[language=English] [i18n=phoneNumber]:before{content:"Phone number"}[language=English] [i18n=phoneNumber]:after{content:""}</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2" t="str">
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormPhoneNumber</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Phone number</v>
       </c>
-      <c r="G28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D28,""zh-tw"",""en""),"""")"),"phone number")</f>
+      <c r="H28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E28,""zh-tw"",""en""),"""")"),"phone number")</f>
         <v>phone number</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>84</v>
+      <c r="I28" s="3" t="s">
+        <v>85</v>
       </c>
-      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2041,6 +2082,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
@@ -2049,24 +2091,27 @@
         <v>[language=Chinese] [i18n=residence]:before{content:"居住縣市"}[language=Chinese] [i18n=residence]:after{content:""}[language=English] [i18n=residence]:before{content:"City/County of residence"}[language=English] [i18n=residence]:after{content:""}</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2" t="str">
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormResidence</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>City/County of residence</v>
       </c>
-      <c r="G29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D29,""zh-tw"",""en""),"""")"),"Residential county")</f>
+      <c r="H29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E29,""zh-tw"",""en""),"""")"),"Residential county")</f>
         <v>Residential county</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>87</v>
+      <c r="I29" s="3" t="s">
+        <v>88</v>
       </c>
-      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2085,6 +2130,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -2093,24 +2139,27 @@
         <v>[language=Chinese] [i18n=address]:before{content:"通訊地址"}[language=Chinese] [i18n=address]:after{content:""}[language=English] [i18n=address]:before{content:"Address"}[language=English] [i18n=address]:after{content:""}</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2" t="str">
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dataFormAddress</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Address</v>
       </c>
-      <c r="G30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(D30,""zh-tw"",""en""),"""")"),"mailing address")</f>
+      <c r="H30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E30,""zh-tw"",""en""),"""")"),"mailing address")</f>
         <v>mailing address</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>90</v>
+      <c r="I30" s="3" t="s">
+        <v>91</v>
       </c>
-      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2129,26 +2178,27 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="str">
-        <f t="shared" ref="B31:B35" si="3">if(C31="", "",
-"[lang=Chinese] [i18n="&amp;C31&amp;"]:before{content:"""&amp;D31&amp;"""}"
-&amp;"[lang=Chinese] [i18n="&amp;C31&amp;"]:after{content:"""&amp;E31&amp;"""}"
-&amp;"[lang=English] [i18n="&amp;C31&amp;"]:before{content:"""&amp;F31&amp;"""}"
-&amp;"[lang=English] [i18n="&amp;C31&amp;"]:after{content:"""&amp;I31&amp;"""}"
+        <f t="shared" ref="B31:B35" si="4">if(C31="", "",
+"[lang=Chinese] [i18n="&amp;C31&amp;"]:before{content:"""&amp;E31&amp;"""}"
+&amp;"[lang=Chinese] [i18n="&amp;C31&amp;"]:after{content:"""&amp;F31&amp;"""}"
+&amp;"[lang=English] [i18n="&amp;C31&amp;"]:before{content:"""&amp;G31&amp;"""}"
+&amp;"[lang=English] [i18n="&amp;C31&amp;"]:after{content:"""&amp;J31&amp;"""}"
 )</f>
         <v/>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2" t="str">
+      <c r="F31" s="1"/>
+      <c r="G31" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2169,21 +2219,22 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="2" t="str">
+      <c r="F32" s="1"/>
+      <c r="G32" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2204,21 +2255,22 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2" t="str">
+      <c r="F33" s="1"/>
+      <c r="G33" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2239,21 +2291,22 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="2" t="str">
+      <c r="F34" s="1"/>
+      <c r="G34" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2274,21 +2327,22 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="2" t="str">
+      <c r="F35" s="1"/>
+      <c r="G35" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2309,6 +2363,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
@@ -2338,6 +2393,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
@@ -2367,6 +2423,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
@@ -2396,6 +2453,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
@@ -2425,6 +2483,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
@@ -2454,6 +2513,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
@@ -2483,6 +2543,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
@@ -2512,6 +2573,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
@@ -2541,6 +2603,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
@@ -2570,6 +2633,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
@@ -2599,6 +2663,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
@@ -2628,6 +2693,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
@@ -2657,6 +2723,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
@@ -2686,6 +2753,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
@@ -2715,6 +2783,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
@@ -2744,6 +2813,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
@@ -2773,6 +2843,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
@@ -2802,6 +2873,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
@@ -2831,6 +2903,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
@@ -2860,6 +2933,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
@@ -2889,6 +2963,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
@@ -2918,6 +2993,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
@@ -2947,6 +3023,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
@@ -2976,6 +3053,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
@@ -3005,6 +3083,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
@@ -3034,6 +3113,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1"/>
@@ -3063,6 +3143,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
@@ -3092,6 +3173,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1"/>
@@ -3121,6 +3203,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
@@ -3150,6 +3233,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
@@ -3179,6 +3263,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
@@ -3208,6 +3293,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
@@ -3237,6 +3323,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
@@ -3266,6 +3353,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
@@ -3295,6 +3383,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
@@ -3324,6 +3413,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
@@ -3353,6 +3443,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
@@ -3382,6 +3473,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
@@ -3411,6 +3503,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
@@ -3440,6 +3533,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -3469,6 +3563,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
@@ -3498,6 +3593,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
@@ -3527,6 +3623,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
@@ -3556,6 +3653,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
@@ -3585,6 +3683,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
@@ -3614,6 +3713,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
@@ -3643,6 +3743,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
@@ -3672,6 +3773,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
@@ -3701,6 +3803,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
@@ -3730,6 +3833,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
@@ -3759,6 +3863,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
@@ -3788,6 +3893,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
@@ -3817,6 +3923,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
@@ -3846,6 +3953,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
@@ -3875,6 +3983,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
     </row>
     <row r="90">
       <c r="A90" s="1"/>
@@ -3904,6 +4013,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
@@ -3933,6 +4043,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
@@ -3962,6 +4073,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
@@ -3991,6 +4103,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
@@ -4020,6 +4133,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
@@ -4049,6 +4163,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
@@ -4078,6 +4193,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
@@ -4107,6 +4223,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
@@ -4136,6 +4253,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
@@ -4165,6 +4283,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
@@ -4194,6 +4313,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
@@ -4223,6 +4343,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
@@ -4252,6 +4373,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
@@ -4281,6 +4403,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
@@ -4310,6 +4433,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
@@ -4339,6 +4463,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
@@ -4368,6 +4493,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
@@ -4397,6 +4523,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
@@ -4426,6 +4553,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
@@ -4455,6 +4583,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
@@ -4484,6 +4613,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
@@ -4513,6 +4643,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
@@ -4542,6 +4673,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
@@ -4571,6 +4703,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
@@ -4600,6 +4733,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
@@ -4629,6 +4763,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
@@ -4658,6 +4793,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
@@ -4687,6 +4823,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
@@ -4716,6 +4853,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
     </row>
     <row r="119">
       <c r="A119" s="1"/>
@@ -4745,6 +4883,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
@@ -4774,6 +4913,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
     </row>
     <row r="121">
       <c r="A121" s="1"/>
@@ -4803,6 +4943,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
@@ -4832,6 +4973,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
@@ -4861,6 +5003,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
@@ -4890,6 +5033,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
@@ -4919,6 +5063,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
@@ -4948,6 +5093,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
@@ -4977,6 +5123,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
@@ -5006,6 +5153,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
@@ -5035,6 +5183,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
@@ -5064,6 +5213,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
@@ -5093,6 +5243,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
@@ -5122,6 +5273,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
+      <c r="AB132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
@@ -5151,6 +5303,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
@@ -5180,6 +5333,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
@@ -5209,6 +5363,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
@@ -5238,6 +5393,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
@@ -5267,6 +5423,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
@@ -5296,6 +5453,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
@@ -5325,6 +5483,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
+      <c r="AB139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
@@ -5354,6 +5513,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
@@ -5383,6 +5543,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
+      <c r="AB141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
@@ -5412,6 +5573,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
+      <c r="AB142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
@@ -5441,6 +5603,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
@@ -5470,6 +5633,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
@@ -5499,6 +5663,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
@@ -5528,6 +5693,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
@@ -5557,6 +5723,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
     </row>
     <row r="148">
       <c r="A148" s="1"/>
@@ -5586,6 +5753,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
+      <c r="AB148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
@@ -5615,6 +5783,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
+      <c r="AB149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" s="1"/>
@@ -5644,6 +5813,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
@@ -5673,6 +5843,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
+      <c r="AB151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
@@ -5702,6 +5873,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
+      <c r="AB152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
@@ -5731,6 +5903,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
+      <c r="AB153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
@@ -5760,6 +5933,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
+      <c r="AB154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
@@ -5789,6 +5963,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
+      <c r="AB155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
@@ -5818,6 +5993,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
+      <c r="AB156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
@@ -5847,6 +6023,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
@@ -5876,6 +6053,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
+      <c r="AB158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
@@ -5905,6 +6083,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
+      <c r="AB159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
@@ -5934,6 +6113,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
+      <c r="AB160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
@@ -5963,6 +6143,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
+      <c r="AB161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
@@ -5992,6 +6173,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
+      <c r="AB162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
@@ -6021,6 +6203,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
+      <c r="AB163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
@@ -6050,6 +6233,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
@@ -6079,6 +6263,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
+      <c r="AB165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
@@ -6108,6 +6293,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
+      <c r="AB166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
@@ -6137,6 +6323,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
@@ -6166,6 +6353,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
+      <c r="AB168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
@@ -6195,6 +6383,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
+      <c r="AB169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
@@ -6224,6 +6413,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
+      <c r="AB170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
@@ -6253,6 +6443,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
+      <c r="AB171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
@@ -6282,6 +6473,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
+      <c r="AB172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
@@ -6311,6 +6503,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
+      <c r="AB173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
@@ -6340,6 +6533,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
+      <c r="AB174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
@@ -6369,6 +6563,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
+      <c r="AB175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
@@ -6398,6 +6593,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
     </row>
     <row r="177">
       <c r="A177" s="1"/>
@@ -6427,6 +6623,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
     </row>
     <row r="178">
       <c r="A178" s="1"/>
@@ -6456,6 +6653,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
+      <c r="AB178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
@@ -6485,6 +6683,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
+      <c r="AB179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
@@ -6514,6 +6713,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
+      <c r="AB180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
@@ -6543,6 +6743,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
+      <c r="AB181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
@@ -6572,6 +6773,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
+      <c r="AB182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
@@ -6601,6 +6803,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
+      <c r="AB183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
@@ -6630,6 +6833,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
+      <c r="AB184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
@@ -6659,6 +6863,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
+      <c r="AB185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
@@ -6688,6 +6893,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
+      <c r="AB186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
@@ -6717,6 +6923,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
+      <c r="AB187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
@@ -6746,6 +6953,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
+      <c r="AB188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
@@ -6775,6 +6983,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
+      <c r="AB189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
@@ -6804,6 +7013,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
+      <c r="AB190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
@@ -6833,6 +7043,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
+      <c r="AB191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
@@ -6862,6 +7073,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
@@ -6891,6 +7103,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
+      <c r="AB193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
@@ -6920,6 +7133,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
@@ -6949,6 +7163,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
+      <c r="AB195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
@@ -6978,6 +7193,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
@@ -7007,6 +7223,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
+      <c r="AB197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
@@ -7036,6 +7253,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
+      <c r="AB198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
@@ -7065,6 +7283,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
+      <c r="AB199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
@@ -7094,6 +7313,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
+      <c r="AB200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
@@ -7123,6 +7343,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
+      <c r="AB201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
@@ -7152,6 +7373,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
+      <c r="AB202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
@@ -7181,6 +7403,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
+      <c r="AB203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
@@ -7210,6 +7433,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
+      <c r="AB204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
@@ -7239,6 +7463,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
+      <c r="AB205" s="1"/>
     </row>
     <row r="206">
       <c r="A206" s="1"/>
@@ -7268,6 +7493,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
+      <c r="AB206" s="1"/>
     </row>
     <row r="207">
       <c r="A207" s="1"/>
@@ -7297,6 +7523,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
+      <c r="AB207" s="1"/>
     </row>
     <row r="208">
       <c r="A208" s="1"/>
@@ -7326,6 +7553,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
+      <c r="AB208" s="1"/>
     </row>
     <row r="209">
       <c r="A209" s="1"/>
@@ -7355,6 +7583,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
+      <c r="AB209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
@@ -7384,6 +7613,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
@@ -7413,6 +7643,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
@@ -7442,6 +7673,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
+      <c r="AB212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
@@ -7471,6 +7703,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
+      <c r="AB213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
@@ -7500,6 +7733,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
+      <c r="AB214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
@@ -7529,6 +7763,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
+      <c r="AB215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
@@ -7558,6 +7793,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
+      <c r="AB216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
@@ -7587,6 +7823,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
+      <c r="AB217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
@@ -7616,6 +7853,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
+      <c r="AB218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
@@ -7645,6 +7883,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
+      <c r="AB219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
@@ -7674,6 +7913,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
+      <c r="AB220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
@@ -7703,6 +7943,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
+      <c r="AB221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
@@ -7732,6 +7973,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
+      <c r="AB222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
@@ -7761,6 +8003,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
+      <c r="AB223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
@@ -7790,6 +8033,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
+      <c r="AB224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
@@ -7819,6 +8063,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
+      <c r="AB225" s="1"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
@@ -7848,6 +8093,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
+      <c r="AB226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
@@ -7877,6 +8123,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
+      <c r="AB227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
@@ -7906,6 +8153,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
+      <c r="AB228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
@@ -7935,6 +8183,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
+      <c r="AB229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
@@ -7964,6 +8213,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
+      <c r="AB230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
@@ -7993,6 +8243,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
@@ -8022,6 +8273,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
@@ -8051,6 +8303,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
@@ -8080,6 +8333,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
     </row>
     <row r="235">
       <c r="A235" s="1"/>
@@ -8109,6 +8363,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" s="1"/>
@@ -8138,6 +8393,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
     </row>
     <row r="237">
       <c r="A237" s="1"/>
@@ -8167,6 +8423,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
     </row>
     <row r="238">
       <c r="A238" s="1"/>
@@ -8196,6 +8453,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
+      <c r="AB238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" s="1"/>
@@ -8225,6 +8483,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
     </row>
     <row r="240">
       <c r="A240" s="1"/>
@@ -8254,6 +8513,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
+      <c r="AB240" s="1"/>
     </row>
     <row r="241">
       <c r="A241" s="1"/>
@@ -8283,6 +8543,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
+      <c r="AB241" s="1"/>
     </row>
     <row r="242">
       <c r="A242" s="1"/>
@@ -8312,6 +8573,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
     </row>
     <row r="243">
       <c r="A243" s="1"/>
@@ -8341,6 +8603,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
     </row>
     <row r="244">
       <c r="A244" s="1"/>
@@ -8370,6 +8633,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
+      <c r="AB244" s="1"/>
     </row>
     <row r="245">
       <c r="A245" s="1"/>
@@ -8399,6 +8663,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
+      <c r="AB245" s="1"/>
     </row>
     <row r="246">
       <c r="A246" s="1"/>
@@ -8428,6 +8693,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
+      <c r="AB246" s="1"/>
     </row>
     <row r="247">
       <c r="A247" s="1"/>
@@ -8457,6 +8723,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
+      <c r="AB247" s="1"/>
     </row>
     <row r="248">
       <c r="A248" s="1"/>
@@ -8486,6 +8753,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
+      <c r="AB248" s="1"/>
     </row>
     <row r="249">
       <c r="A249" s="1"/>
@@ -8515,6 +8783,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
+      <c r="AB249" s="1"/>
     </row>
     <row r="250">
       <c r="A250" s="1"/>
@@ -8544,6 +8813,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
+      <c r="AB250" s="1"/>
     </row>
     <row r="251">
       <c r="A251" s="1"/>
@@ -8573,6 +8843,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
+      <c r="AB251" s="1"/>
     </row>
     <row r="252">
       <c r="A252" s="1"/>
@@ -8602,6 +8873,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
+      <c r="AB252" s="1"/>
     </row>
     <row r="253">
       <c r="A253" s="1"/>
@@ -8631,6 +8903,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
+      <c r="AB253" s="1"/>
     </row>
     <row r="254">
       <c r="A254" s="1"/>
@@ -8660,6 +8933,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
+      <c r="AB254" s="1"/>
     </row>
     <row r="255">
       <c r="A255" s="1"/>
@@ -8689,6 +8963,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
+      <c r="AB255" s="1"/>
     </row>
     <row r="256">
       <c r="A256" s="1"/>
@@ -8718,6 +8993,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
+      <c r="AB256" s="1"/>
     </row>
     <row r="257">
       <c r="A257" s="1"/>
@@ -8747,6 +9023,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
+      <c r="AB257" s="1"/>
     </row>
     <row r="258">
       <c r="A258" s="1"/>
@@ -8776,6 +9053,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
     </row>
     <row r="259">
       <c r="A259" s="1"/>
@@ -8805,6 +9083,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
+      <c r="AB259" s="1"/>
     </row>
     <row r="260">
       <c r="A260" s="1"/>
@@ -8834,6 +9113,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
+      <c r="AB260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" s="1"/>
@@ -8863,6 +9143,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
+      <c r="AB261" s="1"/>
     </row>
     <row r="262">
       <c r="A262" s="1"/>
@@ -8892,6 +9173,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
+      <c r="AB262" s="1"/>
     </row>
     <row r="263">
       <c r="A263" s="1"/>
@@ -8921,6 +9203,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
+      <c r="AB263" s="1"/>
     </row>
     <row r="264">
       <c r="A264" s="1"/>
@@ -8950,6 +9233,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
+      <c r="AB264" s="1"/>
     </row>
     <row r="265">
       <c r="A265" s="1"/>
@@ -8979,6 +9263,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
+      <c r="AB265" s="1"/>
     </row>
     <row r="266">
       <c r="A266" s="1"/>
@@ -9008,6 +9293,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
+      <c r="AB266" s="1"/>
     </row>
     <row r="267">
       <c r="A267" s="1"/>
@@ -9037,6 +9323,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
+      <c r="AB267" s="1"/>
     </row>
     <row r="268">
       <c r="A268" s="1"/>
@@ -9066,6 +9353,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
+      <c r="AB268" s="1"/>
     </row>
     <row r="269">
       <c r="A269" s="1"/>
@@ -9095,6 +9383,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
+      <c r="AB269" s="1"/>
     </row>
     <row r="270">
       <c r="A270" s="1"/>
@@ -9124,6 +9413,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
+      <c r="AB270" s="1"/>
     </row>
     <row r="271">
       <c r="A271" s="1"/>
@@ -9153,6 +9443,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
+      <c r="AB271" s="1"/>
     </row>
     <row r="272">
       <c r="A272" s="1"/>
@@ -9182,6 +9473,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
+      <c r="AB272" s="1"/>
     </row>
     <row r="273">
       <c r="A273" s="1"/>
@@ -9211,6 +9503,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
+      <c r="AB273" s="1"/>
     </row>
     <row r="274">
       <c r="A274" s="1"/>
@@ -9240,6 +9533,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
+      <c r="AB274" s="1"/>
     </row>
     <row r="275">
       <c r="A275" s="1"/>
@@ -9269,6 +9563,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
+      <c r="AB275" s="1"/>
     </row>
     <row r="276">
       <c r="A276" s="1"/>
@@ -9298,6 +9593,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
+      <c r="AB276" s="1"/>
     </row>
     <row r="277">
       <c r="A277" s="1"/>
@@ -9327,6 +9623,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
+      <c r="AB277" s="1"/>
     </row>
     <row r="278">
       <c r="A278" s="1"/>
@@ -9356,6 +9653,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
+      <c r="AB278" s="1"/>
     </row>
     <row r="279">
       <c r="A279" s="1"/>
@@ -9385,6 +9683,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
+      <c r="AB279" s="1"/>
     </row>
     <row r="280">
       <c r="A280" s="1"/>
@@ -9414,6 +9713,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
+      <c r="AB280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" s="1"/>
@@ -9443,6 +9743,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
+      <c r="AB281" s="1"/>
     </row>
     <row r="282">
       <c r="A282" s="1"/>
@@ -9472,6 +9773,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
+      <c r="AB282" s="1"/>
     </row>
     <row r="283">
       <c r="A283" s="1"/>
@@ -9501,6 +9803,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
+      <c r="AB283" s="1"/>
     </row>
     <row r="284">
       <c r="A284" s="1"/>
@@ -9530,6 +9833,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
+      <c r="AB284" s="1"/>
     </row>
     <row r="285">
       <c r="A285" s="1"/>
@@ -9559,6 +9863,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
+      <c r="AB285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" s="1"/>
@@ -9588,6 +9893,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
+      <c r="AB286" s="1"/>
     </row>
     <row r="287">
       <c r="A287" s="1"/>
@@ -9617,6 +9923,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
+      <c r="AB287" s="1"/>
     </row>
     <row r="288">
       <c r="A288" s="1"/>
@@ -9646,6 +9953,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
+      <c r="AB288" s="1"/>
     </row>
     <row r="289">
       <c r="A289" s="1"/>
@@ -9675,6 +9983,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
+      <c r="AB289" s="1"/>
     </row>
     <row r="290">
       <c r="A290" s="1"/>
@@ -9704,6 +10013,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
+      <c r="AB290" s="1"/>
     </row>
     <row r="291">
       <c r="A291" s="1"/>
@@ -9733,6 +10043,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
+      <c r="AB291" s="1"/>
     </row>
     <row r="292">
       <c r="A292" s="1"/>
@@ -9762,6 +10073,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
+      <c r="AB292" s="1"/>
     </row>
     <row r="293">
       <c r="A293" s="1"/>
@@ -9791,6 +10103,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
+      <c r="AB293" s="1"/>
     </row>
     <row r="294">
       <c r="A294" s="1"/>
@@ -9820,6 +10133,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
+      <c r="AB294" s="1"/>
     </row>
     <row r="295">
       <c r="A295" s="1"/>
@@ -9849,6 +10163,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
+      <c r="AB295" s="1"/>
     </row>
     <row r="296">
       <c r="A296" s="1"/>
@@ -9878,6 +10193,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
+      <c r="AB296" s="1"/>
     </row>
     <row r="297">
       <c r="A297" s="1"/>
@@ -9907,6 +10223,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
+      <c r="AB297" s="1"/>
     </row>
     <row r="298">
       <c r="A298" s="1"/>
@@ -9936,6 +10253,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
+      <c r="AB298" s="1"/>
     </row>
     <row r="299">
       <c r="A299" s="1"/>
@@ -9965,6 +10283,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
+      <c r="AB299" s="1"/>
     </row>
     <row r="300">
       <c r="A300" s="1"/>
@@ -9994,6 +10313,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
+      <c r="AB300" s="1"/>
     </row>
     <row r="301">
       <c r="A301" s="1"/>
@@ -10023,6 +10343,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
+      <c r="AB301" s="1"/>
     </row>
     <row r="302">
       <c r="A302" s="1"/>
@@ -10052,6 +10373,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
+      <c r="AB302" s="1"/>
     </row>
     <row r="303">
       <c r="A303" s="1"/>
@@ -10081,6 +10403,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
+      <c r="AB303" s="1"/>
     </row>
     <row r="304">
       <c r="A304" s="1"/>
@@ -10110,6 +10433,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
+      <c r="AB304" s="1"/>
     </row>
     <row r="305">
       <c r="A305" s="1"/>
@@ -10139,6 +10463,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
+      <c r="AB305" s="1"/>
     </row>
     <row r="306">
       <c r="A306" s="1"/>
@@ -10168,6 +10493,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
+      <c r="AB306" s="1"/>
     </row>
     <row r="307">
       <c r="A307" s="1"/>
@@ -10197,6 +10523,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
+      <c r="AB307" s="1"/>
     </row>
     <row r="308">
       <c r="A308" s="1"/>
@@ -10226,6 +10553,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
+      <c r="AB308" s="1"/>
     </row>
     <row r="309">
       <c r="A309" s="1"/>
@@ -10255,6 +10583,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
+      <c r="AB309" s="1"/>
     </row>
     <row r="310">
       <c r="A310" s="1"/>
@@ -10284,6 +10613,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
+      <c r="AB310" s="1"/>
     </row>
     <row r="311">
       <c r="A311" s="1"/>
@@ -10313,6 +10643,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
+      <c r="AB311" s="1"/>
     </row>
     <row r="312">
       <c r="A312" s="1"/>
@@ -10342,6 +10673,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
+      <c r="AB312" s="1"/>
     </row>
     <row r="313">
       <c r="A313" s="1"/>
@@ -10371,6 +10703,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
+      <c r="AB313" s="1"/>
     </row>
     <row r="314">
       <c r="A314" s="1"/>
@@ -10400,6 +10733,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
+      <c r="AB314" s="1"/>
     </row>
     <row r="315">
       <c r="A315" s="1"/>
@@ -10429,6 +10763,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
+      <c r="AB315" s="1"/>
     </row>
     <row r="316">
       <c r="A316" s="1"/>
@@ -10458,6 +10793,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
+      <c r="AB316" s="1"/>
     </row>
     <row r="317">
       <c r="A317" s="1"/>
@@ -10487,6 +10823,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
+      <c r="AB317" s="1"/>
     </row>
     <row r="318">
       <c r="A318" s="1"/>
@@ -10516,6 +10853,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
+      <c r="AB318" s="1"/>
     </row>
     <row r="319">
       <c r="A319" s="1"/>
@@ -10545,6 +10883,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
+      <c r="AB319" s="1"/>
     </row>
     <row r="320">
       <c r="A320" s="1"/>
@@ -10574,6 +10913,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
+      <c r="AB320" s="1"/>
     </row>
     <row r="321">
       <c r="A321" s="1"/>
@@ -10603,6 +10943,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
+      <c r="AB321" s="1"/>
     </row>
     <row r="322">
       <c r="A322" s="1"/>
@@ -10632,6 +10973,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
+      <c r="AB322" s="1"/>
     </row>
     <row r="323">
       <c r="A323" s="1"/>
@@ -10661,6 +11003,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
+      <c r="AB323" s="1"/>
     </row>
     <row r="324">
       <c r="A324" s="1"/>
@@ -10690,6 +11033,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
+      <c r="AB324" s="1"/>
     </row>
     <row r="325">
       <c r="A325" s="1"/>
@@ -10719,6 +11063,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
+      <c r="AB325" s="1"/>
     </row>
     <row r="326">
       <c r="A326" s="1"/>
@@ -10748,6 +11093,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
+      <c r="AB326" s="1"/>
     </row>
     <row r="327">
       <c r="A327" s="1"/>
@@ -10777,6 +11123,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
+      <c r="AB327" s="1"/>
     </row>
     <row r="328">
       <c r="A328" s="1"/>
@@ -10806,6 +11153,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
+      <c r="AB328" s="1"/>
     </row>
     <row r="329">
       <c r="A329" s="1"/>
@@ -10835,6 +11183,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
+      <c r="AB329" s="1"/>
     </row>
     <row r="330">
       <c r="A330" s="1"/>
@@ -10864,6 +11213,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
+      <c r="AB330" s="1"/>
     </row>
     <row r="331">
       <c r="A331" s="1"/>
@@ -10893,6 +11243,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
+      <c r="AB331" s="1"/>
     </row>
     <row r="332">
       <c r="A332" s="1"/>
@@ -10922,6 +11273,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
+      <c r="AB332" s="1"/>
     </row>
     <row r="333">
       <c r="A333" s="1"/>
@@ -10951,6 +11303,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
+      <c r="AB333" s="1"/>
     </row>
     <row r="334">
       <c r="A334" s="1"/>
@@ -10980,6 +11333,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
+      <c r="AB334" s="1"/>
     </row>
     <row r="335">
       <c r="A335" s="1"/>
@@ -11009,6 +11363,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
+      <c r="AB335" s="1"/>
     </row>
     <row r="336">
       <c r="A336" s="1"/>
@@ -11038,6 +11393,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
+      <c r="AB336" s="1"/>
     </row>
     <row r="337">
       <c r="A337" s="1"/>
@@ -11067,6 +11423,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
+      <c r="AB337" s="1"/>
     </row>
     <row r="338">
       <c r="A338" s="1"/>
@@ -11096,6 +11453,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
+      <c r="AB338" s="1"/>
     </row>
     <row r="339">
       <c r="A339" s="1"/>
@@ -11125,6 +11483,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
+      <c r="AB339" s="1"/>
     </row>
     <row r="340">
       <c r="A340" s="1"/>
@@ -11154,6 +11513,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
+      <c r="AB340" s="1"/>
     </row>
     <row r="341">
       <c r="A341" s="1"/>
@@ -11183,6 +11543,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
+      <c r="AB341" s="1"/>
     </row>
     <row r="342">
       <c r="A342" s="1"/>
@@ -11212,6 +11573,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
+      <c r="AB342" s="1"/>
     </row>
     <row r="343">
       <c r="A343" s="1"/>
@@ -11241,6 +11603,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
+      <c r="AB343" s="1"/>
     </row>
     <row r="344">
       <c r="A344" s="1"/>
@@ -11270,6 +11633,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
+      <c r="AB344" s="1"/>
     </row>
     <row r="345">
       <c r="A345" s="1"/>
@@ -11299,6 +11663,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
+      <c r="AB345" s="1"/>
     </row>
     <row r="346">
       <c r="A346" s="1"/>
@@ -11328,6 +11693,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
+      <c r="AB346" s="1"/>
     </row>
     <row r="347">
       <c r="A347" s="1"/>
@@ -11357,6 +11723,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
+      <c r="AB347" s="1"/>
     </row>
     <row r="348">
       <c r="A348" s="1"/>
@@ -11386,6 +11753,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
+      <c r="AB348" s="1"/>
     </row>
     <row r="349">
       <c r="A349" s="1"/>
@@ -11415,6 +11783,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
+      <c r="AB349" s="1"/>
     </row>
     <row r="350">
       <c r="A350" s="1"/>
@@ -11444,6 +11813,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
+      <c r="AB350" s="1"/>
     </row>
     <row r="351">
       <c r="A351" s="1"/>
@@ -11473,6 +11843,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
+      <c r="AB351" s="1"/>
     </row>
     <row r="352">
       <c r="A352" s="1"/>
@@ -11502,6 +11873,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
+      <c r="AB352" s="1"/>
     </row>
     <row r="353">
       <c r="A353" s="1"/>
@@ -11531,6 +11903,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
+      <c r="AB353" s="1"/>
     </row>
     <row r="354">
       <c r="A354" s="1"/>
@@ -11560,6 +11933,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
+      <c r="AB354" s="1"/>
     </row>
     <row r="355">
       <c r="A355" s="1"/>
@@ -11589,6 +11963,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
+      <c r="AB355" s="1"/>
     </row>
     <row r="356">
       <c r="A356" s="1"/>
@@ -11618,6 +11993,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
+      <c r="AB356" s="1"/>
     </row>
     <row r="357">
       <c r="A357" s="1"/>
@@ -11647,6 +12023,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
+      <c r="AB357" s="1"/>
     </row>
     <row r="358">
       <c r="A358" s="1"/>
@@ -11676,6 +12053,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
+      <c r="AB358" s="1"/>
     </row>
     <row r="359">
       <c r="A359" s="1"/>
@@ -11705,6 +12083,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
+      <c r="AB359" s="1"/>
     </row>
     <row r="360">
       <c r="A360" s="1"/>
@@ -11734,6 +12113,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
+      <c r="AB360" s="1"/>
     </row>
     <row r="361">
       <c r="A361" s="1"/>
@@ -11763,6 +12143,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
+      <c r="AB361" s="1"/>
     </row>
     <row r="362">
       <c r="A362" s="1"/>
@@ -11792,6 +12173,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
+      <c r="AB362" s="1"/>
     </row>
     <row r="363">
       <c r="A363" s="1"/>
@@ -11821,6 +12203,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
+      <c r="AB363" s="1"/>
     </row>
     <row r="364">
       <c r="A364" s="1"/>
@@ -11850,6 +12233,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
+      <c r="AB364" s="1"/>
     </row>
     <row r="365">
       <c r="A365" s="1"/>
@@ -11879,6 +12263,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
+      <c r="AB365" s="1"/>
     </row>
     <row r="366">
       <c r="A366" s="1"/>
@@ -11908,6 +12293,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
+      <c r="AB366" s="1"/>
     </row>
     <row r="367">
       <c r="A367" s="1"/>
@@ -11937,6 +12323,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
+      <c r="AB367" s="1"/>
     </row>
     <row r="368">
       <c r="A368" s="1"/>
@@ -11966,6 +12353,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
+      <c r="AB368" s="1"/>
     </row>
     <row r="369">
       <c r="A369" s="1"/>
@@ -11995,6 +12383,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
+      <c r="AB369" s="1"/>
     </row>
     <row r="370">
       <c r="A370" s="1"/>
@@ -12024,6 +12413,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
+      <c r="AB370" s="1"/>
     </row>
     <row r="371">
       <c r="A371" s="1"/>
@@ -12053,6 +12443,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
+      <c r="AB371" s="1"/>
     </row>
     <row r="372">
       <c r="A372" s="1"/>
@@ -12082,6 +12473,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
+      <c r="AB372" s="1"/>
     </row>
     <row r="373">
       <c r="A373" s="1"/>
@@ -12111,6 +12503,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
+      <c r="AB373" s="1"/>
     </row>
     <row r="374">
       <c r="A374" s="1"/>
@@ -12140,6 +12533,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
+      <c r="AB374" s="1"/>
     </row>
     <row r="375">
       <c r="A375" s="1"/>
@@ -12169,6 +12563,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
+      <c r="AB375" s="1"/>
     </row>
     <row r="376">
       <c r="A376" s="1"/>
@@ -12198,6 +12593,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
+      <c r="AB376" s="1"/>
     </row>
     <row r="377">
       <c r="A377" s="1"/>
@@ -12227,6 +12623,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
+      <c r="AB377" s="1"/>
     </row>
     <row r="378">
       <c r="A378" s="1"/>
@@ -12256,6 +12653,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
+      <c r="AB378" s="1"/>
     </row>
     <row r="379">
       <c r="A379" s="1"/>
@@ -12285,6 +12683,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
+      <c r="AB379" s="1"/>
     </row>
     <row r="380">
       <c r="A380" s="1"/>
@@ -12314,6 +12713,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
+      <c r="AB380" s="1"/>
     </row>
     <row r="381">
       <c r="A381" s="1"/>
@@ -12343,6 +12743,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
+      <c r="AB381" s="1"/>
     </row>
     <row r="382">
       <c r="A382" s="1"/>
@@ -12372,6 +12773,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
+      <c r="AB382" s="1"/>
     </row>
     <row r="383">
       <c r="A383" s="1"/>
@@ -12401,6 +12803,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
+      <c r="AB383" s="1"/>
     </row>
     <row r="384">
       <c r="A384" s="1"/>
@@ -12430,6 +12833,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
+      <c r="AB384" s="1"/>
     </row>
     <row r="385">
       <c r="A385" s="1"/>
@@ -12459,6 +12863,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
+      <c r="AB385" s="1"/>
     </row>
     <row r="386">
       <c r="A386" s="1"/>
@@ -12488,6 +12893,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
+      <c r="AB386" s="1"/>
     </row>
     <row r="387">
       <c r="A387" s="1"/>
@@ -12517,6 +12923,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
+      <c r="AB387" s="1"/>
     </row>
     <row r="388">
       <c r="A388" s="1"/>
@@ -12546,6 +12953,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
+      <c r="AB388" s="1"/>
     </row>
     <row r="389">
       <c r="A389" s="1"/>
@@ -12575,6 +12983,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
+      <c r="AB389" s="1"/>
     </row>
     <row r="390">
       <c r="A390" s="1"/>
@@ -12604,6 +13013,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
+      <c r="AB390" s="1"/>
     </row>
     <row r="391">
       <c r="A391" s="1"/>
@@ -12633,6 +13043,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
+      <c r="AB391" s="1"/>
     </row>
     <row r="392">
       <c r="A392" s="1"/>
@@ -12662,6 +13073,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
+      <c r="AB392" s="1"/>
     </row>
     <row r="393">
       <c r="A393" s="1"/>
@@ -12691,6 +13103,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
+      <c r="AB393" s="1"/>
     </row>
     <row r="394">
       <c r="A394" s="1"/>
@@ -12720,6 +13133,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
+      <c r="AB394" s="1"/>
     </row>
     <row r="395">
       <c r="A395" s="1"/>
@@ -12749,6 +13163,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
+      <c r="AB395" s="1"/>
     </row>
     <row r="396">
       <c r="A396" s="1"/>
@@ -12778,6 +13193,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
+      <c r="AB396" s="1"/>
     </row>
     <row r="397">
       <c r="A397" s="1"/>
@@ -12807,6 +13223,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
+      <c r="AB397" s="1"/>
     </row>
     <row r="398">
       <c r="A398" s="1"/>
@@ -12836,6 +13253,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
+      <c r="AB398" s="1"/>
     </row>
     <row r="399">
       <c r="A399" s="1"/>
@@ -12865,6 +13283,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
+      <c r="AB399" s="1"/>
     </row>
     <row r="400">
       <c r="A400" s="1"/>
@@ -12894,6 +13313,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
+      <c r="AB400" s="1"/>
     </row>
     <row r="401">
       <c r="A401" s="1"/>
@@ -12923,6 +13343,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
+      <c r="AB401" s="1"/>
     </row>
     <row r="402">
       <c r="A402" s="1"/>
@@ -12952,6 +13373,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
+      <c r="AB402" s="1"/>
     </row>
     <row r="403">
       <c r="A403" s="1"/>
@@ -12981,6 +13403,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
+      <c r="AB403" s="1"/>
     </row>
     <row r="404">
       <c r="A404" s="1"/>
@@ -13010,6 +13433,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
+      <c r="AB404" s="1"/>
     </row>
     <row r="405">
       <c r="A405" s="1"/>
@@ -13039,6 +13463,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
+      <c r="AB405" s="1"/>
     </row>
     <row r="406">
       <c r="A406" s="1"/>
@@ -13068,6 +13493,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
+      <c r="AB406" s="1"/>
     </row>
     <row r="407">
       <c r="A407" s="1"/>
@@ -13097,6 +13523,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
+      <c r="AB407" s="1"/>
     </row>
     <row r="408">
       <c r="A408" s="1"/>
@@ -13126,6 +13553,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
+      <c r="AB408" s="1"/>
     </row>
     <row r="409">
       <c r="A409" s="1"/>
@@ -13155,6 +13583,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
+      <c r="AB409" s="1"/>
     </row>
     <row r="410">
       <c r="A410" s="1"/>
@@ -13184,6 +13613,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
+      <c r="AB410" s="1"/>
     </row>
     <row r="411">
       <c r="A411" s="1"/>
@@ -13213,6 +13643,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
+      <c r="AB411" s="1"/>
     </row>
     <row r="412">
       <c r="A412" s="1"/>
@@ -13242,6 +13673,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
+      <c r="AB412" s="1"/>
     </row>
     <row r="413">
       <c r="A413" s="1"/>
@@ -13271,6 +13703,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
+      <c r="AB413" s="1"/>
     </row>
     <row r="414">
       <c r="A414" s="1"/>
@@ -13300,6 +13733,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
+      <c r="AB414" s="1"/>
     </row>
     <row r="415">
       <c r="A415" s="1"/>
@@ -13329,6 +13763,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
+      <c r="AB415" s="1"/>
     </row>
     <row r="416">
       <c r="A416" s="1"/>
@@ -13358,6 +13793,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
+      <c r="AB416" s="1"/>
     </row>
     <row r="417">
       <c r="A417" s="1"/>
@@ -13387,6 +13823,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
+      <c r="AB417" s="1"/>
     </row>
     <row r="418">
       <c r="A418" s="1"/>
@@ -13416,6 +13853,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
+      <c r="AB418" s="1"/>
     </row>
     <row r="419">
       <c r="A419" s="1"/>
@@ -13445,6 +13883,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
+      <c r="AB419" s="1"/>
     </row>
     <row r="420">
       <c r="A420" s="1"/>
@@ -13474,6 +13913,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
+      <c r="AB420" s="1"/>
     </row>
     <row r="421">
       <c r="A421" s="1"/>
@@ -13503,6 +13943,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
+      <c r="AB421" s="1"/>
     </row>
     <row r="422">
       <c r="A422" s="1"/>
@@ -13532,6 +13973,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
+      <c r="AB422" s="1"/>
     </row>
     <row r="423">
       <c r="A423" s="1"/>
@@ -13561,6 +14003,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
+      <c r="AB423" s="1"/>
     </row>
     <row r="424">
       <c r="A424" s="1"/>
@@ -13590,6 +14033,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
+      <c r="AB424" s="1"/>
     </row>
     <row r="425">
       <c r="A425" s="1"/>
@@ -13619,6 +14063,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
+      <c r="AB425" s="1"/>
     </row>
     <row r="426">
       <c r="A426" s="1"/>
@@ -13648,6 +14093,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
+      <c r="AB426" s="1"/>
     </row>
     <row r="427">
       <c r="A427" s="1"/>
@@ -13677,6 +14123,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
+      <c r="AB427" s="1"/>
     </row>
     <row r="428">
       <c r="A428" s="1"/>
@@ -13706,6 +14153,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
+      <c r="AB428" s="1"/>
     </row>
     <row r="429">
       <c r="A429" s="1"/>
@@ -13735,6 +14183,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
+      <c r="AB429" s="1"/>
     </row>
     <row r="430">
       <c r="A430" s="1"/>
@@ -13764,6 +14213,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
+      <c r="AB430" s="1"/>
     </row>
     <row r="431">
       <c r="A431" s="1"/>
@@ -13793,6 +14243,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
+      <c r="AB431" s="1"/>
     </row>
     <row r="432">
       <c r="A432" s="1"/>
@@ -13822,6 +14273,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
+      <c r="AB432" s="1"/>
     </row>
     <row r="433">
       <c r="A433" s="1"/>
@@ -13851,6 +14303,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
+      <c r="AB433" s="1"/>
     </row>
     <row r="434">
       <c r="A434" s="1"/>
@@ -13880,6 +14333,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
+      <c r="AB434" s="1"/>
     </row>
     <row r="435">
       <c r="A435" s="1"/>
@@ -13909,6 +14363,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
+      <c r="AB435" s="1"/>
     </row>
     <row r="436">
       <c r="A436" s="1"/>
@@ -13938,6 +14393,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
+      <c r="AB436" s="1"/>
     </row>
     <row r="437">
       <c r="A437" s="1"/>
@@ -13967,6 +14423,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
+      <c r="AB437" s="1"/>
     </row>
     <row r="438">
       <c r="A438" s="1"/>
@@ -13996,6 +14453,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
+      <c r="AB438" s="1"/>
     </row>
     <row r="439">
       <c r="A439" s="1"/>
@@ -14025,6 +14483,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
       <c r="AA439" s="1"/>
+      <c r="AB439" s="1"/>
     </row>
     <row r="440">
       <c r="A440" s="1"/>
@@ -14054,6 +14513,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
+      <c r="AB440" s="1"/>
     </row>
     <row r="441">
       <c r="A441" s="1"/>
@@ -14083,6 +14543,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
       <c r="AA441" s="1"/>
+      <c r="AB441" s="1"/>
     </row>
     <row r="442">
       <c r="A442" s="1"/>
@@ -14112,6 +14573,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
+      <c r="AB442" s="1"/>
     </row>
     <row r="443">
       <c r="A443" s="1"/>
@@ -14141,6 +14603,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
+      <c r="AB443" s="1"/>
     </row>
     <row r="444">
       <c r="A444" s="1"/>
@@ -14170,6 +14633,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
+      <c r="AB444" s="1"/>
     </row>
     <row r="445">
       <c r="A445" s="1"/>
@@ -14199,6 +14663,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
+      <c r="AB445" s="1"/>
     </row>
     <row r="446">
       <c r="A446" s="1"/>
@@ -14228,6 +14693,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
+      <c r="AB446" s="1"/>
     </row>
     <row r="447">
       <c r="A447" s="1"/>
@@ -14257,6 +14723,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
+      <c r="AB447" s="1"/>
     </row>
     <row r="448">
       <c r="A448" s="1"/>
@@ -14286,6 +14753,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
       <c r="AA448" s="1"/>
+      <c r="AB448" s="1"/>
     </row>
     <row r="449">
       <c r="A449" s="1"/>
@@ -14315,6 +14783,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
+      <c r="AB449" s="1"/>
     </row>
     <row r="450">
       <c r="A450" s="1"/>
@@ -14344,6 +14813,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
       <c r="AA450" s="1"/>
+      <c r="AB450" s="1"/>
     </row>
     <row r="451">
       <c r="A451" s="1"/>
@@ -14373,6 +14843,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
+      <c r="AB451" s="1"/>
     </row>
     <row r="452">
       <c r="A452" s="1"/>
@@ -14402,6 +14873,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
+      <c r="AB452" s="1"/>
     </row>
     <row r="453">
       <c r="A453" s="1"/>
@@ -14431,6 +14903,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
+      <c r="AB453" s="1"/>
     </row>
     <row r="454">
       <c r="A454" s="1"/>
@@ -14460,6 +14933,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
+      <c r="AB454" s="1"/>
     </row>
     <row r="455">
       <c r="A455" s="1"/>
@@ -14489,6 +14963,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
+      <c r="AB455" s="1"/>
     </row>
     <row r="456">
       <c r="A456" s="1"/>
@@ -14518,6 +14993,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
+      <c r="AB456" s="1"/>
     </row>
     <row r="457">
       <c r="A457" s="1"/>
@@ -14547,6 +15023,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
       <c r="AA457" s="1"/>
+      <c r="AB457" s="1"/>
     </row>
     <row r="458">
       <c r="A458" s="1"/>
@@ -14576,6 +15053,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
       <c r="AA458" s="1"/>
+      <c r="AB458" s="1"/>
     </row>
     <row r="459">
       <c r="A459" s="1"/>
@@ -14605,6 +15083,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
+      <c r="AB459" s="1"/>
     </row>
     <row r="460">
       <c r="A460" s="1"/>
@@ -14634,6 +15113,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
       <c r="AA460" s="1"/>
+      <c r="AB460" s="1"/>
     </row>
     <row r="461">
       <c r="A461" s="1"/>
@@ -14663,6 +15143,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
+      <c r="AB461" s="1"/>
     </row>
     <row r="462">
       <c r="A462" s="1"/>
@@ -14692,6 +15173,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
       <c r="AA462" s="1"/>
+      <c r="AB462" s="1"/>
     </row>
     <row r="463">
       <c r="A463" s="1"/>
@@ -14721,6 +15203,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
       <c r="AA463" s="1"/>
+      <c r="AB463" s="1"/>
     </row>
     <row r="464">
       <c r="A464" s="1"/>
@@ -14750,6 +15233,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
+      <c r="AB464" s="1"/>
     </row>
     <row r="465">
       <c r="A465" s="1"/>
@@ -14779,6 +15263,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
+      <c r="AB465" s="1"/>
     </row>
     <row r="466">
       <c r="A466" s="1"/>
@@ -14808,6 +15293,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
+      <c r="AB466" s="1"/>
     </row>
     <row r="467">
       <c r="A467" s="1"/>
@@ -14837,6 +15323,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
+      <c r="AB467" s="1"/>
     </row>
     <row r="468">
       <c r="A468" s="1"/>
@@ -14866,6 +15353,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
+      <c r="AB468" s="1"/>
     </row>
     <row r="469">
       <c r="A469" s="1"/>
@@ -14895,6 +15383,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
+      <c r="AB469" s="1"/>
     </row>
     <row r="470">
       <c r="A470" s="1"/>
@@ -14924,6 +15413,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
+      <c r="AB470" s="1"/>
     </row>
     <row r="471">
       <c r="A471" s="1"/>
@@ -14953,6 +15443,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
+      <c r="AB471" s="1"/>
     </row>
     <row r="472">
       <c r="A472" s="1"/>
@@ -14982,6 +15473,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
+      <c r="AB472" s="1"/>
     </row>
     <row r="473">
       <c r="A473" s="1"/>
@@ -15011,6 +15503,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
+      <c r="AB473" s="1"/>
     </row>
     <row r="474">
       <c r="A474" s="1"/>
@@ -15040,6 +15533,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
+      <c r="AB474" s="1"/>
     </row>
     <row r="475">
       <c r="A475" s="1"/>
@@ -15069,6 +15563,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
+      <c r="AB475" s="1"/>
     </row>
     <row r="476">
       <c r="A476" s="1"/>
@@ -15098,6 +15593,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
+      <c r="AB476" s="1"/>
     </row>
     <row r="477">
       <c r="A477" s="1"/>
@@ -15127,6 +15623,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
+      <c r="AB477" s="1"/>
     </row>
     <row r="478">
       <c r="A478" s="1"/>
@@ -15156,6 +15653,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
+      <c r="AB478" s="1"/>
     </row>
     <row r="479">
       <c r="A479" s="1"/>
@@ -15185,6 +15683,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
+      <c r="AB479" s="1"/>
     </row>
     <row r="480">
       <c r="A480" s="1"/>
@@ -15214,6 +15713,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
+      <c r="AB480" s="1"/>
     </row>
     <row r="481">
       <c r="A481" s="1"/>
@@ -15243,6 +15743,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
+      <c r="AB481" s="1"/>
     </row>
     <row r="482">
       <c r="A482" s="1"/>
@@ -15272,6 +15773,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
+      <c r="AB482" s="1"/>
     </row>
     <row r="483">
       <c r="A483" s="1"/>
@@ -15301,6 +15803,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
+      <c r="AB483" s="1"/>
     </row>
     <row r="484">
       <c r="A484" s="1"/>
@@ -15330,6 +15833,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
       <c r="AA484" s="1"/>
+      <c r="AB484" s="1"/>
     </row>
     <row r="485">
       <c r="A485" s="1"/>
@@ -15359,6 +15863,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
+      <c r="AB485" s="1"/>
     </row>
     <row r="486">
       <c r="A486" s="1"/>
@@ -15388,6 +15893,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
+      <c r="AB486" s="1"/>
     </row>
     <row r="487">
       <c r="A487" s="1"/>
@@ -15417,6 +15923,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
+      <c r="AB487" s="1"/>
     </row>
     <row r="488">
       <c r="A488" s="1"/>
@@ -15446,6 +15953,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
+      <c r="AB488" s="1"/>
     </row>
     <row r="489">
       <c r="A489" s="1"/>
@@ -15475,6 +15983,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
+      <c r="AB489" s="1"/>
     </row>
     <row r="490">
       <c r="A490" s="1"/>
@@ -15504,6 +16013,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
+      <c r="AB490" s="1"/>
     </row>
     <row r="491">
       <c r="A491" s="1"/>
@@ -15533,6 +16043,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
+      <c r="AB491" s="1"/>
     </row>
     <row r="492">
       <c r="A492" s="1"/>
@@ -15562,6 +16073,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
+      <c r="AB492" s="1"/>
     </row>
     <row r="493">
       <c r="A493" s="1"/>
@@ -15591,6 +16103,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
+      <c r="AB493" s="1"/>
     </row>
     <row r="494">
       <c r="A494" s="1"/>
@@ -15620,6 +16133,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
+      <c r="AB494" s="1"/>
     </row>
     <row r="495">
       <c r="A495" s="1"/>
@@ -15649,6 +16163,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
+      <c r="AB495" s="1"/>
     </row>
     <row r="496">
       <c r="A496" s="1"/>
@@ -15678,6 +16193,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
+      <c r="AB496" s="1"/>
     </row>
     <row r="497">
       <c r="A497" s="1"/>
@@ -15707,6 +16223,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
+      <c r="AB497" s="1"/>
     </row>
     <row r="498">
       <c r="A498" s="1"/>
@@ -15736,6 +16253,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
+      <c r="AB498" s="1"/>
     </row>
     <row r="499">
       <c r="A499" s="1"/>
@@ -15765,6 +16283,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
+      <c r="AB499" s="1"/>
     </row>
     <row r="500">
       <c r="A500" s="1"/>
@@ -15794,6 +16313,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
+      <c r="AB500" s="1"/>
     </row>
     <row r="501">
       <c r="A501" s="1"/>
@@ -15823,6 +16343,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
+      <c r="AB501" s="1"/>
     </row>
     <row r="502">
       <c r="A502" s="1"/>
@@ -15852,6 +16373,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
+      <c r="AB502" s="1"/>
     </row>
     <row r="503">
       <c r="A503" s="1"/>
@@ -15881,6 +16403,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
+      <c r="AB503" s="1"/>
     </row>
     <row r="504">
       <c r="A504" s="1"/>
@@ -15910,6 +16433,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
+      <c r="AB504" s="1"/>
     </row>
     <row r="505">
       <c r="A505" s="1"/>
@@ -15939,6 +16463,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
+      <c r="AB505" s="1"/>
     </row>
     <row r="506">
       <c r="A506" s="1"/>
@@ -15968,6 +16493,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
+      <c r="AB506" s="1"/>
     </row>
     <row r="507">
       <c r="A507" s="1"/>
@@ -15997,6 +16523,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
+      <c r="AB507" s="1"/>
     </row>
     <row r="508">
       <c r="A508" s="1"/>
@@ -16026,6 +16553,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
+      <c r="AB508" s="1"/>
     </row>
     <row r="509">
       <c r="A509" s="1"/>
@@ -16055,6 +16583,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
+      <c r="AB509" s="1"/>
     </row>
     <row r="510">
       <c r="A510" s="1"/>
@@ -16084,6 +16613,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
+      <c r="AB510" s="1"/>
     </row>
     <row r="511">
       <c r="A511" s="1"/>
@@ -16113,6 +16643,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
+      <c r="AB511" s="1"/>
     </row>
     <row r="512">
       <c r="A512" s="1"/>
@@ -16142,6 +16673,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
+      <c r="AB512" s="1"/>
     </row>
     <row r="513">
       <c r="A513" s="1"/>
@@ -16171,6 +16703,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
+      <c r="AB513" s="1"/>
     </row>
     <row r="514">
       <c r="A514" s="1"/>
@@ -16200,6 +16733,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
+      <c r="AB514" s="1"/>
     </row>
     <row r="515">
       <c r="A515" s="1"/>
@@ -16229,6 +16763,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
+      <c r="AB515" s="1"/>
     </row>
     <row r="516">
       <c r="A516" s="1"/>
@@ -16258,6 +16793,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
+      <c r="AB516" s="1"/>
     </row>
     <row r="517">
       <c r="A517" s="1"/>
@@ -16287,6 +16823,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
+      <c r="AB517" s="1"/>
     </row>
     <row r="518">
       <c r="A518" s="1"/>
@@ -16316,6 +16853,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
+      <c r="AB518" s="1"/>
     </row>
     <row r="519">
       <c r="A519" s="1"/>
@@ -16345,6 +16883,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
+      <c r="AB519" s="1"/>
     </row>
     <row r="520">
       <c r="A520" s="1"/>
@@ -16374,6 +16913,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
+      <c r="AB520" s="1"/>
     </row>
     <row r="521">
       <c r="A521" s="1"/>
@@ -16403,6 +16943,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
+      <c r="AB521" s="1"/>
     </row>
     <row r="522">
       <c r="A522" s="1"/>
@@ -16432,6 +16973,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
+      <c r="AB522" s="1"/>
     </row>
     <row r="523">
       <c r="A523" s="1"/>
@@ -16461,6 +17003,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
+      <c r="AB523" s="1"/>
     </row>
     <row r="524">
       <c r="A524" s="1"/>
@@ -16490,6 +17033,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
+      <c r="AB524" s="1"/>
     </row>
     <row r="525">
       <c r="A525" s="1"/>
@@ -16519,6 +17063,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
+      <c r="AB525" s="1"/>
     </row>
     <row r="526">
       <c r="A526" s="1"/>
@@ -16548,6 +17093,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
+      <c r="AB526" s="1"/>
     </row>
     <row r="527">
       <c r="A527" s="1"/>
@@ -16577,6 +17123,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
+      <c r="AB527" s="1"/>
     </row>
     <row r="528">
       <c r="A528" s="1"/>
@@ -16606,6 +17153,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
+      <c r="AB528" s="1"/>
     </row>
     <row r="529">
       <c r="A529" s="1"/>
@@ -16635,6 +17183,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
+      <c r="AB529" s="1"/>
     </row>
     <row r="530">
       <c r="A530" s="1"/>
@@ -16664,6 +17213,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
+      <c r="AB530" s="1"/>
     </row>
     <row r="531">
       <c r="A531" s="1"/>
@@ -16693,6 +17243,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
+      <c r="AB531" s="1"/>
     </row>
     <row r="532">
       <c r="A532" s="1"/>
@@ -16722,6 +17273,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
+      <c r="AB532" s="1"/>
     </row>
     <row r="533">
       <c r="A533" s="1"/>
@@ -16751,6 +17303,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
       <c r="AA533" s="1"/>
+      <c r="AB533" s="1"/>
     </row>
     <row r="534">
       <c r="A534" s="1"/>
@@ -16780,6 +17333,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
       <c r="AA534" s="1"/>
+      <c r="AB534" s="1"/>
     </row>
     <row r="535">
       <c r="A535" s="1"/>
@@ -16809,6 +17363,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
+      <c r="AB535" s="1"/>
     </row>
     <row r="536">
       <c r="A536" s="1"/>
@@ -16838,6 +17393,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
+      <c r="AB536" s="1"/>
     </row>
     <row r="537">
       <c r="A537" s="1"/>
@@ -16867,6 +17423,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
+      <c r="AB537" s="1"/>
     </row>
     <row r="538">
       <c r="A538" s="1"/>
@@ -16896,6 +17453,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
+      <c r="AB538" s="1"/>
     </row>
     <row r="539">
       <c r="A539" s="1"/>
@@ -16925,6 +17483,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
+      <c r="AB539" s="1"/>
     </row>
     <row r="540">
       <c r="A540" s="1"/>
@@ -16954,6 +17513,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
+      <c r="AB540" s="1"/>
     </row>
     <row r="541">
       <c r="A541" s="1"/>
@@ -16983,6 +17543,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
       <c r="AA541" s="1"/>
+      <c r="AB541" s="1"/>
     </row>
     <row r="542">
       <c r="A542" s="1"/>
@@ -17012,6 +17573,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
       <c r="AA542" s="1"/>
+      <c r="AB542" s="1"/>
     </row>
     <row r="543">
       <c r="A543" s="1"/>
@@ -17041,6 +17603,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
       <c r="AA543" s="1"/>
+      <c r="AB543" s="1"/>
     </row>
     <row r="544">
       <c r="A544" s="1"/>
@@ -17070,6 +17633,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
       <c r="AA544" s="1"/>
+      <c r="AB544" s="1"/>
     </row>
     <row r="545">
       <c r="A545" s="1"/>
@@ -17099,6 +17663,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
       <c r="AA545" s="1"/>
+      <c r="AB545" s="1"/>
     </row>
     <row r="546">
       <c r="A546" s="1"/>
@@ -17128,6 +17693,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
       <c r="AA546" s="1"/>
+      <c r="AB546" s="1"/>
     </row>
     <row r="547">
       <c r="A547" s="1"/>
@@ -17157,6 +17723,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
       <c r="AA547" s="1"/>
+      <c r="AB547" s="1"/>
     </row>
     <row r="548">
       <c r="A548" s="1"/>
@@ -17186,6 +17753,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
       <c r="AA548" s="1"/>
+      <c r="AB548" s="1"/>
     </row>
     <row r="549">
       <c r="A549" s="1"/>
@@ -17215,6 +17783,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
       <c r="AA549" s="1"/>
+      <c r="AB549" s="1"/>
     </row>
     <row r="550">
       <c r="A550" s="1"/>
@@ -17244,6 +17813,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
       <c r="AA550" s="1"/>
+      <c r="AB550" s="1"/>
     </row>
     <row r="551">
       <c r="A551" s="1"/>
@@ -17273,6 +17843,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
       <c r="AA551" s="1"/>
+      <c r="AB551" s="1"/>
     </row>
     <row r="552">
       <c r="A552" s="1"/>
@@ -17302,6 +17873,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
       <c r="AA552" s="1"/>
+      <c r="AB552" s="1"/>
     </row>
     <row r="553">
       <c r="A553" s="1"/>
@@ -17331,6 +17903,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
       <c r="AA553" s="1"/>
+      <c r="AB553" s="1"/>
     </row>
     <row r="554">
       <c r="A554" s="1"/>
@@ -17360,6 +17933,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
       <c r="AA554" s="1"/>
+      <c r="AB554" s="1"/>
     </row>
     <row r="555">
       <c r="A555" s="1"/>
@@ -17389,6 +17963,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
       <c r="AA555" s="1"/>
+      <c r="AB555" s="1"/>
     </row>
     <row r="556">
       <c r="A556" s="1"/>
@@ -17418,6 +17993,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
       <c r="AA556" s="1"/>
+      <c r="AB556" s="1"/>
     </row>
     <row r="557">
       <c r="A557" s="1"/>
@@ -17447,6 +18023,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
       <c r="AA557" s="1"/>
+      <c r="AB557" s="1"/>
     </row>
     <row r="558">
       <c r="A558" s="1"/>
@@ -17476,6 +18053,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
       <c r="AA558" s="1"/>
+      <c r="AB558" s="1"/>
     </row>
     <row r="559">
       <c r="A559" s="1"/>
@@ -17505,6 +18083,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
+      <c r="AB559" s="1"/>
     </row>
     <row r="560">
       <c r="A560" s="1"/>
@@ -17534,6 +18113,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
       <c r="AA560" s="1"/>
+      <c r="AB560" s="1"/>
     </row>
     <row r="561">
       <c r="A561" s="1"/>
@@ -17563,6 +18143,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
       <c r="AA561" s="1"/>
+      <c r="AB561" s="1"/>
     </row>
     <row r="562">
       <c r="A562" s="1"/>
@@ -17592,6 +18173,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
       <c r="AA562" s="1"/>
+      <c r="AB562" s="1"/>
     </row>
     <row r="563">
       <c r="A563" s="1"/>
@@ -17621,6 +18203,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
       <c r="AA563" s="1"/>
+      <c r="AB563" s="1"/>
     </row>
     <row r="564">
       <c r="A564" s="1"/>
@@ -17650,6 +18233,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
       <c r="AA564" s="1"/>
+      <c r="AB564" s="1"/>
     </row>
     <row r="565">
       <c r="A565" s="1"/>
@@ -17679,6 +18263,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
       <c r="AA565" s="1"/>
+      <c r="AB565" s="1"/>
     </row>
     <row r="566">
       <c r="A566" s="1"/>
@@ -17708,6 +18293,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
       <c r="AA566" s="1"/>
+      <c r="AB566" s="1"/>
     </row>
     <row r="567">
       <c r="A567" s="1"/>
@@ -17737,6 +18323,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
       <c r="AA567" s="1"/>
+      <c r="AB567" s="1"/>
     </row>
     <row r="568">
       <c r="A568" s="1"/>
@@ -17766,6 +18353,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
       <c r="AA568" s="1"/>
+      <c r="AB568" s="1"/>
     </row>
     <row r="569">
       <c r="A569" s="1"/>
@@ -17795,6 +18383,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
       <c r="AA569" s="1"/>
+      <c r="AB569" s="1"/>
     </row>
     <row r="570">
       <c r="A570" s="1"/>
@@ -17824,6 +18413,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
       <c r="AA570" s="1"/>
+      <c r="AB570" s="1"/>
     </row>
     <row r="571">
       <c r="A571" s="1"/>
@@ -17853,6 +18443,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
       <c r="AA571" s="1"/>
+      <c r="AB571" s="1"/>
     </row>
     <row r="572">
       <c r="A572" s="1"/>
@@ -17882,6 +18473,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
       <c r="AA572" s="1"/>
+      <c r="AB572" s="1"/>
     </row>
     <row r="573">
       <c r="A573" s="1"/>
@@ -17911,6 +18503,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
       <c r="AA573" s="1"/>
+      <c r="AB573" s="1"/>
     </row>
     <row r="574">
       <c r="A574" s="1"/>
@@ -17940,6 +18533,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
       <c r="AA574" s="1"/>
+      <c r="AB574" s="1"/>
     </row>
     <row r="575">
       <c r="A575" s="1"/>
@@ -17969,6 +18563,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
       <c r="AA575" s="1"/>
+      <c r="AB575" s="1"/>
     </row>
     <row r="576">
       <c r="A576" s="1"/>
@@ -17998,6 +18593,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
       <c r="AA576" s="1"/>
+      <c r="AB576" s="1"/>
     </row>
     <row r="577">
       <c r="A577" s="1"/>
@@ -18027,6 +18623,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
       <c r="AA577" s="1"/>
+      <c r="AB577" s="1"/>
     </row>
     <row r="578">
       <c r="A578" s="1"/>
@@ -18056,6 +18653,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
       <c r="AA578" s="1"/>
+      <c r="AB578" s="1"/>
     </row>
     <row r="579">
       <c r="A579" s="1"/>
@@ -18085,6 +18683,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
       <c r="AA579" s="1"/>
+      <c r="AB579" s="1"/>
     </row>
     <row r="580">
       <c r="A580" s="1"/>
@@ -18114,6 +18713,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
       <c r="AA580" s="1"/>
+      <c r="AB580" s="1"/>
     </row>
     <row r="581">
       <c r="A581" s="1"/>
@@ -18143,6 +18743,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
       <c r="AA581" s="1"/>
+      <c r="AB581" s="1"/>
     </row>
     <row r="582">
       <c r="A582" s="1"/>
@@ -18172,6 +18773,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
       <c r="AA582" s="1"/>
+      <c r="AB582" s="1"/>
     </row>
     <row r="583">
       <c r="A583" s="1"/>
@@ -18201,6 +18803,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
       <c r="AA583" s="1"/>
+      <c r="AB583" s="1"/>
     </row>
     <row r="584">
       <c r="A584" s="1"/>
@@ -18230,6 +18833,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
       <c r="AA584" s="1"/>
+      <c r="AB584" s="1"/>
     </row>
     <row r="585">
       <c r="A585" s="1"/>
@@ -18259,6 +18863,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
       <c r="AA585" s="1"/>
+      <c r="AB585" s="1"/>
     </row>
     <row r="586">
       <c r="A586" s="1"/>
@@ -18288,6 +18893,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
       <c r="AA586" s="1"/>
+      <c r="AB586" s="1"/>
     </row>
     <row r="587">
       <c r="A587" s="1"/>
@@ -18317,6 +18923,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
       <c r="AA587" s="1"/>
+      <c r="AB587" s="1"/>
     </row>
     <row r="588">
       <c r="A588" s="1"/>
@@ -18346,6 +18953,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
       <c r="AA588" s="1"/>
+      <c r="AB588" s="1"/>
     </row>
     <row r="589">
       <c r="A589" s="1"/>
@@ -18375,6 +18983,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
       <c r="AA589" s="1"/>
+      <c r="AB589" s="1"/>
     </row>
     <row r="590">
       <c r="A590" s="1"/>
@@ -18404,6 +19013,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
       <c r="AA590" s="1"/>
+      <c r="AB590" s="1"/>
     </row>
     <row r="591">
       <c r="A591" s="1"/>
@@ -18433,6 +19043,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
       <c r="AA591" s="1"/>
+      <c r="AB591" s="1"/>
     </row>
     <row r="592">
       <c r="A592" s="1"/>
@@ -18462,6 +19073,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
       <c r="AA592" s="1"/>
+      <c r="AB592" s="1"/>
     </row>
     <row r="593">
       <c r="A593" s="1"/>
@@ -18491,6 +19103,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
+      <c r="AB593" s="1"/>
     </row>
     <row r="594">
       <c r="A594" s="1"/>
@@ -18520,6 +19133,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
       <c r="AA594" s="1"/>
+      <c r="AB594" s="1"/>
     </row>
     <row r="595">
       <c r="A595" s="1"/>
@@ -18549,6 +19163,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
       <c r="AA595" s="1"/>
+      <c r="AB595" s="1"/>
     </row>
     <row r="596">
       <c r="A596" s="1"/>
@@ -18578,6 +19193,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
       <c r="AA596" s="1"/>
+      <c r="AB596" s="1"/>
     </row>
     <row r="597">
       <c r="A597" s="1"/>
@@ -18607,6 +19223,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
       <c r="AA597" s="1"/>
+      <c r="AB597" s="1"/>
     </row>
     <row r="598">
       <c r="A598" s="1"/>
@@ -18636,6 +19253,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
       <c r="AA598" s="1"/>
+      <c r="AB598" s="1"/>
     </row>
     <row r="599">
       <c r="A599" s="1"/>
@@ -18665,6 +19283,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
       <c r="AA599" s="1"/>
+      <c r="AB599" s="1"/>
     </row>
     <row r="600">
       <c r="A600" s="1"/>
@@ -18694,6 +19313,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
       <c r="AA600" s="1"/>
+      <c r="AB600" s="1"/>
     </row>
     <row r="601">
       <c r="A601" s="1"/>
@@ -18723,6 +19343,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
       <c r="AA601" s="1"/>
+      <c r="AB601" s="1"/>
     </row>
     <row r="602">
       <c r="A602" s="1"/>
@@ -18752,6 +19373,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
       <c r="AA602" s="1"/>
+      <c r="AB602" s="1"/>
     </row>
     <row r="603">
       <c r="A603" s="1"/>
@@ -18781,6 +19403,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
       <c r="AA603" s="1"/>
+      <c r="AB603" s="1"/>
     </row>
     <row r="604">
       <c r="A604" s="1"/>
@@ -18810,6 +19433,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
       <c r="AA604" s="1"/>
+      <c r="AB604" s="1"/>
     </row>
     <row r="605">
       <c r="A605" s="1"/>
@@ -18839,6 +19463,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
       <c r="AA605" s="1"/>
+      <c r="AB605" s="1"/>
     </row>
     <row r="606">
       <c r="A606" s="1"/>
@@ -18868,6 +19493,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
       <c r="AA606" s="1"/>
+      <c r="AB606" s="1"/>
     </row>
     <row r="607">
       <c r="A607" s="1"/>
@@ -18897,6 +19523,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
       <c r="AA607" s="1"/>
+      <c r="AB607" s="1"/>
     </row>
     <row r="608">
       <c r="A608" s="1"/>
@@ -18926,6 +19553,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
       <c r="AA608" s="1"/>
+      <c r="AB608" s="1"/>
     </row>
     <row r="609">
       <c r="A609" s="1"/>
@@ -18955,6 +19583,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
       <c r="AA609" s="1"/>
+      <c r="AB609" s="1"/>
     </row>
     <row r="610">
       <c r="A610" s="1"/>
@@ -18984,6 +19613,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
       <c r="AA610" s="1"/>
+      <c r="AB610" s="1"/>
     </row>
     <row r="611">
       <c r="A611" s="1"/>
@@ -19013,6 +19643,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
       <c r="AA611" s="1"/>
+      <c r="AB611" s="1"/>
     </row>
     <row r="612">
       <c r="A612" s="1"/>
@@ -19042,6 +19673,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
       <c r="AA612" s="1"/>
+      <c r="AB612" s="1"/>
     </row>
     <row r="613">
       <c r="A613" s="1"/>
@@ -19071,6 +19703,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
       <c r="AA613" s="1"/>
+      <c r="AB613" s="1"/>
     </row>
     <row r="614">
       <c r="A614" s="1"/>
@@ -19100,6 +19733,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
       <c r="AA614" s="1"/>
+      <c r="AB614" s="1"/>
     </row>
     <row r="615">
       <c r="A615" s="1"/>
@@ -19129,6 +19763,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
       <c r="AA615" s="1"/>
+      <c r="AB615" s="1"/>
     </row>
     <row r="616">
       <c r="A616" s="1"/>
@@ -19158,6 +19793,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
       <c r="AA616" s="1"/>
+      <c r="AB616" s="1"/>
     </row>
     <row r="617">
       <c r="A617" s="1"/>
@@ -19187,6 +19823,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
       <c r="AA617" s="1"/>
+      <c r="AB617" s="1"/>
     </row>
     <row r="618">
       <c r="A618" s="1"/>
@@ -19216,6 +19853,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
       <c r="AA618" s="1"/>
+      <c r="AB618" s="1"/>
     </row>
     <row r="619">
       <c r="A619" s="1"/>
@@ -19245,6 +19883,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
       <c r="AA619" s="1"/>
+      <c r="AB619" s="1"/>
     </row>
     <row r="620">
       <c r="A620" s="1"/>
@@ -19274,6 +19913,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
       <c r="AA620" s="1"/>
+      <c r="AB620" s="1"/>
     </row>
     <row r="621">
       <c r="A621" s="1"/>
@@ -19303,6 +19943,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
       <c r="AA621" s="1"/>
+      <c r="AB621" s="1"/>
     </row>
     <row r="622">
       <c r="A622" s="1"/>
@@ -19332,6 +19973,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
       <c r="AA622" s="1"/>
+      <c r="AB622" s="1"/>
     </row>
     <row r="623">
       <c r="A623" s="1"/>
@@ -19361,6 +20003,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
       <c r="AA623" s="1"/>
+      <c r="AB623" s="1"/>
     </row>
     <row r="624">
       <c r="A624" s="1"/>
@@ -19390,6 +20033,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
       <c r="AA624" s="1"/>
+      <c r="AB624" s="1"/>
     </row>
     <row r="625">
       <c r="A625" s="1"/>
@@ -19419,6 +20063,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
       <c r="AA625" s="1"/>
+      <c r="AB625" s="1"/>
     </row>
     <row r="626">
       <c r="A626" s="1"/>
@@ -19448,6 +20093,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
       <c r="AA626" s="1"/>
+      <c r="AB626" s="1"/>
     </row>
     <row r="627">
       <c r="A627" s="1"/>
@@ -19477,6 +20123,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
       <c r="AA627" s="1"/>
+      <c r="AB627" s="1"/>
     </row>
     <row r="628">
       <c r="A628" s="1"/>
@@ -19506,6 +20153,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
       <c r="AA628" s="1"/>
+      <c r="AB628" s="1"/>
     </row>
     <row r="629">
       <c r="A629" s="1"/>
@@ -19535,6 +20183,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
       <c r="AA629" s="1"/>
+      <c r="AB629" s="1"/>
     </row>
     <row r="630">
       <c r="A630" s="1"/>
@@ -19564,6 +20213,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
       <c r="AA630" s="1"/>
+      <c r="AB630" s="1"/>
     </row>
     <row r="631">
       <c r="A631" s="1"/>
@@ -19593,6 +20243,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
       <c r="AA631" s="1"/>
+      <c r="AB631" s="1"/>
     </row>
     <row r="632">
       <c r="A632" s="1"/>
@@ -19622,6 +20273,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
       <c r="AA632" s="1"/>
+      <c r="AB632" s="1"/>
     </row>
     <row r="633">
       <c r="A633" s="1"/>
@@ -19651,6 +20303,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
       <c r="AA633" s="1"/>
+      <c r="AB633" s="1"/>
     </row>
     <row r="634">
       <c r="A634" s="1"/>
@@ -19680,6 +20333,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
       <c r="AA634" s="1"/>
+      <c r="AB634" s="1"/>
     </row>
     <row r="635">
       <c r="A635" s="1"/>
@@ -19709,6 +20363,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
       <c r="AA635" s="1"/>
+      <c r="AB635" s="1"/>
     </row>
     <row r="636">
       <c r="A636" s="1"/>
@@ -19738,6 +20393,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
       <c r="AA636" s="1"/>
+      <c r="AB636" s="1"/>
     </row>
     <row r="637">
       <c r="A637" s="1"/>
@@ -19767,6 +20423,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
       <c r="AA637" s="1"/>
+      <c r="AB637" s="1"/>
     </row>
     <row r="638">
       <c r="A638" s="1"/>
@@ -19796,6 +20453,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
       <c r="AA638" s="1"/>
+      <c r="AB638" s="1"/>
     </row>
     <row r="639">
       <c r="A639" s="1"/>
@@ -19825,6 +20483,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
       <c r="AA639" s="1"/>
+      <c r="AB639" s="1"/>
     </row>
     <row r="640">
       <c r="A640" s="1"/>
@@ -19854,6 +20513,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
       <c r="AA640" s="1"/>
+      <c r="AB640" s="1"/>
     </row>
     <row r="641">
       <c r="A641" s="1"/>
@@ -19883,6 +20543,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
       <c r="AA641" s="1"/>
+      <c r="AB641" s="1"/>
     </row>
     <row r="642">
       <c r="A642" s="1"/>
@@ -19912,6 +20573,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
       <c r="AA642" s="1"/>
+      <c r="AB642" s="1"/>
     </row>
     <row r="643">
       <c r="A643" s="1"/>
@@ -19941,6 +20603,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
       <c r="AA643" s="1"/>
+      <c r="AB643" s="1"/>
     </row>
     <row r="644">
       <c r="A644" s="1"/>
@@ -19970,6 +20633,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
       <c r="AA644" s="1"/>
+      <c r="AB644" s="1"/>
     </row>
     <row r="645">
       <c r="A645" s="1"/>
@@ -19999,6 +20663,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
       <c r="AA645" s="1"/>
+      <c r="AB645" s="1"/>
     </row>
     <row r="646">
       <c r="A646" s="1"/>
@@ -20028,6 +20693,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
       <c r="AA646" s="1"/>
+      <c r="AB646" s="1"/>
     </row>
     <row r="647">
       <c r="A647" s="1"/>
@@ -20057,6 +20723,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
       <c r="AA647" s="1"/>
+      <c r="AB647" s="1"/>
     </row>
     <row r="648">
       <c r="A648" s="1"/>
@@ -20086,6 +20753,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
       <c r="AA648" s="1"/>
+      <c r="AB648" s="1"/>
     </row>
     <row r="649">
       <c r="A649" s="1"/>
@@ -20115,6 +20783,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
       <c r="AA649" s="1"/>
+      <c r="AB649" s="1"/>
     </row>
     <row r="650">
       <c r="A650" s="1"/>
@@ -20144,6 +20813,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
       <c r="AA650" s="1"/>
+      <c r="AB650" s="1"/>
     </row>
     <row r="651">
       <c r="A651" s="1"/>
@@ -20173,6 +20843,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
       <c r="AA651" s="1"/>
+      <c r="AB651" s="1"/>
     </row>
     <row r="652">
       <c r="A652" s="1"/>
@@ -20202,6 +20873,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
       <c r="AA652" s="1"/>
+      <c r="AB652" s="1"/>
     </row>
     <row r="653">
       <c r="A653" s="1"/>
@@ -20231,6 +20903,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
       <c r="AA653" s="1"/>
+      <c r="AB653" s="1"/>
     </row>
     <row r="654">
       <c r="A654" s="1"/>
@@ -20260,6 +20933,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
       <c r="AA654" s="1"/>
+      <c r="AB654" s="1"/>
     </row>
     <row r="655">
       <c r="A655" s="1"/>
@@ -20289,6 +20963,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
       <c r="AA655" s="1"/>
+      <c r="AB655" s="1"/>
     </row>
     <row r="656">
       <c r="A656" s="1"/>
@@ -20318,6 +20993,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
       <c r="AA656" s="1"/>
+      <c r="AB656" s="1"/>
     </row>
     <row r="657">
       <c r="A657" s="1"/>
@@ -20347,6 +21023,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
       <c r="AA657" s="1"/>
+      <c r="AB657" s="1"/>
     </row>
     <row r="658">
       <c r="A658" s="1"/>
@@ -20376,6 +21053,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
       <c r="AA658" s="1"/>
+      <c r="AB658" s="1"/>
     </row>
     <row r="659">
       <c r="A659" s="1"/>
@@ -20405,6 +21083,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
       <c r="AA659" s="1"/>
+      <c r="AB659" s="1"/>
     </row>
     <row r="660">
       <c r="A660" s="1"/>
@@ -20434,6 +21113,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
       <c r="AA660" s="1"/>
+      <c r="AB660" s="1"/>
     </row>
     <row r="661">
       <c r="A661" s="1"/>
@@ -20463,6 +21143,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
       <c r="AA661" s="1"/>
+      <c r="AB661" s="1"/>
     </row>
     <row r="662">
       <c r="A662" s="1"/>
@@ -20492,6 +21173,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
       <c r="AA662" s="1"/>
+      <c r="AB662" s="1"/>
     </row>
     <row r="663">
       <c r="A663" s="1"/>
@@ -20521,6 +21203,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
       <c r="AA663" s="1"/>
+      <c r="AB663" s="1"/>
     </row>
     <row r="664">
       <c r="A664" s="1"/>
@@ -20550,6 +21233,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
       <c r="AA664" s="1"/>
+      <c r="AB664" s="1"/>
     </row>
     <row r="665">
       <c r="A665" s="1"/>
@@ -20579,6 +21263,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
       <c r="AA665" s="1"/>
+      <c r="AB665" s="1"/>
     </row>
     <row r="666">
       <c r="A666" s="1"/>
@@ -20608,6 +21293,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
       <c r="AA666" s="1"/>
+      <c r="AB666" s="1"/>
     </row>
     <row r="667">
       <c r="A667" s="1"/>
@@ -20637,6 +21323,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
       <c r="AA667" s="1"/>
+      <c r="AB667" s="1"/>
     </row>
     <row r="668">
       <c r="A668" s="1"/>
@@ -20666,6 +21353,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
       <c r="AA668" s="1"/>
+      <c r="AB668" s="1"/>
     </row>
     <row r="669">
       <c r="A669" s="1"/>
@@ -20695,6 +21383,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
       <c r="AA669" s="1"/>
+      <c r="AB669" s="1"/>
     </row>
     <row r="670">
       <c r="A670" s="1"/>
@@ -20724,6 +21413,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
       <c r="AA670" s="1"/>
+      <c r="AB670" s="1"/>
     </row>
     <row r="671">
       <c r="A671" s="1"/>
@@ -20753,6 +21443,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
       <c r="AA671" s="1"/>
+      <c r="AB671" s="1"/>
     </row>
     <row r="672">
       <c r="A672" s="1"/>
@@ -20782,6 +21473,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
       <c r="AA672" s="1"/>
+      <c r="AB672" s="1"/>
     </row>
     <row r="673">
       <c r="A673" s="1"/>
@@ -20811,6 +21503,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
       <c r="AA673" s="1"/>
+      <c r="AB673" s="1"/>
     </row>
     <row r="674">
       <c r="A674" s="1"/>
@@ -20840,6 +21533,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
       <c r="AA674" s="1"/>
+      <c r="AB674" s="1"/>
     </row>
     <row r="675">
       <c r="A675" s="1"/>
@@ -20869,6 +21563,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
       <c r="AA675" s="1"/>
+      <c r="AB675" s="1"/>
     </row>
     <row r="676">
       <c r="A676" s="1"/>
@@ -20898,6 +21593,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
       <c r="AA676" s="1"/>
+      <c r="AB676" s="1"/>
     </row>
     <row r="677">
       <c r="A677" s="1"/>
@@ -20927,6 +21623,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
       <c r="AA677" s="1"/>
+      <c r="AB677" s="1"/>
     </row>
     <row r="678">
       <c r="A678" s="1"/>
@@ -20956,6 +21653,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
       <c r="AA678" s="1"/>
+      <c r="AB678" s="1"/>
     </row>
     <row r="679">
       <c r="A679" s="1"/>
@@ -20985,6 +21683,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
       <c r="AA679" s="1"/>
+      <c r="AB679" s="1"/>
     </row>
     <row r="680">
       <c r="A680" s="1"/>
@@ -21014,6 +21713,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
       <c r="AA680" s="1"/>
+      <c r="AB680" s="1"/>
     </row>
     <row r="681">
       <c r="A681" s="1"/>
@@ -21043,6 +21743,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
       <c r="AA681" s="1"/>
+      <c r="AB681" s="1"/>
     </row>
     <row r="682">
       <c r="A682" s="1"/>
@@ -21072,6 +21773,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
       <c r="AA682" s="1"/>
+      <c r="AB682" s="1"/>
     </row>
     <row r="683">
       <c r="A683" s="1"/>
@@ -21101,6 +21803,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
       <c r="AA683" s="1"/>
+      <c r="AB683" s="1"/>
     </row>
     <row r="684">
       <c r="A684" s="1"/>
@@ -21130,6 +21833,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
       <c r="AA684" s="1"/>
+      <c r="AB684" s="1"/>
     </row>
     <row r="685">
       <c r="A685" s="1"/>
@@ -21159,6 +21863,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
       <c r="AA685" s="1"/>
+      <c r="AB685" s="1"/>
     </row>
     <row r="686">
       <c r="A686" s="1"/>
@@ -21188,6 +21893,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
       <c r="AA686" s="1"/>
+      <c r="AB686" s="1"/>
     </row>
     <row r="687">
       <c r="A687" s="1"/>
@@ -21217,6 +21923,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
       <c r="AA687" s="1"/>
+      <c r="AB687" s="1"/>
     </row>
     <row r="688">
       <c r="A688" s="1"/>
@@ -21246,6 +21953,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
       <c r="AA688" s="1"/>
+      <c r="AB688" s="1"/>
     </row>
     <row r="689">
       <c r="A689" s="1"/>
@@ -21275,6 +21983,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
       <c r="AA689" s="1"/>
+      <c r="AB689" s="1"/>
     </row>
     <row r="690">
       <c r="A690" s="1"/>
@@ -21304,6 +22013,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
       <c r="AA690" s="1"/>
+      <c r="AB690" s="1"/>
     </row>
     <row r="691">
       <c r="A691" s="1"/>
@@ -21333,6 +22043,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
       <c r="AA691" s="1"/>
+      <c r="AB691" s="1"/>
     </row>
     <row r="692">
       <c r="A692" s="1"/>
@@ -21362,6 +22073,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
       <c r="AA692" s="1"/>
+      <c r="AB692" s="1"/>
     </row>
     <row r="693">
       <c r="A693" s="1"/>
@@ -21391,6 +22103,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
       <c r="AA693" s="1"/>
+      <c r="AB693" s="1"/>
     </row>
     <row r="694">
       <c r="A694" s="1"/>
@@ -21420,6 +22133,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
       <c r="AA694" s="1"/>
+      <c r="AB694" s="1"/>
     </row>
     <row r="695">
       <c r="A695" s="1"/>
@@ -21449,6 +22163,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
       <c r="AA695" s="1"/>
+      <c r="AB695" s="1"/>
     </row>
     <row r="696">
       <c r="A696" s="1"/>
@@ -21478,6 +22193,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
       <c r="AA696" s="1"/>
+      <c r="AB696" s="1"/>
     </row>
     <row r="697">
       <c r="A697" s="1"/>
@@ -21507,6 +22223,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
       <c r="AA697" s="1"/>
+      <c r="AB697" s="1"/>
     </row>
     <row r="698">
       <c r="A698" s="1"/>
@@ -21536,6 +22253,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
       <c r="AA698" s="1"/>
+      <c r="AB698" s="1"/>
     </row>
     <row r="699">
       <c r="A699" s="1"/>
@@ -21565,6 +22283,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
       <c r="AA699" s="1"/>
+      <c r="AB699" s="1"/>
     </row>
     <row r="700">
       <c r="A700" s="1"/>
@@ -21594,6 +22313,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
       <c r="AA700" s="1"/>
+      <c r="AB700" s="1"/>
     </row>
     <row r="701">
       <c r="A701" s="1"/>
@@ -21623,6 +22343,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
       <c r="AA701" s="1"/>
+      <c r="AB701" s="1"/>
     </row>
     <row r="702">
       <c r="A702" s="1"/>
@@ -21652,6 +22373,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
       <c r="AA702" s="1"/>
+      <c r="AB702" s="1"/>
     </row>
     <row r="703">
       <c r="A703" s="1"/>
@@ -21681,6 +22403,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
       <c r="AA703" s="1"/>
+      <c r="AB703" s="1"/>
     </row>
     <row r="704">
       <c r="A704" s="1"/>
@@ -21710,6 +22433,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
       <c r="AA704" s="1"/>
+      <c r="AB704" s="1"/>
     </row>
     <row r="705">
       <c r="A705" s="1"/>
@@ -21739,6 +22463,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
       <c r="AA705" s="1"/>
+      <c r="AB705" s="1"/>
     </row>
     <row r="706">
       <c r="A706" s="1"/>
@@ -21768,6 +22493,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
       <c r="AA706" s="1"/>
+      <c r="AB706" s="1"/>
     </row>
     <row r="707">
       <c r="A707" s="1"/>
@@ -21797,6 +22523,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
       <c r="AA707" s="1"/>
+      <c r="AB707" s="1"/>
     </row>
     <row r="708">
       <c r="A708" s="1"/>
@@ -21826,6 +22553,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
       <c r="AA708" s="1"/>
+      <c r="AB708" s="1"/>
     </row>
     <row r="709">
       <c r="A709" s="1"/>
@@ -21855,6 +22583,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
       <c r="AA709" s="1"/>
+      <c r="AB709" s="1"/>
     </row>
     <row r="710">
       <c r="A710" s="1"/>
@@ -21884,6 +22613,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
       <c r="AA710" s="1"/>
+      <c r="AB710" s="1"/>
     </row>
     <row r="711">
       <c r="A711" s="1"/>
@@ -21913,6 +22643,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
       <c r="AA711" s="1"/>
+      <c r="AB711" s="1"/>
     </row>
     <row r="712">
       <c r="A712" s="1"/>
@@ -21942,6 +22673,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
       <c r="AA712" s="1"/>
+      <c r="AB712" s="1"/>
     </row>
     <row r="713">
       <c r="A713" s="1"/>
@@ -21971,6 +22703,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
       <c r="AA713" s="1"/>
+      <c r="AB713" s="1"/>
     </row>
     <row r="714">
       <c r="A714" s="1"/>
@@ -22000,6 +22733,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
       <c r="AA714" s="1"/>
+      <c r="AB714" s="1"/>
     </row>
     <row r="715">
       <c r="A715" s="1"/>
@@ -22029,6 +22763,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
       <c r="AA715" s="1"/>
+      <c r="AB715" s="1"/>
     </row>
     <row r="716">
       <c r="A716" s="1"/>
@@ -22058,6 +22793,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
       <c r="AA716" s="1"/>
+      <c r="AB716" s="1"/>
     </row>
     <row r="717">
       <c r="A717" s="1"/>
@@ -22087,6 +22823,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
       <c r="AA717" s="1"/>
+      <c r="AB717" s="1"/>
     </row>
     <row r="718">
       <c r="A718" s="1"/>
@@ -22116,6 +22853,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
       <c r="AA718" s="1"/>
+      <c r="AB718" s="1"/>
     </row>
     <row r="719">
       <c r="A719" s="1"/>
@@ -22145,6 +22883,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
       <c r="AA719" s="1"/>
+      <c r="AB719" s="1"/>
     </row>
     <row r="720">
       <c r="A720" s="1"/>
@@ -22174,6 +22913,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
       <c r="AA720" s="1"/>
+      <c r="AB720" s="1"/>
     </row>
     <row r="721">
       <c r="A721" s="1"/>
@@ -22203,6 +22943,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
       <c r="AA721" s="1"/>
+      <c r="AB721" s="1"/>
     </row>
     <row r="722">
       <c r="A722" s="1"/>
@@ -22232,6 +22973,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
       <c r="AA722" s="1"/>
+      <c r="AB722" s="1"/>
     </row>
     <row r="723">
       <c r="A723" s="1"/>
@@ -22261,6 +23003,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
       <c r="AA723" s="1"/>
+      <c r="AB723" s="1"/>
     </row>
     <row r="724">
       <c r="A724" s="1"/>
@@ -22290,6 +23033,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
       <c r="AA724" s="1"/>
+      <c r="AB724" s="1"/>
     </row>
     <row r="725">
       <c r="A725" s="1"/>
@@ -22319,6 +23063,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
       <c r="AA725" s="1"/>
+      <c r="AB725" s="1"/>
     </row>
     <row r="726">
       <c r="A726" s="1"/>
@@ -22348,6 +23093,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
       <c r="AA726" s="1"/>
+      <c r="AB726" s="1"/>
     </row>
     <row r="727">
       <c r="A727" s="1"/>
@@ -22377,6 +23123,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
       <c r="AA727" s="1"/>
+      <c r="AB727" s="1"/>
     </row>
     <row r="728">
       <c r="A728" s="1"/>
@@ -22406,6 +23153,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
       <c r="AA728" s="1"/>
+      <c r="AB728" s="1"/>
     </row>
     <row r="729">
       <c r="A729" s="1"/>
@@ -22435,6 +23183,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
       <c r="AA729" s="1"/>
+      <c r="AB729" s="1"/>
     </row>
     <row r="730">
       <c r="A730" s="1"/>
@@ -22464,6 +23213,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
       <c r="AA730" s="1"/>
+      <c r="AB730" s="1"/>
     </row>
     <row r="731">
       <c r="A731" s="1"/>
@@ -22493,6 +23243,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
       <c r="AA731" s="1"/>
+      <c r="AB731" s="1"/>
     </row>
     <row r="732">
       <c r="A732" s="1"/>
@@ -22522,6 +23273,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
       <c r="AA732" s="1"/>
+      <c r="AB732" s="1"/>
     </row>
     <row r="733">
       <c r="A733" s="1"/>
@@ -22551,6 +23303,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
       <c r="AA733" s="1"/>
+      <c r="AB733" s="1"/>
     </row>
     <row r="734">
       <c r="A734" s="1"/>
@@ -22580,6 +23333,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
       <c r="AA734" s="1"/>
+      <c r="AB734" s="1"/>
     </row>
     <row r="735">
       <c r="A735" s="1"/>
@@ -22609,6 +23363,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
       <c r="AA735" s="1"/>
+      <c r="AB735" s="1"/>
     </row>
     <row r="736">
       <c r="A736" s="1"/>
@@ -22638,6 +23393,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
       <c r="AA736" s="1"/>
+      <c r="AB736" s="1"/>
     </row>
     <row r="737">
       <c r="A737" s="1"/>
@@ -22667,6 +23423,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
       <c r="AA737" s="1"/>
+      <c r="AB737" s="1"/>
     </row>
     <row r="738">
       <c r="A738" s="1"/>
@@ -22696,6 +23453,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
       <c r="AA738" s="1"/>
+      <c r="AB738" s="1"/>
     </row>
     <row r="739">
       <c r="A739" s="1"/>
@@ -22725,6 +23483,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
       <c r="AA739" s="1"/>
+      <c r="AB739" s="1"/>
     </row>
     <row r="740">
       <c r="A740" s="1"/>
@@ -22754,6 +23513,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
       <c r="AA740" s="1"/>
+      <c r="AB740" s="1"/>
     </row>
     <row r="741">
       <c r="A741" s="1"/>
@@ -22783,6 +23543,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
       <c r="AA741" s="1"/>
+      <c r="AB741" s="1"/>
     </row>
     <row r="742">
       <c r="A742" s="1"/>
@@ -22812,6 +23573,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
       <c r="AA742" s="1"/>
+      <c r="AB742" s="1"/>
     </row>
     <row r="743">
       <c r="A743" s="1"/>
@@ -22841,6 +23603,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
       <c r="AA743" s="1"/>
+      <c r="AB743" s="1"/>
     </row>
     <row r="744">
       <c r="A744" s="1"/>
@@ -22870,6 +23633,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
       <c r="AA744" s="1"/>
+      <c r="AB744" s="1"/>
     </row>
     <row r="745">
       <c r="A745" s="1"/>
@@ -22899,6 +23663,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
       <c r="AA745" s="1"/>
+      <c r="AB745" s="1"/>
     </row>
     <row r="746">
       <c r="A746" s="1"/>
@@ -22928,6 +23693,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
       <c r="AA746" s="1"/>
+      <c r="AB746" s="1"/>
     </row>
     <row r="747">
       <c r="A747" s="1"/>
@@ -22957,6 +23723,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
       <c r="AA747" s="1"/>
+      <c r="AB747" s="1"/>
     </row>
     <row r="748">
       <c r="A748" s="1"/>
@@ -22986,6 +23753,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
       <c r="AA748" s="1"/>
+      <c r="AB748" s="1"/>
     </row>
     <row r="749">
       <c r="A749" s="1"/>
@@ -23015,6 +23783,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
       <c r="AA749" s="1"/>
+      <c r="AB749" s="1"/>
     </row>
     <row r="750">
       <c r="A750" s="1"/>
@@ -23044,6 +23813,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
       <c r="AA750" s="1"/>
+      <c r="AB750" s="1"/>
     </row>
     <row r="751">
       <c r="A751" s="1"/>
@@ -23073,6 +23843,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
       <c r="AA751" s="1"/>
+      <c r="AB751" s="1"/>
     </row>
     <row r="752">
       <c r="A752" s="1"/>
@@ -23102,6 +23873,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
       <c r="AA752" s="1"/>
+      <c r="AB752" s="1"/>
     </row>
     <row r="753">
       <c r="A753" s="1"/>
@@ -23131,6 +23903,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
       <c r="AA753" s="1"/>
+      <c r="AB753" s="1"/>
     </row>
     <row r="754">
       <c r="A754" s="1"/>
@@ -23160,6 +23933,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
       <c r="AA754" s="1"/>
+      <c r="AB754" s="1"/>
     </row>
     <row r="755">
       <c r="A755" s="1"/>
@@ -23189,6 +23963,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
       <c r="AA755" s="1"/>
+      <c r="AB755" s="1"/>
     </row>
     <row r="756">
       <c r="A756" s="1"/>
@@ -23218,6 +23993,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
       <c r="AA756" s="1"/>
+      <c r="AB756" s="1"/>
     </row>
     <row r="757">
       <c r="A757" s="1"/>
@@ -23247,6 +24023,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
       <c r="AA757" s="1"/>
+      <c r="AB757" s="1"/>
     </row>
     <row r="758">
       <c r="A758" s="1"/>
@@ -23276,6 +24053,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
       <c r="AA758" s="1"/>
+      <c r="AB758" s="1"/>
     </row>
     <row r="759">
       <c r="A759" s="1"/>
@@ -23305,6 +24083,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
       <c r="AA759" s="1"/>
+      <c r="AB759" s="1"/>
     </row>
     <row r="760">
       <c r="A760" s="1"/>
@@ -23334,6 +24113,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
       <c r="AA760" s="1"/>
+      <c r="AB760" s="1"/>
     </row>
     <row r="761">
       <c r="A761" s="1"/>
@@ -23363,6 +24143,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
       <c r="AA761" s="1"/>
+      <c r="AB761" s="1"/>
     </row>
     <row r="762">
       <c r="A762" s="1"/>
@@ -23392,6 +24173,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
       <c r="AA762" s="1"/>
+      <c r="AB762" s="1"/>
     </row>
     <row r="763">
       <c r="A763" s="1"/>
@@ -23421,6 +24203,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
       <c r="AA763" s="1"/>
+      <c r="AB763" s="1"/>
     </row>
     <row r="764">
       <c r="A764" s="1"/>
@@ -23450,6 +24233,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
       <c r="AA764" s="1"/>
+      <c r="AB764" s="1"/>
     </row>
     <row r="765">
       <c r="A765" s="1"/>
@@ -23479,6 +24263,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
       <c r="AA765" s="1"/>
+      <c r="AB765" s="1"/>
     </row>
     <row r="766">
       <c r="A766" s="1"/>
@@ -23508,6 +24293,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
       <c r="AA766" s="1"/>
+      <c r="AB766" s="1"/>
     </row>
     <row r="767">
       <c r="A767" s="1"/>
@@ -23537,6 +24323,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
       <c r="AA767" s="1"/>
+      <c r="AB767" s="1"/>
     </row>
     <row r="768">
       <c r="A768" s="1"/>
@@ -23566,6 +24353,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
       <c r="AA768" s="1"/>
+      <c r="AB768" s="1"/>
     </row>
     <row r="769">
       <c r="A769" s="1"/>
@@ -23595,6 +24383,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
       <c r="AA769" s="1"/>
+      <c r="AB769" s="1"/>
     </row>
     <row r="770">
       <c r="A770" s="1"/>
@@ -23624,6 +24413,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
       <c r="AA770" s="1"/>
+      <c r="AB770" s="1"/>
     </row>
     <row r="771">
       <c r="A771" s="1"/>
@@ -23653,6 +24443,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
       <c r="AA771" s="1"/>
+      <c r="AB771" s="1"/>
     </row>
     <row r="772">
       <c r="A772" s="1"/>
@@ -23682,6 +24473,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
       <c r="AA772" s="1"/>
+      <c r="AB772" s="1"/>
     </row>
     <row r="773">
       <c r="A773" s="1"/>
@@ -23711,6 +24503,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
       <c r="AA773" s="1"/>
+      <c r="AB773" s="1"/>
     </row>
     <row r="774">
       <c r="A774" s="1"/>
@@ -23740,6 +24533,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
       <c r="AA774" s="1"/>
+      <c r="AB774" s="1"/>
     </row>
     <row r="775">
       <c r="A775" s="1"/>
@@ -23769,6 +24563,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
       <c r="AA775" s="1"/>
+      <c r="AB775" s="1"/>
     </row>
     <row r="776">
       <c r="A776" s="1"/>
@@ -23798,6 +24593,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
       <c r="AA776" s="1"/>
+      <c r="AB776" s="1"/>
     </row>
     <row r="777">
       <c r="A777" s="1"/>
@@ -23827,6 +24623,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
       <c r="AA777" s="1"/>
+      <c r="AB777" s="1"/>
     </row>
     <row r="778">
       <c r="A778" s="1"/>
@@ -23856,6 +24653,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
       <c r="AA778" s="1"/>
+      <c r="AB778" s="1"/>
     </row>
     <row r="779">
       <c r="A779" s="1"/>
@@ -23885,6 +24683,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
       <c r="AA779" s="1"/>
+      <c r="AB779" s="1"/>
     </row>
     <row r="780">
       <c r="A780" s="1"/>
@@ -23914,6 +24713,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
       <c r="AA780" s="1"/>
+      <c r="AB780" s="1"/>
     </row>
     <row r="781">
       <c r="A781" s="1"/>
@@ -23943,6 +24743,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
       <c r="AA781" s="1"/>
+      <c r="AB781" s="1"/>
     </row>
     <row r="782">
       <c r="A782" s="1"/>
@@ -23972,6 +24773,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
       <c r="AA782" s="1"/>
+      <c r="AB782" s="1"/>
     </row>
     <row r="783">
       <c r="A783" s="1"/>
@@ -24001,6 +24803,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
       <c r="AA783" s="1"/>
+      <c r="AB783" s="1"/>
     </row>
     <row r="784">
       <c r="A784" s="1"/>
@@ -24030,6 +24833,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
       <c r="AA784" s="1"/>
+      <c r="AB784" s="1"/>
     </row>
     <row r="785">
       <c r="A785" s="1"/>
@@ -24059,6 +24863,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
       <c r="AA785" s="1"/>
+      <c r="AB785" s="1"/>
     </row>
     <row r="786">
       <c r="A786" s="1"/>
@@ -24088,6 +24893,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
       <c r="AA786" s="1"/>
+      <c r="AB786" s="1"/>
     </row>
     <row r="787">
       <c r="A787" s="1"/>
@@ -24117,6 +24923,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
       <c r="AA787" s="1"/>
+      <c r="AB787" s="1"/>
     </row>
     <row r="788">
       <c r="A788" s="1"/>
@@ -24146,6 +24953,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
       <c r="AA788" s="1"/>
+      <c r="AB788" s="1"/>
     </row>
     <row r="789">
       <c r="A789" s="1"/>
@@ -24175,6 +24983,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
       <c r="AA789" s="1"/>
+      <c r="AB789" s="1"/>
     </row>
     <row r="790">
       <c r="A790" s="1"/>
@@ -24204,6 +25013,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
       <c r="AA790" s="1"/>
+      <c r="AB790" s="1"/>
     </row>
     <row r="791">
       <c r="A791" s="1"/>
@@ -24233,6 +25043,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
       <c r="AA791" s="1"/>
+      <c r="AB791" s="1"/>
     </row>
     <row r="792">
       <c r="A792" s="1"/>
@@ -24262,6 +25073,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
       <c r="AA792" s="1"/>
+      <c r="AB792" s="1"/>
     </row>
     <row r="793">
       <c r="A793" s="1"/>
@@ -24291,6 +25103,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
       <c r="AA793" s="1"/>
+      <c r="AB793" s="1"/>
     </row>
     <row r="794">
       <c r="A794" s="1"/>
@@ -24320,6 +25133,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
       <c r="AA794" s="1"/>
+      <c r="AB794" s="1"/>
     </row>
     <row r="795">
       <c r="A795" s="1"/>
@@ -24349,6 +25163,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
       <c r="AA795" s="1"/>
+      <c r="AB795" s="1"/>
     </row>
     <row r="796">
       <c r="A796" s="1"/>
@@ -24378,6 +25193,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
       <c r="AA796" s="1"/>
+      <c r="AB796" s="1"/>
     </row>
     <row r="797">
       <c r="A797" s="1"/>
@@ -24407,6 +25223,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
       <c r="AA797" s="1"/>
+      <c r="AB797" s="1"/>
     </row>
     <row r="798">
       <c r="A798" s="1"/>
@@ -24436,6 +25253,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
       <c r="AA798" s="1"/>
+      <c r="AB798" s="1"/>
     </row>
     <row r="799">
       <c r="A799" s="1"/>
@@ -24465,6 +25283,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
       <c r="AA799" s="1"/>
+      <c r="AB799" s="1"/>
     </row>
     <row r="800">
       <c r="A800" s="1"/>
@@ -24494,6 +25313,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
       <c r="AA800" s="1"/>
+      <c r="AB800" s="1"/>
     </row>
     <row r="801">
       <c r="A801" s="1"/>
@@ -24523,6 +25343,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
       <c r="AA801" s="1"/>
+      <c r="AB801" s="1"/>
     </row>
     <row r="802">
       <c r="A802" s="1"/>
@@ -24552,6 +25373,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
       <c r="AA802" s="1"/>
+      <c r="AB802" s="1"/>
     </row>
     <row r="803">
       <c r="A803" s="1"/>
@@ -24581,6 +25403,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
       <c r="AA803" s="1"/>
+      <c r="AB803" s="1"/>
     </row>
     <row r="804">
       <c r="A804" s="1"/>
@@ -24610,6 +25433,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
       <c r="AA804" s="1"/>
+      <c r="AB804" s="1"/>
     </row>
     <row r="805">
       <c r="A805" s="1"/>
@@ -24639,6 +25463,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
       <c r="AA805" s="1"/>
+      <c r="AB805" s="1"/>
     </row>
     <row r="806">
       <c r="A806" s="1"/>
@@ -24668,6 +25493,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
       <c r="AA806" s="1"/>
+      <c r="AB806" s="1"/>
     </row>
     <row r="807">
       <c r="A807" s="1"/>
@@ -24697,6 +25523,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
       <c r="AA807" s="1"/>
+      <c r="AB807" s="1"/>
     </row>
     <row r="808">
       <c r="A808" s="1"/>
@@ -24726,6 +25553,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
       <c r="AA808" s="1"/>
+      <c r="AB808" s="1"/>
     </row>
     <row r="809">
       <c r="A809" s="1"/>
@@ -24755,6 +25583,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
       <c r="AA809" s="1"/>
+      <c r="AB809" s="1"/>
     </row>
     <row r="810">
       <c r="A810" s="1"/>
@@ -24784,6 +25613,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
       <c r="AA810" s="1"/>
+      <c r="AB810" s="1"/>
     </row>
     <row r="811">
       <c r="A811" s="1"/>
@@ -24813,6 +25643,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
       <c r="AA811" s="1"/>
+      <c r="AB811" s="1"/>
     </row>
     <row r="812">
       <c r="A812" s="1"/>
@@ -24842,6 +25673,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
       <c r="AA812" s="1"/>
+      <c r="AB812" s="1"/>
     </row>
     <row r="813">
       <c r="A813" s="1"/>
@@ -24871,6 +25703,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
       <c r="AA813" s="1"/>
+      <c r="AB813" s="1"/>
     </row>
     <row r="814">
       <c r="A814" s="1"/>
@@ -24900,6 +25733,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
       <c r="AA814" s="1"/>
+      <c r="AB814" s="1"/>
     </row>
     <row r="815">
       <c r="A815" s="1"/>
@@ -24929,6 +25763,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
       <c r="AA815" s="1"/>
+      <c r="AB815" s="1"/>
     </row>
     <row r="816">
       <c r="A816" s="1"/>
@@ -24958,6 +25793,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
       <c r="AA816" s="1"/>
+      <c r="AB816" s="1"/>
     </row>
     <row r="817">
       <c r="A817" s="1"/>
@@ -24987,6 +25823,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
       <c r="AA817" s="1"/>
+      <c r="AB817" s="1"/>
     </row>
     <row r="818">
       <c r="A818" s="1"/>
@@ -25016,6 +25853,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
       <c r="AA818" s="1"/>
+      <c r="AB818" s="1"/>
     </row>
     <row r="819">
       <c r="A819" s="1"/>
@@ -25045,6 +25883,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
       <c r="AA819" s="1"/>
+      <c r="AB819" s="1"/>
     </row>
     <row r="820">
       <c r="A820" s="1"/>
@@ -25074,6 +25913,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
       <c r="AA820" s="1"/>
+      <c r="AB820" s="1"/>
     </row>
     <row r="821">
       <c r="A821" s="1"/>
@@ -25103,6 +25943,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
       <c r="AA821" s="1"/>
+      <c r="AB821" s="1"/>
     </row>
     <row r="822">
       <c r="A822" s="1"/>
@@ -25132,6 +25973,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
       <c r="AA822" s="1"/>
+      <c r="AB822" s="1"/>
     </row>
     <row r="823">
       <c r="A823" s="1"/>
@@ -25161,6 +26003,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
       <c r="AA823" s="1"/>
+      <c r="AB823" s="1"/>
     </row>
     <row r="824">
       <c r="A824" s="1"/>
@@ -25190,6 +26033,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
       <c r="AA824" s="1"/>
+      <c r="AB824" s="1"/>
     </row>
     <row r="825">
       <c r="A825" s="1"/>
@@ -25219,6 +26063,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
       <c r="AA825" s="1"/>
+      <c r="AB825" s="1"/>
     </row>
     <row r="826">
       <c r="A826" s="1"/>
@@ -25248,6 +26093,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
       <c r="AA826" s="1"/>
+      <c r="AB826" s="1"/>
     </row>
     <row r="827">
       <c r="A827" s="1"/>
@@ -25277,6 +26123,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
       <c r="AA827" s="1"/>
+      <c r="AB827" s="1"/>
     </row>
     <row r="828">
       <c r="A828" s="1"/>
@@ -25306,6 +26153,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
       <c r="AA828" s="1"/>
+      <c r="AB828" s="1"/>
     </row>
     <row r="829">
       <c r="A829" s="1"/>
@@ -25335,6 +26183,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
       <c r="AA829" s="1"/>
+      <c r="AB829" s="1"/>
     </row>
     <row r="830">
       <c r="A830" s="1"/>
@@ -25364,6 +26213,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
       <c r="AA830" s="1"/>
+      <c r="AB830" s="1"/>
     </row>
     <row r="831">
       <c r="A831" s="1"/>
@@ -25393,6 +26243,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
       <c r="AA831" s="1"/>
+      <c r="AB831" s="1"/>
     </row>
     <row r="832">
       <c r="A832" s="1"/>
@@ -25422,6 +26273,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
       <c r="AA832" s="1"/>
+      <c r="AB832" s="1"/>
     </row>
     <row r="833">
       <c r="A833" s="1"/>
@@ -25451,6 +26303,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
       <c r="AA833" s="1"/>
+      <c r="AB833" s="1"/>
     </row>
     <row r="834">
       <c r="A834" s="1"/>
@@ -25480,6 +26333,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
       <c r="AA834" s="1"/>
+      <c r="AB834" s="1"/>
     </row>
     <row r="835">
       <c r="A835" s="1"/>
@@ -25509,6 +26363,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
       <c r="AA835" s="1"/>
+      <c r="AB835" s="1"/>
     </row>
     <row r="836">
       <c r="A836" s="1"/>
@@ -25538,6 +26393,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
       <c r="AA836" s="1"/>
+      <c r="AB836" s="1"/>
     </row>
     <row r="837">
       <c r="A837" s="1"/>
@@ -25567,6 +26423,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
       <c r="AA837" s="1"/>
+      <c r="AB837" s="1"/>
     </row>
     <row r="838">
       <c r="A838" s="1"/>
@@ -25596,6 +26453,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
       <c r="AA838" s="1"/>
+      <c r="AB838" s="1"/>
     </row>
     <row r="839">
       <c r="A839" s="1"/>
@@ -25625,6 +26483,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
       <c r="AA839" s="1"/>
+      <c r="AB839" s="1"/>
     </row>
     <row r="840">
       <c r="A840" s="1"/>
@@ -25654,6 +26513,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
       <c r="AA840" s="1"/>
+      <c r="AB840" s="1"/>
     </row>
     <row r="841">
       <c r="A841" s="1"/>
@@ -25683,6 +26543,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
       <c r="AA841" s="1"/>
+      <c r="AB841" s="1"/>
     </row>
     <row r="842">
       <c r="A842" s="1"/>
@@ -25712,6 +26573,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
       <c r="AA842" s="1"/>
+      <c r="AB842" s="1"/>
     </row>
     <row r="843">
       <c r="A843" s="1"/>
@@ -25741,6 +26603,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
       <c r="AA843" s="1"/>
+      <c r="AB843" s="1"/>
     </row>
     <row r="844">
       <c r="A844" s="1"/>
@@ -25770,6 +26633,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
       <c r="AA844" s="1"/>
+      <c r="AB844" s="1"/>
     </row>
     <row r="845">
       <c r="A845" s="1"/>
@@ -25799,6 +26663,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
       <c r="AA845" s="1"/>
+      <c r="AB845" s="1"/>
     </row>
     <row r="846">
       <c r="A846" s="1"/>
@@ -25828,6 +26693,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
       <c r="AA846" s="1"/>
+      <c r="AB846" s="1"/>
     </row>
     <row r="847">
       <c r="A847" s="1"/>
@@ -25857,6 +26723,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
       <c r="AA847" s="1"/>
+      <c r="AB847" s="1"/>
     </row>
     <row r="848">
       <c r="A848" s="1"/>
@@ -25886,6 +26753,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
       <c r="AA848" s="1"/>
+      <c r="AB848" s="1"/>
     </row>
     <row r="849">
       <c r="A849" s="1"/>
@@ -25915,6 +26783,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
       <c r="AA849" s="1"/>
+      <c r="AB849" s="1"/>
     </row>
     <row r="850">
       <c r="A850" s="1"/>
@@ -25944,6 +26813,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
       <c r="AA850" s="1"/>
+      <c r="AB850" s="1"/>
     </row>
     <row r="851">
       <c r="A851" s="1"/>
@@ -25973,6 +26843,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
       <c r="AA851" s="1"/>
+      <c r="AB851" s="1"/>
     </row>
     <row r="852">
       <c r="A852" s="1"/>
@@ -26002,6 +26873,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
       <c r="AA852" s="1"/>
+      <c r="AB852" s="1"/>
     </row>
     <row r="853">
       <c r="A853" s="1"/>
@@ -26031,6 +26903,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
       <c r="AA853" s="1"/>
+      <c r="AB853" s="1"/>
     </row>
     <row r="854">
       <c r="A854" s="1"/>
@@ -26060,6 +26933,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
       <c r="AA854" s="1"/>
+      <c r="AB854" s="1"/>
     </row>
     <row r="855">
       <c r="A855" s="1"/>
@@ -26089,6 +26963,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
       <c r="AA855" s="1"/>
+      <c r="AB855" s="1"/>
     </row>
     <row r="856">
       <c r="A856" s="1"/>
@@ -26118,6 +26993,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
       <c r="AA856" s="1"/>
+      <c r="AB856" s="1"/>
     </row>
     <row r="857">
       <c r="A857" s="1"/>
@@ -26147,6 +27023,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
       <c r="AA857" s="1"/>
+      <c r="AB857" s="1"/>
     </row>
     <row r="858">
       <c r="A858" s="1"/>
@@ -26176,6 +27053,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
       <c r="AA858" s="1"/>
+      <c r="AB858" s="1"/>
     </row>
     <row r="859">
       <c r="A859" s="1"/>
@@ -26205,6 +27083,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
       <c r="AA859" s="1"/>
+      <c r="AB859" s="1"/>
     </row>
     <row r="860">
       <c r="A860" s="1"/>
@@ -26234,6 +27113,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
       <c r="AA860" s="1"/>
+      <c r="AB860" s="1"/>
     </row>
     <row r="861">
       <c r="A861" s="1"/>
@@ -26263,6 +27143,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
       <c r="AA861" s="1"/>
+      <c r="AB861" s="1"/>
     </row>
     <row r="862">
       <c r="A862" s="1"/>
@@ -26292,6 +27173,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
       <c r="AA862" s="1"/>
+      <c r="AB862" s="1"/>
     </row>
     <row r="863">
       <c r="A863" s="1"/>
@@ -26321,6 +27203,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
       <c r="AA863" s="1"/>
+      <c r="AB863" s="1"/>
     </row>
     <row r="864">
       <c r="A864" s="1"/>
@@ -26350,6 +27233,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
       <c r="AA864" s="1"/>
+      <c r="AB864" s="1"/>
     </row>
     <row r="865">
       <c r="A865" s="1"/>
@@ -26379,6 +27263,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
       <c r="AA865" s="1"/>
+      <c r="AB865" s="1"/>
     </row>
     <row r="866">
       <c r="A866" s="1"/>
@@ -26408,6 +27293,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
       <c r="AA866" s="1"/>
+      <c r="AB866" s="1"/>
     </row>
     <row r="867">
       <c r="A867" s="1"/>
@@ -26437,6 +27323,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
       <c r="AA867" s="1"/>
+      <c r="AB867" s="1"/>
     </row>
     <row r="868">
       <c r="A868" s="1"/>
@@ -26466,6 +27353,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
       <c r="AA868" s="1"/>
+      <c r="AB868" s="1"/>
     </row>
     <row r="869">
       <c r="A869" s="1"/>
@@ -26495,6 +27383,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
       <c r="AA869" s="1"/>
+      <c r="AB869" s="1"/>
     </row>
     <row r="870">
       <c r="A870" s="1"/>
@@ -26524,6 +27413,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
       <c r="AA870" s="1"/>
+      <c r="AB870" s="1"/>
     </row>
     <row r="871">
       <c r="A871" s="1"/>
@@ -26553,6 +27443,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
       <c r="AA871" s="1"/>
+      <c r="AB871" s="1"/>
     </row>
     <row r="872">
       <c r="A872" s="1"/>
@@ -26582,6 +27473,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
       <c r="AA872" s="1"/>
+      <c r="AB872" s="1"/>
     </row>
     <row r="873">
       <c r="A873" s="1"/>
@@ -26611,6 +27503,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
       <c r="AA873" s="1"/>
+      <c r="AB873" s="1"/>
     </row>
     <row r="874">
       <c r="A874" s="1"/>
@@ -26640,6 +27533,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
       <c r="AA874" s="1"/>
+      <c r="AB874" s="1"/>
     </row>
     <row r="875">
       <c r="A875" s="1"/>
@@ -26669,6 +27563,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
       <c r="AA875" s="1"/>
+      <c r="AB875" s="1"/>
     </row>
     <row r="876">
       <c r="A876" s="1"/>
@@ -26698,6 +27593,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
       <c r="AA876" s="1"/>
+      <c r="AB876" s="1"/>
     </row>
     <row r="877">
       <c r="A877" s="1"/>
@@ -26727,6 +27623,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
       <c r="AA877" s="1"/>
+      <c r="AB877" s="1"/>
     </row>
     <row r="878">
       <c r="A878" s="1"/>
@@ -26756,6 +27653,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
       <c r="AA878" s="1"/>
+      <c r="AB878" s="1"/>
     </row>
     <row r="879">
       <c r="A879" s="1"/>
@@ -26785,6 +27683,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
       <c r="AA879" s="1"/>
+      <c r="AB879" s="1"/>
     </row>
     <row r="880">
       <c r="A880" s="1"/>
@@ -26814,6 +27713,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
       <c r="AA880" s="1"/>
+      <c r="AB880" s="1"/>
     </row>
     <row r="881">
       <c r="A881" s="1"/>
@@ -26843,6 +27743,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
       <c r="AA881" s="1"/>
+      <c r="AB881" s="1"/>
     </row>
     <row r="882">
       <c r="A882" s="1"/>
@@ -26872,6 +27773,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
       <c r="AA882" s="1"/>
+      <c r="AB882" s="1"/>
     </row>
     <row r="883">
       <c r="A883" s="1"/>
@@ -26901,6 +27803,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
       <c r="AA883" s="1"/>
+      <c r="AB883" s="1"/>
     </row>
     <row r="884">
       <c r="A884" s="1"/>
@@ -26930,6 +27833,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
       <c r="AA884" s="1"/>
+      <c r="AB884" s="1"/>
     </row>
     <row r="885">
       <c r="A885" s="1"/>
@@ -26959,6 +27863,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
       <c r="AA885" s="1"/>
+      <c r="AB885" s="1"/>
     </row>
     <row r="886">
       <c r="A886" s="1"/>
@@ -26988,6 +27893,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
       <c r="AA886" s="1"/>
+      <c r="AB886" s="1"/>
     </row>
     <row r="887">
       <c r="A887" s="1"/>
@@ -27017,6 +27923,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
       <c r="AA887" s="1"/>
+      <c r="AB887" s="1"/>
     </row>
     <row r="888">
       <c r="A888" s="1"/>
@@ -27046,6 +27953,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
       <c r="AA888" s="1"/>
+      <c r="AB888" s="1"/>
     </row>
     <row r="889">
       <c r="A889" s="1"/>
@@ -27075,6 +27983,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
       <c r="AA889" s="1"/>
+      <c r="AB889" s="1"/>
     </row>
     <row r="890">
       <c r="A890" s="1"/>
@@ -27104,6 +28013,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
       <c r="AA890" s="1"/>
+      <c r="AB890" s="1"/>
     </row>
     <row r="891">
       <c r="A891" s="1"/>
@@ -27133,6 +28043,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
       <c r="AA891" s="1"/>
+      <c r="AB891" s="1"/>
     </row>
     <row r="892">
       <c r="A892" s="1"/>
@@ -27162,6 +28073,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
       <c r="AA892" s="1"/>
+      <c r="AB892" s="1"/>
     </row>
     <row r="893">
       <c r="A893" s="1"/>
@@ -27191,6 +28103,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
       <c r="AA893" s="1"/>
+      <c r="AB893" s="1"/>
     </row>
     <row r="894">
       <c r="A894" s="1"/>
@@ -27220,6 +28133,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
       <c r="AA894" s="1"/>
+      <c r="AB894" s="1"/>
     </row>
     <row r="895">
       <c r="A895" s="1"/>
@@ -27249,6 +28163,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
       <c r="AA895" s="1"/>
+      <c r="AB895" s="1"/>
     </row>
     <row r="896">
       <c r="A896" s="1"/>
@@ -27278,6 +28193,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
       <c r="AA896" s="1"/>
+      <c r="AB896" s="1"/>
     </row>
     <row r="897">
       <c r="A897" s="1"/>
@@ -27307,6 +28223,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
       <c r="AA897" s="1"/>
+      <c r="AB897" s="1"/>
     </row>
     <row r="898">
       <c r="A898" s="1"/>
@@ -27336,6 +28253,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
       <c r="AA898" s="1"/>
+      <c r="AB898" s="1"/>
     </row>
     <row r="899">
       <c r="A899" s="1"/>
@@ -27365,6 +28283,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
       <c r="AA899" s="1"/>
+      <c r="AB899" s="1"/>
     </row>
     <row r="900">
       <c r="A900" s="1"/>
@@ -27394,6 +28313,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
       <c r="AA900" s="1"/>
+      <c r="AB900" s="1"/>
     </row>
     <row r="901">
       <c r="A901" s="1"/>
@@ -27423,6 +28343,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
       <c r="AA901" s="1"/>
+      <c r="AB901" s="1"/>
     </row>
     <row r="902">
       <c r="A902" s="1"/>
@@ -27452,6 +28373,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
       <c r="AA902" s="1"/>
+      <c r="AB902" s="1"/>
     </row>
     <row r="903">
       <c r="A903" s="1"/>
@@ -27481,6 +28403,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
       <c r="AA903" s="1"/>
+      <c r="AB903" s="1"/>
     </row>
     <row r="904">
       <c r="A904" s="1"/>
@@ -27510,6 +28433,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
       <c r="AA904" s="1"/>
+      <c r="AB904" s="1"/>
     </row>
     <row r="905">
       <c r="A905" s="1"/>
@@ -27539,6 +28463,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
       <c r="AA905" s="1"/>
+      <c r="AB905" s="1"/>
     </row>
     <row r="906">
       <c r="A906" s="1"/>
@@ -27568,6 +28493,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
       <c r="AA906" s="1"/>
+      <c r="AB906" s="1"/>
     </row>
     <row r="907">
       <c r="A907" s="1"/>
@@ -27597,6 +28523,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
       <c r="AA907" s="1"/>
+      <c r="AB907" s="1"/>
     </row>
     <row r="908">
       <c r="A908" s="1"/>
@@ -27626,6 +28553,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
       <c r="AA908" s="1"/>
+      <c r="AB908" s="1"/>
     </row>
     <row r="909">
       <c r="A909" s="1"/>
@@ -27655,6 +28583,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
       <c r="AA909" s="1"/>
+      <c r="AB909" s="1"/>
     </row>
     <row r="910">
       <c r="A910" s="1"/>
@@ -27684,6 +28613,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
       <c r="AA910" s="1"/>
+      <c r="AB910" s="1"/>
     </row>
     <row r="911">
       <c r="A911" s="1"/>
@@ -27713,6 +28643,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
       <c r="AA911" s="1"/>
+      <c r="AB911" s="1"/>
     </row>
     <row r="912">
       <c r="A912" s="1"/>
@@ -27742,6 +28673,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
       <c r="AA912" s="1"/>
+      <c r="AB912" s="1"/>
     </row>
     <row r="913">
       <c r="A913" s="1"/>
@@ -27771,6 +28703,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
       <c r="AA913" s="1"/>
+      <c r="AB913" s="1"/>
     </row>
     <row r="914">
       <c r="A914" s="1"/>
@@ -27800,6 +28733,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
       <c r="AA914" s="1"/>
+      <c r="AB914" s="1"/>
     </row>
     <row r="915">
       <c r="A915" s="1"/>
@@ -27829,6 +28763,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
       <c r="AA915" s="1"/>
+      <c r="AB915" s="1"/>
     </row>
     <row r="916">
       <c r="A916" s="1"/>
@@ -27858,6 +28793,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
       <c r="AA916" s="1"/>
+      <c r="AB916" s="1"/>
     </row>
     <row r="917">
       <c r="A917" s="1"/>
@@ -27887,6 +28823,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
       <c r="AA917" s="1"/>
+      <c r="AB917" s="1"/>
     </row>
     <row r="918">
       <c r="A918" s="1"/>
@@ -27916,6 +28853,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
       <c r="AA918" s="1"/>
+      <c r="AB918" s="1"/>
     </row>
     <row r="919">
       <c r="A919" s="1"/>
@@ -27945,6 +28883,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
       <c r="AA919" s="1"/>
+      <c r="AB919" s="1"/>
     </row>
     <row r="920">
       <c r="A920" s="1"/>
@@ -27974,6 +28913,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
       <c r="AA920" s="1"/>
+      <c r="AB920" s="1"/>
     </row>
     <row r="921">
       <c r="A921" s="1"/>
@@ -28003,6 +28943,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
       <c r="AA921" s="1"/>
+      <c r="AB921" s="1"/>
     </row>
     <row r="922">
       <c r="A922" s="1"/>
@@ -28032,6 +28973,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
       <c r="AA922" s="1"/>
+      <c r="AB922" s="1"/>
     </row>
     <row r="923">
       <c r="A923" s="1"/>
@@ -28061,6 +29003,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
       <c r="AA923" s="1"/>
+      <c r="AB923" s="1"/>
     </row>
     <row r="924">
       <c r="A924" s="1"/>
@@ -28090,6 +29033,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
       <c r="AA924" s="1"/>
+      <c r="AB924" s="1"/>
     </row>
     <row r="925">
       <c r="A925" s="1"/>
@@ -28119,6 +29063,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
       <c r="AA925" s="1"/>
+      <c r="AB925" s="1"/>
     </row>
     <row r="926">
       <c r="A926" s="1"/>
@@ -28148,6 +29093,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
       <c r="AA926" s="1"/>
+      <c r="AB926" s="1"/>
     </row>
     <row r="927">
       <c r="A927" s="1"/>
@@ -28177,6 +29123,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
       <c r="AA927" s="1"/>
+      <c r="AB927" s="1"/>
     </row>
     <row r="928">
       <c r="A928" s="1"/>
@@ -28206,6 +29153,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
       <c r="AA928" s="1"/>
+      <c r="AB928" s="1"/>
     </row>
     <row r="929">
       <c r="A929" s="1"/>
@@ -28235,6 +29183,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
       <c r="AA929" s="1"/>
+      <c r="AB929" s="1"/>
     </row>
     <row r="930">
       <c r="A930" s="1"/>
@@ -28264,6 +29213,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
       <c r="AA930" s="1"/>
+      <c r="AB930" s="1"/>
     </row>
     <row r="931">
       <c r="A931" s="1"/>
@@ -28293,6 +29243,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
       <c r="AA931" s="1"/>
+      <c r="AB931" s="1"/>
     </row>
     <row r="932">
       <c r="A932" s="1"/>
@@ -28322,6 +29273,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
       <c r="AA932" s="1"/>
+      <c r="AB932" s="1"/>
     </row>
     <row r="933">
       <c r="A933" s="1"/>
@@ -28351,6 +29303,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
       <c r="AA933" s="1"/>
+      <c r="AB933" s="1"/>
     </row>
     <row r="934">
       <c r="A934" s="1"/>
@@ -28380,6 +29333,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
       <c r="AA934" s="1"/>
+      <c r="AB934" s="1"/>
     </row>
     <row r="935">
       <c r="A935" s="1"/>
@@ -28409,6 +29363,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
       <c r="AA935" s="1"/>
+      <c r="AB935" s="1"/>
     </row>
     <row r="936">
       <c r="A936" s="1"/>
@@ -28438,6 +29393,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
       <c r="AA936" s="1"/>
+      <c r="AB936" s="1"/>
     </row>
     <row r="937">
       <c r="A937" s="1"/>
@@ -28467,6 +29423,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
       <c r="AA937" s="1"/>
+      <c r="AB937" s="1"/>
     </row>
     <row r="938">
       <c r="A938" s="1"/>
@@ -28496,6 +29453,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
       <c r="AA938" s="1"/>
+      <c r="AB938" s="1"/>
     </row>
     <row r="939">
       <c r="A939" s="1"/>
@@ -28525,6 +29483,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
       <c r="AA939" s="1"/>
+      <c r="AB939" s="1"/>
     </row>
     <row r="940">
       <c r="A940" s="1"/>
@@ -28554,6 +29513,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
       <c r="AA940" s="1"/>
+      <c r="AB940" s="1"/>
     </row>
     <row r="941">
       <c r="A941" s="1"/>
@@ -28583,6 +29543,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
       <c r="AA941" s="1"/>
+      <c r="AB941" s="1"/>
     </row>
     <row r="942">
       <c r="A942" s="1"/>
@@ -28612,6 +29573,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
       <c r="AA942" s="1"/>
+      <c r="AB942" s="1"/>
     </row>
     <row r="943">
       <c r="A943" s="1"/>
@@ -28641,6 +29603,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
       <c r="AA943" s="1"/>
+      <c r="AB943" s="1"/>
     </row>
     <row r="944">
       <c r="A944" s="1"/>
@@ -28670,6 +29633,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
       <c r="AA944" s="1"/>
+      <c r="AB944" s="1"/>
     </row>
     <row r="945">
       <c r="A945" s="1"/>
@@ -28699,6 +29663,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
       <c r="AA945" s="1"/>
+      <c r="AB945" s="1"/>
     </row>
     <row r="946">
       <c r="A946" s="1"/>
@@ -28728,6 +29693,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
       <c r="AA946" s="1"/>
+      <c r="AB946" s="1"/>
     </row>
     <row r="947">
       <c r="A947" s="1"/>
@@ -28757,6 +29723,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
       <c r="AA947" s="1"/>
+      <c r="AB947" s="1"/>
     </row>
     <row r="948">
       <c r="A948" s="1"/>
@@ -28786,6 +29753,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
       <c r="AA948" s="1"/>
+      <c r="AB948" s="1"/>
     </row>
     <row r="949">
       <c r="A949" s="1"/>
@@ -28815,6 +29783,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
       <c r="AA949" s="1"/>
+      <c r="AB949" s="1"/>
     </row>
     <row r="950">
       <c r="A950" s="1"/>
@@ -28844,6 +29813,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
       <c r="AA950" s="1"/>
+      <c r="AB950" s="1"/>
     </row>
     <row r="951">
       <c r="A951" s="1"/>
@@ -28873,6 +29843,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
       <c r="AA951" s="1"/>
+      <c r="AB951" s="1"/>
     </row>
     <row r="952">
       <c r="A952" s="1"/>
@@ -28902,6 +29873,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
       <c r="AA952" s="1"/>
+      <c r="AB952" s="1"/>
     </row>
     <row r="953">
       <c r="A953" s="1"/>
@@ -28931,6 +29903,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
       <c r="AA953" s="1"/>
+      <c r="AB953" s="1"/>
     </row>
     <row r="954">
       <c r="A954" s="1"/>
@@ -28960,6 +29933,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
       <c r="AA954" s="1"/>
+      <c r="AB954" s="1"/>
     </row>
     <row r="955">
       <c r="A955" s="1"/>
@@ -28989,6 +29963,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
       <c r="AA955" s="1"/>
+      <c r="AB955" s="1"/>
     </row>
     <row r="956">
       <c r="A956" s="1"/>
@@ -29018,6 +29993,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
       <c r="AA956" s="1"/>
+      <c r="AB956" s="1"/>
     </row>
     <row r="957">
       <c r="A957" s="1"/>
@@ -29047,6 +30023,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
       <c r="AA957" s="1"/>
+      <c r="AB957" s="1"/>
     </row>
     <row r="958">
       <c r="A958" s="1"/>
@@ -29076,6 +30053,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
       <c r="AA958" s="1"/>
+      <c r="AB958" s="1"/>
     </row>
     <row r="959">
       <c r="A959" s="1"/>
@@ -29105,6 +30083,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
       <c r="AA959" s="1"/>
+      <c r="AB959" s="1"/>
     </row>
     <row r="960">
       <c r="A960" s="1"/>
@@ -29134,6 +30113,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
       <c r="AA960" s="1"/>
+      <c r="AB960" s="1"/>
     </row>
     <row r="961">
       <c r="A961" s="1"/>
@@ -29163,6 +30143,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
       <c r="AA961" s="1"/>
+      <c r="AB961" s="1"/>
     </row>
     <row r="962">
       <c r="A962" s="1"/>
@@ -29192,6 +30173,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
       <c r="AA962" s="1"/>
+      <c r="AB962" s="1"/>
     </row>
     <row r="963">
       <c r="A963" s="1"/>
@@ -29221,6 +30203,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
       <c r="AA963" s="1"/>
+      <c r="AB963" s="1"/>
     </row>
     <row r="964">
       <c r="A964" s="1"/>
@@ -29250,6 +30233,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
       <c r="AA964" s="1"/>
+      <c r="AB964" s="1"/>
     </row>
     <row r="965">
       <c r="A965" s="1"/>
@@ -29279,6 +30263,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
       <c r="AA965" s="1"/>
+      <c r="AB965" s="1"/>
     </row>
     <row r="966">
       <c r="A966" s="1"/>
@@ -29308,6 +30293,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
       <c r="AA966" s="1"/>
+      <c r="AB966" s="1"/>
     </row>
     <row r="967">
       <c r="A967" s="1"/>
@@ -29337,6 +30323,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
       <c r="AA967" s="1"/>
+      <c r="AB967" s="1"/>
     </row>
     <row r="968">
       <c r="A968" s="1"/>
@@ -29366,6 +30353,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
       <c r="AA968" s="1"/>
+      <c r="AB968" s="1"/>
     </row>
     <row r="969">
       <c r="A969" s="1"/>
@@ -29395,6 +30383,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
       <c r="AA969" s="1"/>
+      <c r="AB969" s="1"/>
     </row>
     <row r="970">
       <c r="A970" s="1"/>
@@ -29424,6 +30413,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
       <c r="AA970" s="1"/>
+      <c r="AB970" s="1"/>
     </row>
     <row r="971">
       <c r="A971" s="1"/>
@@ -29453,6 +30443,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
       <c r="AA971" s="1"/>
+      <c r="AB971" s="1"/>
     </row>
     <row r="972">
       <c r="A972" s="1"/>
@@ -29482,6 +30473,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
       <c r="AA972" s="1"/>
+      <c r="AB972" s="1"/>
     </row>
     <row r="973">
       <c r="A973" s="1"/>
@@ -29511,6 +30503,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
       <c r="AA973" s="1"/>
+      <c r="AB973" s="1"/>
     </row>
     <row r="974">
       <c r="A974" s="1"/>
@@ -29540,6 +30533,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
       <c r="AA974" s="1"/>
+      <c r="AB974" s="1"/>
     </row>
     <row r="975">
       <c r="A975" s="1"/>
@@ -29569,6 +30563,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
       <c r="AA975" s="1"/>
+      <c r="AB975" s="1"/>
     </row>
     <row r="976">
       <c r="A976" s="1"/>
@@ -29598,6 +30593,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
       <c r="AA976" s="1"/>
+      <c r="AB976" s="1"/>
     </row>
     <row r="977">
       <c r="A977" s="1"/>
@@ -29627,6 +30623,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
       <c r="AA977" s="1"/>
+      <c r="AB977" s="1"/>
     </row>
     <row r="978">
       <c r="A978" s="1"/>
@@ -29656,6 +30653,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
       <c r="AA978" s="1"/>
+      <c r="AB978" s="1"/>
     </row>
     <row r="979">
       <c r="A979" s="1"/>
@@ -29685,6 +30683,7 @@
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
       <c r="AA979" s="1"/>
+      <c r="AB979" s="1"/>
     </row>
     <row r="980">
       <c r="A980" s="1"/>
@@ -29714,6 +30713,7 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
       <c r="AA980" s="1"/>
+      <c r="AB980" s="1"/>
     </row>
     <row r="981">
       <c r="A981" s="1"/>
@@ -29743,6 +30743,7 @@
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
       <c r="AA981" s="1"/>
+      <c r="AB981" s="1"/>
     </row>
     <row r="982">
       <c r="A982" s="1"/>
@@ -29772,6 +30773,7 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
       <c r="AA982" s="1"/>
+      <c r="AB982" s="1"/>
     </row>
     <row r="983">
       <c r="A983" s="1"/>
@@ -29801,6 +30803,7 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
       <c r="AA983" s="1"/>
+      <c r="AB983" s="1"/>
     </row>
     <row r="984">
       <c r="A984" s="1"/>
@@ -29830,6 +30833,7 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
       <c r="AA984" s="1"/>
+      <c r="AB984" s="1"/>
     </row>
     <row r="985">
       <c r="A985" s="1"/>
@@ -29859,6 +30863,7 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
       <c r="AA985" s="1"/>
+      <c r="AB985" s="1"/>
     </row>
     <row r="986">
       <c r="A986" s="1"/>
@@ -29888,6 +30893,7 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
       <c r="AA986" s="1"/>
+      <c r="AB986" s="1"/>
     </row>
     <row r="987">
       <c r="A987" s="1"/>
@@ -29917,6 +30923,7 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
       <c r="AA987" s="1"/>
+      <c r="AB987" s="1"/>
     </row>
     <row r="988">
       <c r="A988" s="1"/>
@@ -29946,6 +30953,7 @@
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
+      <c r="AB988" s="1"/>
     </row>
     <row r="989">
       <c r="A989" s="1"/>
@@ -29975,6 +30983,7 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
       <c r="AA989" s="1"/>
+      <c r="AB989" s="1"/>
     </row>
     <row r="990">
       <c r="A990" s="1"/>
@@ -30004,6 +31013,7 @@
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
       <c r="AA990" s="1"/>
+      <c r="AB990" s="1"/>
     </row>
     <row r="991">
       <c r="A991" s="1"/>
@@ -30033,6 +31043,7 @@
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
       <c r="AA991" s="1"/>
+      <c r="AB991" s="1"/>
     </row>
     <row r="992">
       <c r="A992" s="1"/>
@@ -30062,6 +31073,7 @@
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
       <c r="AA992" s="1"/>
+      <c r="AB992" s="1"/>
     </row>
     <row r="993">
       <c r="A993" s="1"/>
@@ -30091,6 +31103,7 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
       <c r="AA993" s="1"/>
+      <c r="AB993" s="1"/>
     </row>
     <row r="994">
       <c r="A994" s="1"/>
@@ -30120,6 +31133,7 @@
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
       <c r="AA994" s="1"/>
+      <c r="AB994" s="1"/>
     </row>
     <row r="995">
       <c r="A995" s="1"/>
@@ -30149,6 +31163,7 @@
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
       <c r="AA995" s="1"/>
+      <c r="AB995" s="1"/>
     </row>
     <row r="996">
       <c r="A996" s="1"/>
@@ -30178,6 +31193,7 @@
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
       <c r="AA996" s="1"/>
+      <c r="AB996" s="1"/>
     </row>
     <row r="997">
       <c r="A997" s="1"/>
@@ -30207,6 +31223,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
       <c r="AA997" s="1"/>
+      <c r="AB997" s="1"/>
     </row>
     <row r="998">
       <c r="A998" s="1"/>
@@ -30236,6 +31253,7 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
       <c r="AA998" s="1"/>
+      <c r="AB998" s="1"/>
     </row>
     <row r="999">
       <c r="A999" s="1"/>
@@ -30265,6 +31283,7 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
       <c r="AA999" s="1"/>
+      <c r="AB999" s="1"/>
     </row>
     <row r="1000">
       <c r="A1000" s="1"/>
@@ -30294,6 +31313,7 @@
       <c r="Y1000" s="1"/>
       <c r="Z1000" s="1"/>
       <c r="AA1000" s="1"/>
+      <c r="AB1000" s="1"/>
     </row>
     <row r="1001">
       <c r="A1001" s="1"/>
@@ -30323,6 +31343,7 @@
       <c r="Y1001" s="1"/>
       <c r="Z1001" s="1"/>
       <c r="AA1001" s="1"/>
+      <c r="AB1001" s="1"/>
     </row>
     <row r="1002">
       <c r="A1002" s="1"/>
@@ -30352,6 +31373,7 @@
       <c r="Y1002" s="1"/>
       <c r="Z1002" s="1"/>
       <c r="AA1002" s="1"/>
+      <c r="AB1002" s="1"/>
     </row>
     <row r="1003">
       <c r="A1003" s="1"/>
@@ -30381,6 +31403,7 @@
       <c r="Y1003" s="1"/>
       <c r="Z1003" s="1"/>
       <c r="AA1003" s="1"/>
+      <c r="AB1003" s="1"/>
     </row>
     <row r="1004">
       <c r="A1004" s="1"/>
@@ -30410,6 +31433,7 @@
       <c r="Y1004" s="1"/>
       <c r="Z1004" s="1"/>
       <c r="AA1004" s="1"/>
+      <c r="AB1004" s="1"/>
     </row>
     <row r="1005">
       <c r="A1005" s="1"/>
@@ -30439,6 +31463,7 @@
       <c r="Y1005" s="1"/>
       <c r="Z1005" s="1"/>
       <c r="AA1005" s="1"/>
+      <c r="AB1005" s="1"/>
     </row>
     <row r="1006">
       <c r="A1006" s="1"/>
@@ -30468,6 +31493,7 @@
       <c r="Y1006" s="1"/>
       <c r="Z1006" s="1"/>
       <c r="AA1006" s="1"/>
+      <c r="AB1006" s="1"/>
     </row>
     <row r="1007">
       <c r="A1007" s="1"/>
@@ -30497,6 +31523,7 @@
       <c r="Y1007" s="1"/>
       <c r="Z1007" s="1"/>
       <c r="AA1007" s="1"/>
+      <c r="AB1007" s="1"/>
     </row>
     <row r="1008">
       <c r="A1008" s="1"/>
@@ -30526,6 +31553,7 @@
       <c r="Y1008" s="1"/>
       <c r="Z1008" s="1"/>
       <c r="AA1008" s="1"/>
+      <c r="AB1008" s="1"/>
     </row>
     <row r="1009">
       <c r="A1009" s="1"/>
@@ -30555,6 +31583,7 @@
       <c r="Y1009" s="1"/>
       <c r="Z1009" s="1"/>
       <c r="AA1009" s="1"/>
+      <c r="AB1009" s="1"/>
     </row>
     <row r="1010">
       <c r="A1010" s="1"/>
@@ -30584,6 +31613,7 @@
       <c r="Y1010" s="1"/>
       <c r="Z1010" s="1"/>
       <c r="AA1010" s="1"/>
+      <c r="AB1010" s="1"/>
     </row>
     <row r="1011">
       <c r="A1011" s="1"/>
@@ -30613,6 +31643,7 @@
       <c r="Y1011" s="1"/>
       <c r="Z1011" s="1"/>
       <c r="AA1011" s="1"/>
+      <c r="AB1011" s="1"/>
     </row>
     <row r="1012">
       <c r="A1012" s="1"/>
@@ -30642,6 +31673,7 @@
       <c r="Y1012" s="1"/>
       <c r="Z1012" s="1"/>
       <c r="AA1012" s="1"/>
+      <c r="AB1012" s="1"/>
     </row>
     <row r="1013">
       <c r="A1013" s="1"/>
@@ -30671,6 +31703,7 @@
       <c r="Y1013" s="1"/>
       <c r="Z1013" s="1"/>
       <c r="AA1013" s="1"/>
+      <c r="AB1013" s="1"/>
     </row>
     <row r="1014">
       <c r="A1014" s="1"/>
@@ -30700,6 +31733,7 @@
       <c r="Y1014" s="1"/>
       <c r="Z1014" s="1"/>
       <c r="AA1014" s="1"/>
+      <c r="AB1014" s="1"/>
     </row>
     <row r="1015">
       <c r="A1015" s="1"/>
@@ -30729,6 +31763,7 @@
       <c r="Y1015" s="1"/>
       <c r="Z1015" s="1"/>
       <c r="AA1015" s="1"/>
+      <c r="AB1015" s="1"/>
     </row>
     <row r="1016">
       <c r="A1016" s="1"/>
@@ -30758,6 +31793,7 @@
       <c r="Y1016" s="1"/>
       <c r="Z1016" s="1"/>
       <c r="AA1016" s="1"/>
+      <c r="AB1016" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -30816,19 +31852,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>

--- a/others/Web-Page-Design-i18n.xlsx
+++ b/others/Web-Page-Design-i18n.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="237">
   <si>
     <t>index</t>
   </si>
@@ -43,10 +43,13 @@
     <t>dataForm</t>
   </si>
   <si>
+    <t>A02</t>
+  </si>
+  <si>
     <t>primaryKey</t>
   </si>
   <si>
-    <t>A02</t>
+    <t>A03</t>
   </si>
   <si>
     <t>dateOfApplication</t>
@@ -58,7 +61,7 @@
     <t>申請日期</t>
   </si>
   <si>
-    <t>B00</t>
+    <t>B01</t>
   </si>
   <si>
     <t>applyFor</t>
@@ -73,7 +76,7 @@
     <t>申請項目</t>
   </si>
   <si>
-    <t>C00</t>
+    <t>C01</t>
   </si>
   <si>
     <t>applicant</t>
@@ -88,7 +91,7 @@
     <t>申請人</t>
   </si>
   <si>
-    <t>C01</t>
+    <t>C02</t>
   </si>
   <si>
     <t>identityCardNumber</t>
@@ -97,7 +100,7 @@
     <t>身分證字號</t>
   </si>
   <si>
-    <t>C02</t>
+    <t>C03</t>
   </si>
   <si>
     <t>contactNumber</t>
@@ -106,7 +109,7 @@
     <t>連絡電話</t>
   </si>
   <si>
-    <t>C03</t>
+    <t>C04</t>
   </si>
   <si>
     <t>phoneNumber</t>
@@ -115,7 +118,7 @@
     <t>手機號碼</t>
   </si>
   <si>
-    <t>C04</t>
+    <t>C05</t>
   </si>
   <si>
     <t>residence</t>
@@ -124,7 +127,7 @@
     <t>居住縣市</t>
   </si>
   <si>
-    <t>C05</t>
+    <t>C06</t>
   </si>
   <si>
     <t>address</t>
@@ -133,12 +136,66 @@
     <t>通訊地址</t>
   </si>
   <si>
+    <t>N00</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>P00</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>dataMember</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>accountCreationDate</t>
+  </si>
+  <si>
+    <t>帳號創建日期</t>
+  </si>
+  <si>
+    <t>Q01</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>使用者名稱</t>
+  </si>
+  <si>
+    <t>Q02</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>密碼</t>
+  </si>
+  <si>
+    <t>Q03</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>電子郵件</t>
+  </si>
+  <si>
     <t>Z00</t>
   </si>
   <si>
-    <t>END</t>
-  </si>
-  <si>
     <t>Chinese</t>
   </si>
   <si>
@@ -392,6 +449,24 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>dataMemberUsernameMemberText</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>dataMemberPasswordMemberText</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>dataMemberEmailMemberText</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>firstTime</t>
@@ -695,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -718,6 +793,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,10 +1025,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.88"/>
-    <col customWidth="1" min="3" max="3" width="7.88"/>
-    <col customWidth="1" min="4" max="4" width="15.25"/>
-    <col customWidth="1" min="5" max="5" width="6.25"/>
+    <col customWidth="1" min="1" max="1" width="30.0"/>
+    <col customWidth="1" min="3" max="3" width="10.38"/>
+    <col customWidth="1" min="4" max="4" width="16.63"/>
+    <col customWidth="1" min="5" max="5" width="7.13"/>
     <col customWidth="1" min="6" max="6" width="7.75"/>
   </cols>
   <sheetData>
@@ -969,7 +1047,10 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A25" si="1"> if(C3 &lt;&gt; "", C3 &amp; replace(D3,1,1, UPPER(LEFT(D3,1))) &amp; replace(E3,1,1, UPPER(LEFT(E3,1))) &amp; replace(F3,1,1, UPPER(LEFT(F3,1))), C3)</f>
+        <v/>
+      </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1069,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <f t="shared" ref="A4:A19" si="1"> if(C4 = "dataForm", C4 &amp; replace(D4,1,1, UPPER(LEFT(D4,1))) &amp; replace(E4,1,1, UPPER(LEFT(E4,1))) &amp; replace(F4,1,1, UPPER(LEFT(F4,1))), C4)</f>
+        <f t="shared" si="1"/>
         <v>START</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1002,7 +1083,7 @@
     <row r="5">
       <c r="A5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dataFormPrimaryKey</v>
+        <v>dataForm</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -1010,270 +1091,425 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dataFormDateOfApplicationDate</v>
+        <v>dataFormPrimaryKey</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dataFormApplyForPurposeChoice</v>
+        <v>dataFormDateOfApplicationDate</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dataFormApplicantFormText</v>
+        <v>dataFormApplyForPurposeChoice</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dataFormIdentityCardNumberFormText</v>
+        <v>dataFormApplicantFormText</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dataFormContactNumberFormText</v>
+        <v>dataFormIdentityCardNumberFormText</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dataFormPhoneNumberFormText</v>
+        <v>dataFormContactNumberFormText</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dataFormResidenceFormChoice</v>
+        <v>dataFormPhoneNumberFormText</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dataFormAddressFormText</v>
+        <v>dataFormResidenceFormChoice</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>END</v>
+        <v>dataFormAddressFormText</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>END</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>START</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>dataMember</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>dataMemberPrimaryKey</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>dataMemberAccountCreationDateDate</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>dataMemberUsernameMemberText</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>dataMemberPasswordMemberText</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>dataMemberEmailMemberText</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>END</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1"/>
-    </row>
     <row r="26">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="str">
+        <f t="shared" ref="A26:A29" si="2"> if(C26 = "dataForm", C26 &amp; replace(D26,1,1, UPPER(LEFT(D26,1))) &amp; replace(E26,1,1, UPPER(LEFT(E26,1))) &amp; replace(F26,1,1, UPPER(LEFT(F26,1))), C26)</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -1796,6 +2032,36 @@
     </row>
     <row r="203">
       <c r="A203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1812,7 +2078,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="109.75"/>
+    <col customWidth="1" min="1" max="1" width="68.0"/>
     <col customWidth="1" min="2" max="2" width="28.88"/>
   </cols>
   <sheetData>
@@ -1824,15 +2090,14 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A15" si="1"> if(C3 = "index", "&lt;?php $tableQuery = &lt;&lt;&lt;EOD", 
-  if(C3 = "A00", ""&amp;REPT(char(32), 4)&amp;"CREATE TABLE IF NOT EXISTS `dataform` (",
-  if(C3 = "Z00", ""&amp;REPT(char(32), 4)&amp;") ENGINE=InnoDB DEFAULT CHARSET=utf8 COLLATE=utf8_general_ci;",
+        <f t="shared" ref="A3:A26" si="1"> if(C3 = "index", "&lt;?php $tableQuery = &lt;&lt;&lt;EOD", 
+  if(or(C3 = "A01", C3 = "P01"), ""&amp;REPT(char(32), 4)&amp;"CREATE TABLE IF NOT EXISTS `"&amp;LOWER($B3)&amp;"` (",
+  if(or(C3 = "N00", C3 = "Z00"), ""&amp;REPT(char(32), 4)&amp;") ENGINE=InnoDB DEFAULT CHARSET=utf8 COLLATE=utf8_general_ci;",
   if(E3 = "primaryKey", ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` int(64) NOT NULL,",
-  if(E3 = "dateOfApplication",  ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` timestamp NOT NULL DEFAULT current_timestamp() ON UPDATE current_timestamp() COMMENT '"&amp;H3&amp;"',",
-  if(E3 = "applyFor", ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` tinytext NOT NULL COMMENT '"&amp;H3&amp;"',",
-  if(and(F3 = "form", C4 = "Z00"), ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` tinytext NOT NULL COMMENT '"&amp;H3&amp;"'",
-  if(F3 = "form", ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` tinytext NOT NULL COMMENT '"&amp;H3&amp;"',",
-  if(C2 = "Z00", "EOD ?&gt;", "")))))))))</f>
+  if(or(E3 = "dateOfApplication", E3 = "accountCreationDate"),  ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` timestamp NOT NULL DEFAULT current_timestamp() ON UPDATE current_timestamp() COMMENT '"&amp;H3&amp;"',",
+  if(and(or(G3 = "choice", G3 = "text"), or(C4 = "N00", C4 = "Z00")), ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` tinytext NOT NULL COMMENT '"&amp;H3&amp;"'",
+  if(or(G3 = "choice", G3 = "text"), ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` tinytext NOT NULL COMMENT '"&amp;H3&amp;"',",
+  if(and(or(C2 = "N00", C2 = "Z00"), C4 = ""), "EOD ?&gt;", ""))))))))</f>
         <v>&lt;?php $tableQuery = &lt;&lt;&lt;EOD</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -1867,7 +2132,7 @@
     <row r="4">
       <c r="A4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>    CREATE TABLE IF NOT EXISTS `dataform` (</v>
+        <v/>
       </c>
       <c r="B4" s="4" t="str">
         <f>columns!A4</f>
@@ -1901,11 +2166,11 @@
     <row r="5">
       <c r="A5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>        `dataFormPrimaryKey` int(64) NOT NULL,</v>
+        <v>    CREATE TABLE IF NOT EXISTS `dataform` (</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>columns!A5</f>
-        <v>dataFormPrimaryKey</v>
+        <v>dataForm</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>columns!B5</f>
@@ -1917,7 +2182,7 @@
       </c>
       <c r="E5" s="4" t="str">
         <f>columns!D5</f>
-        <v>primaryKey</v>
+        <v/>
       </c>
       <c r="F5" s="4" t="str">
         <f>columns!E5</f>
@@ -1935,11 +2200,11 @@
     <row r="6">
       <c r="A6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>        `dataFormDateOfApplicationDate` timestamp NOT NULL DEFAULT current_timestamp() ON UPDATE current_timestamp() COMMENT '申請日期',</v>
+        <v>        `dataFormPrimaryKey` int(64) NOT NULL,</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>columns!A6</f>
-        <v>dataFormDateOfApplicationDate</v>
+        <v>dataFormPrimaryKey</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>columns!B6</f>
@@ -1951,7 +2216,7 @@
       </c>
       <c r="E6" s="4" t="str">
         <f>columns!D6</f>
-        <v>dateOfApplication</v>
+        <v>primaryKey</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>columns!E6</f>
@@ -1959,25 +2224,25 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>columns!F6</f>
-        <v>date</v>
+        <v/>
       </c>
       <c r="H6" s="4" t="str">
         <f>columns!G6</f>
-        <v>申請日期</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>        `dataFormApplyForPurposeChoice` tinytext NOT NULL COMMENT '申請項目',</v>
+        <v>        `dataFormDateOfApplicationDate` timestamp NOT NULL DEFAULT current_timestamp() ON UPDATE current_timestamp() COMMENT '申請日期',</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>columns!A7</f>
-        <v>dataFormApplyForPurposeChoice</v>
+        <v>dataFormDateOfApplicationDate</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>columns!B7</f>
-        <v>B00</v>
+        <v>A03</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>columns!C7</f>
@@ -1985,33 +2250,33 @@
       </c>
       <c r="E7" s="4" t="str">
         <f>columns!D7</f>
-        <v>applyFor</v>
+        <v>dateOfApplication</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>columns!E7</f>
-        <v>purpose</v>
+        <v/>
       </c>
       <c r="G7" s="4" t="str">
         <f>columns!F7</f>
-        <v>choice</v>
+        <v>date</v>
       </c>
       <c r="H7" s="4" t="str">
         <f>columns!G7</f>
-        <v>申請項目</v>
+        <v>申請日期</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>        `dataFormApplicantFormText` tinytext NOT NULL COMMENT '申請人',</v>
+        <v>        `dataFormApplyForPurposeChoice` tinytext NOT NULL COMMENT '申請項目',</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>columns!A8</f>
-        <v>dataFormApplicantFormText</v>
+        <v>dataFormApplyForPurposeChoice</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>columns!B8</f>
-        <v>C00</v>
+        <v>B01</v>
       </c>
       <c r="D8" s="4" t="str">
         <f>columns!C8</f>
@@ -2019,29 +2284,29 @@
       </c>
       <c r="E8" s="4" t="str">
         <f>columns!D8</f>
-        <v>applicant</v>
+        <v>applyFor</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>columns!E8</f>
-        <v>form</v>
+        <v>purpose</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>columns!F8</f>
-        <v>text</v>
+        <v>choice</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>columns!G8</f>
-        <v>申請人</v>
+        <v>申請項目</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>        `dataFormIdentityCardNumberFormText` tinytext NOT NULL COMMENT '身分證字號',</v>
+        <v>        `dataFormApplicantFormText` tinytext NOT NULL COMMENT '申請人',</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>columns!A9</f>
-        <v>dataFormIdentityCardNumberFormText</v>
+        <v>dataFormApplicantFormText</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>columns!B9</f>
@@ -2053,7 +2318,7 @@
       </c>
       <c r="E9" s="4" t="str">
         <f>columns!D9</f>
-        <v>identityCardNumber</v>
+        <v>applicant</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>columns!E9</f>
@@ -2065,17 +2330,17 @@
       </c>
       <c r="H9" s="4" t="str">
         <f>columns!G9</f>
-        <v>身分證字號</v>
+        <v>申請人</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>        `dataFormContactNumberFormText` tinytext NOT NULL COMMENT '連絡電話',</v>
+        <v>        `dataFormIdentityCardNumberFormText` tinytext NOT NULL COMMENT '身分證字號',</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>columns!A10</f>
-        <v>dataFormContactNumberFormText</v>
+        <v>dataFormIdentityCardNumberFormText</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>columns!B10</f>
@@ -2087,7 +2352,7 @@
       </c>
       <c r="E10" s="4" t="str">
         <f>columns!D10</f>
-        <v>contactNumber</v>
+        <v>identityCardNumber</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>columns!E10</f>
@@ -2099,17 +2364,17 @@
       </c>
       <c r="H10" s="4" t="str">
         <f>columns!G10</f>
-        <v>連絡電話</v>
+        <v>身分證字號</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>        `dataFormPhoneNumberFormText` tinytext NOT NULL COMMENT '手機號碼',</v>
+        <v>        `dataFormContactNumberFormText` tinytext NOT NULL COMMENT '連絡電話',</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>columns!A11</f>
-        <v>dataFormPhoneNumberFormText</v>
+        <v>dataFormContactNumberFormText</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>columns!B11</f>
@@ -2121,7 +2386,7 @@
       </c>
       <c r="E11" s="4" t="str">
         <f>columns!D11</f>
-        <v>phoneNumber</v>
+        <v>contactNumber</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>columns!E11</f>
@@ -2133,17 +2398,17 @@
       </c>
       <c r="H11" s="4" t="str">
         <f>columns!G11</f>
-        <v>手機號碼</v>
+        <v>連絡電話</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>        `dataFormResidenceFormChoice` tinytext NOT NULL COMMENT '居住縣市',</v>
+        <v>        `dataFormPhoneNumberFormText` tinytext NOT NULL COMMENT '手機號碼',</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>columns!A12</f>
-        <v>dataFormResidenceFormChoice</v>
+        <v>dataFormPhoneNumberFormText</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>columns!B12</f>
@@ -2155,7 +2420,7 @@
       </c>
       <c r="E12" s="4" t="str">
         <f>columns!D12</f>
-        <v>residence</v>
+        <v>phoneNumber</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>columns!E12</f>
@@ -2163,21 +2428,21 @@
       </c>
       <c r="G12" s="4" t="str">
         <f>columns!F12</f>
-        <v>choice</v>
+        <v>text</v>
       </c>
       <c r="H12" s="4" t="str">
         <f>columns!G12</f>
-        <v>居住縣市</v>
+        <v>手機號碼</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>        `dataFormAddressFormText` tinytext NOT NULL COMMENT '通訊地址'</v>
+        <v>        `dataFormResidenceFormChoice` tinytext NOT NULL COMMENT '居住縣市',</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>columns!A13</f>
-        <v>dataFormAddressFormText</v>
+        <v>dataFormResidenceFormChoice</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>columns!B13</f>
@@ -2189,7 +2454,7 @@
       </c>
       <c r="E13" s="4" t="str">
         <f>columns!D13</f>
-        <v>address</v>
+        <v>residence</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>columns!E13</f>
@@ -2197,81 +2462,454 @@
       </c>
       <c r="G13" s="4" t="str">
         <f>columns!F13</f>
-        <v>text</v>
+        <v>choice</v>
       </c>
       <c r="H13" s="4" t="str">
         <f>columns!G13</f>
-        <v>通訊地址</v>
+        <v>居住縣市</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>    ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COLLATE=utf8_general_ci;</v>
+        <v>        `dataFormAddressFormText` tinytext NOT NULL COMMENT '通訊地址'</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>columns!A14</f>
-        <v>END</v>
+        <v>dataFormAddressFormText</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>columns!B14</f>
-        <v>Z00</v>
+        <v>C06</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>columns!C14</f>
-        <v>END</v>
+        <v>dataForm</v>
       </c>
       <c r="E14" s="4" t="str">
         <f>columns!D14</f>
-        <v/>
+        <v>address</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>columns!E14</f>
-        <v/>
+        <v>form</v>
       </c>
       <c r="G14" s="4" t="str">
         <f>columns!F14</f>
-        <v/>
+        <v>text</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f>columns!G14</f>
+        <v>通訊地址</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>    ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COLLATE=utf8_general_ci;</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>columns!A15</f>
+        <v>END</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>columns!B15</f>
+        <v>N00</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>columns!C15</f>
+        <v>END</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>columns!D15</f>
+        <v/>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>columns!E15</f>
+        <v/>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>columns!F15</f>
+        <v/>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f>columns!G15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>columns!A16</f>
+        <v/>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>columns!B16</f>
+        <v/>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>columns!C16</f>
+        <v/>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f>columns!D16</f>
+        <v/>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f>columns!E16</f>
+        <v/>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>columns!F16</f>
+        <v/>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f>columns!G16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>columns!A17</f>
+        <v>START</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>columns!B17</f>
+        <v>P00</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>columns!C17</f>
+        <v>START</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>columns!D17</f>
+        <v/>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>columns!E17</f>
+        <v/>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f>columns!F17</f>
+        <v/>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f>columns!G17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>    CREATE TABLE IF NOT EXISTS `datamember` (</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>columns!A18</f>
+        <v>dataMember</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>columns!B18</f>
+        <v>P01</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>columns!C18</f>
+        <v>dataMember</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f>columns!D18</f>
+        <v/>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>columns!E18</f>
+        <v/>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f>columns!F18</f>
+        <v/>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f>columns!G18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>        `dataMemberPrimaryKey` int(64) NOT NULL,</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>columns!A19</f>
+        <v>dataMemberPrimaryKey</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>columns!B19</f>
+        <v>P02</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>columns!C19</f>
+        <v>dataMember</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>columns!D19</f>
+        <v>primaryKey</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f>columns!E19</f>
+        <v/>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>columns!F19</f>
+        <v/>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f>columns!G19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>        `dataMemberAccountCreationDateDate` timestamp NOT NULL DEFAULT current_timestamp() ON UPDATE current_timestamp() COMMENT '帳號創建日期',</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>columns!A20</f>
+        <v>dataMemberAccountCreationDateDate</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>columns!B20</f>
+        <v>P03</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>columns!C20</f>
+        <v>dataMember</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>columns!D20</f>
+        <v>accountCreationDate</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f>columns!E20</f>
+        <v/>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>columns!F20</f>
+        <v>date</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f>columns!G20</f>
+        <v>帳號創建日期</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>        `dataMemberUsernameMemberText` tinytext NOT NULL COMMENT '使用者名稱',</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>columns!A21</f>
+        <v>dataMemberUsernameMemberText</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>columns!B21</f>
+        <v>Q01</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>columns!C21</f>
+        <v>dataMember</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f>columns!D21</f>
+        <v>username</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f>columns!E21</f>
+        <v>member</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f>columns!F21</f>
+        <v>text</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f>columns!G21</f>
+        <v>使用者名稱</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>        `dataMemberPasswordMemberText` tinytext NOT NULL COMMENT '密碼',</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>columns!A22</f>
+        <v>dataMemberPasswordMemberText</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>columns!B22</f>
+        <v>Q02</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>columns!C22</f>
+        <v>dataMember</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>columns!D22</f>
+        <v>password</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f>columns!E22</f>
+        <v>member</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>columns!F22</f>
+        <v>text</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f>columns!G22</f>
+        <v>密碼</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>        `dataMemberEmailMemberText` tinytext NOT NULL COMMENT '電子郵件'</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>columns!A23</f>
+        <v>dataMemberEmailMemberText</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>columns!B23</f>
+        <v>Q03</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>columns!C23</f>
+        <v>dataMember</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f>columns!D23</f>
+        <v>email</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f>columns!E23</f>
+        <v>member</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f>columns!F23</f>
+        <v>text</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f>columns!G23</f>
+        <v>電子郵件</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>    ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COLLATE=utf8_general_ci;</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>columns!A24</f>
+        <v>END</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>columns!B24</f>
+        <v>Z00</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>columns!C24</f>
+        <v>END</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f>columns!D24</f>
+        <v/>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f>columns!E24</f>
+        <v/>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f>columns!F24</f>
+        <v/>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f>columns!G24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>EOD ?&gt;</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1"/>
+      <c r="B25" s="4" t="str">
+        <f>columns!A25</f>
+        <v/>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>columns!B25</f>
+        <v/>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>columns!C25</f>
+        <v/>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>columns!D25</f>
+        <v/>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f>columns!E25</f>
+        <v/>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f>columns!F25</f>
+        <v/>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f>columns!G25</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>columns!A26</f>
+        <v/>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>columns!B26</f>
+        <v/>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>columns!C26</f>
+        <v/>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f>columns!D26</f>
+        <v/>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f>columns!E26</f>
+        <v/>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f>columns!F26</f>
+        <v/>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f>columns!G26</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
@@ -2825,11 +3463,11 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="5"/>
@@ -2857,28 +3495,28 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -2911,15 +3549,15 @@
         <v>[language=Chinese] [i18n=header]:before{content:"請領（補發、換發）記帳士證書申請書"}[language=Chinese] [i18n=header]:after{content:""}[language=English] [i18n=header]:before{content:"Application Form for The Issuance (Reissuance, Replacement) of Certificate of Public Bookkeeper"}[language=English] [i18n=header]:after{content:""}</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G36" si="2">if(H3="", ""
+        <f t="shared" ref="G3:G34" si="2">if(H3="", ""
 ,if(I3&lt;&gt;"", I3, H3))</f>
         <v>Application Form for The Issuance (Reissuance, Replacement) of Certificate of Public Bookkeeper</v>
       </c>
@@ -2928,7 +3566,7 @@
         <v>Please lead (replenishment, renewal) bookkeeper certificate application</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -2957,11 +3595,11 @@
         <v>[language=Chinese] [i18n=dateOfApplication]:before{content:"申請日期："}[language=Chinese] [i18n=dateOfApplication]:after{content:""}[language=English] [i18n=dateOfApplication]:before{content:"Date of Application: "}[language=English] [i18n=dateOfApplication]:after{content:""}</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="str">
@@ -2973,7 +3611,7 @@
         <v>Date of Application:</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3002,11 +3640,11 @@
         <v>[language=Chinese] [i18n=recipient]:before{content:"受文者："}[language=Chinese] [i18n=recipient]:after{content:""}[language=English] [i18n=recipient]:before{content:"Recipient:"}[language=English] [i18n=recipient]:after{content:""}</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="7" t="str">
@@ -3018,7 +3656,7 @@
         <v>Writer:</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -3047,11 +3685,11 @@
         <v>[language=Chinese] [i18n=ministryOfFinance]:before{content:"財政部"}[language=Chinese] [i18n=ministryOfFinance]:after{content:""}[language=English] [i18n=ministryOfFinance]:before{content:"Ministry of Finance"}[language=English] [i18n=ministryOfFinance]:after{content:""}</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="7" t="str">
@@ -3063,7 +3701,7 @@
         <v>Ministry of Finance</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -3092,11 +3730,11 @@
         <v>[language=Chinese] [i18n=purpose]:before{content:"主旨："}[language=Chinese] [i18n=purpose]:after{content:""}[language=English] [i18n=purpose]:before{content:"Purpose:"}[language=English] [i18n=purpose]:after{content:""}</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7" t="str">
@@ -3108,7 +3746,7 @@
         <v>Theme:</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -3137,11 +3775,11 @@
         <v>[language=Chinese] [i18n=toApplyFor]:before{content:"申請"}[language=Chinese] [i18n=toApplyFor]:after{content:""}[language=English] [i18n=toApplyFor]:before{content:"To apply for"}[language=English] [i18n=toApplyFor]:after{content:""}</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="7" t="str">
@@ -3153,7 +3791,7 @@
         <v>Apply</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3182,11 +3820,11 @@
         <v>[language=Chinese] [i18n=description]:before{content:"說明："}[language=Chinese] [i18n=description]:after{content:""}[language=English] [i18n=description]:before{content:"Description:"}[language=English] [i18n=description]:after{content:""}</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="7" t="str">
@@ -3198,7 +3836,7 @@
         <v>illustrate:</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3227,11 +3865,11 @@
         <v>[language=Chinese] [i18n=descriptionA]:before{content:"一、依記帳士法第 5 條暨記帳士證書核發辦法規定辦理。"}[language=Chinese] [i18n=descriptionA]:after{content:""}[language=English] [i18n=descriptionA]:before{content:"1. Handled in accordance with Article 5 of the Certified Public Bookkeepers Act and Rules Governing Issuance of Certificate of Public Bookkeeper."}[language=English] [i18n=descriptionA]:after{content:""}</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7" t="str">
@@ -3243,7 +3881,7 @@
         <v>1. According to Article 5 of the Account Law and the Account Certificate, the method of issuance of the accounting certificate shall be handled.</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3272,11 +3910,11 @@
         <v>[language=Chinese] [i18n=descriptionB]:before{content:"二、茲檢具下列文件：（請勾選檢附項目，詳註二）。"}[language=Chinese] [i18n=descriptionB]:after{content:""}[language=English] [i18n=descriptionB]:before{content:"2. The following documents are hereby inspected: (Please tick the attached items, see Note 2)."}[language=English] [i18n=descriptionB]:after{content:""}</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="7" t="str">
@@ -3288,7 +3926,7 @@
         <v>Second, the following documents: (Please check the attachment project, detailed note 2).</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -3317,11 +3955,11 @@
         <v>[language=Chinese] [i18n=descriptionBA]:before{content:"（一）記帳士考試及格證書正本及影本各 1 份；記帳士考試及格證書為電子證書型式者，為其列印本 1 份。"}[language=Chinese] [i18n=descriptionBA]:after{content:""}[language=English] [i18n=descriptionBA]:before{content:"a. The original and a photocopy of the certificate for passing the certified public bookkeepers examination; if the certificate for passing the certified public bookkeepers examination is of the electronic certificate type, the applicant shall attach a printout of the certificate."}[language=English] [i18n=descriptionBA]:after{content:""}</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7" t="str">
@@ -3333,7 +3971,7 @@
         <v>(1) The original and one copy of the book test and a certificate; the bookkeeper test and the certificate of the certificate are the electronic certificate type, and one copy of them.</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -3362,11 +4000,11 @@
         <v>[language=Chinese] [i18n=descriptionBB]:before{content:"（二）履歷表一份。"}[language=Chinese] [i18n=descriptionBB]:after{content:""}[language=English] [i18n=descriptionBB]:before{content:"b. A curriculum vitae of the applicant."}[language=English] [i18n=descriptionBB]:after{content:""}</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="7" t="str">
@@ -3378,7 +4016,7 @@
         <v>(2) A resume.</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -3407,11 +4045,11 @@
         <v>[language=Chinese] [i18n=descriptionBC]:before{content:"（三）國民身分證正反面影本 1 份（如範例），外國人為護照、外僑居留證或永久居留證影本。"}[language=Chinese] [i18n=descriptionBC]:after{content:""}[language=English] [i18n=descriptionBC]:before{content:"c. A photocopy of the front and back of the identification card of the applicant (See example), a photocopy of the passport, Alien Resident Certificate, or Alien Permanent Resident Certificate of the foreign applicant."}[language=English] [i18n=descriptionBC]:after{content:""}</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="7" t="str">
@@ -3423,7 +4061,7 @@
         <v>(3) One copy of the national identity card (such as examples), foreigners are passports, foreigners' residence permits or permanent residence permits.</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3452,11 +4090,11 @@
         <v>[language=Chinese] [i18n=descriptionBD]:before{content:"（四）最近 1 年內 2 吋半身相片 2 張（詳註三）。"}[language=Chinese] [i18n=descriptionBD]:after{content:""}[language=English] [i18n=descriptionBD]:before{content:"d. Two 2-inch photographs of the applicant taken within the year (Note 3)."}[language=English] [i18n=descriptionBD]:after{content:""}</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="7" t="str">
@@ -3468,7 +4106,7 @@
         <v>(4) Two 2 -inch half -body photos in the past year (details 3).</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -3497,11 +4135,11 @@
         <v>[language=Chinese] [i18n=descriptionBE]:before{content:"（五）證書費新臺幣壹仟伍佰元整（詳註四）。"}[language=Chinese] [i18n=descriptionBE]:after{content:""}[language=English] [i18n=descriptionBE]:before{content:"e. The amount of the certification fee payable is NT$1,500 (Note 4)."}[language=English] [i18n=descriptionBE]:after{content:""}</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="7" t="str">
@@ -3513,7 +4151,7 @@
         <v>(5) NT $ 1 of Certificate Fee Tong (Detailed Note 4).</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -3542,11 +4180,11 @@
         <v>[language=Chinese] [i18n=descriptionBF]:before{content:"（六）原撤銷或廢止原因消滅之證明文件。"}[language=Chinese] [i18n=descriptionBF]:after{content:""}[language=English] [i18n=descriptionBF]:before{content:"f. Documentary evidence that the reason for the revocation or cancellation of the original certificate has ceased to exist."}[language=English] [i18n=descriptionBF]:after{content:""}</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="7" t="str">
@@ -3558,7 +4196,7 @@
         <v>(6) The document of the destruction of the cause of the reasons for dismissal.</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -3587,11 +4225,11 @@
         <v>[language=Chinese] [i18n=descriptionBG]:before{content:"（七）記帳士證書遺失或滅失登報 3 天聲明作廢之整張報紙。"}[language=Chinese] [i18n=descriptionBG]:after{content:""}[language=English] [i18n=descriptionBG]:before{content:"g. The whole page of the newspaper in which the notice of nullification of certificate of public bookkeeper due to loss or destruction thereof is published for three (3) days."}[language=English] [i18n=descriptionBG]:after{content:""}</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="7" t="str">
@@ -3603,7 +4241,7 @@
         <v>(7) The entire newspaper of the losses or loss of the bookkeeper's certificate is lost for 3 days.</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -3632,11 +4270,11 @@
         <v>[language=Chinese] [i18n=descriptionBH]:before{content:"（八）污損、破損或更名前之記帳士證書。"}[language=Chinese] [i18n=descriptionBH]:after{content:""}[language=English] [i18n=descriptionBH]:before{content:"h. The stained, damaged or pre-name Certified Public bookkeeper’s certificate."}[language=English] [i18n=descriptionBH]:after{content:""}</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="7" t="str">
@@ -3648,7 +4286,7 @@
         <v>(8) Discovery, damage, or renamed account certificate certificate.</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -3677,11 +4315,11 @@
         <v>[language=Chinese] [i18n=descriptionBI]:before{content:"（九）中文版記帳士證書及有效護照影本各 1  份。"}[language=Chinese] [i18n=descriptionBI]:after{content:""}[language=English] [i18n=descriptionBI]:before{content:"i. The Chinese Version of the Certificate of Public Bookkeeper and the valid passport of the applicant, with a photocopy of each."}[language=English] [i18n=descriptionBI]:after{content:""}</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="7" t="str">
@@ -3693,7 +4331,7 @@
         <v>(9) The Chinese version of the bookkeeping certificate and the valid passport shadow.</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -3722,11 +4360,11 @@
         <v>[language=Chinese] [i18n=descriptionC]:before{content:"三、聲明事項："}[language=Chinese] [i18n=descriptionC]:after{content:""}[language=English] [i18n=descriptionC]:before{content:"3. Disclaimer:"}[language=English] [i18n=descriptionC]:after{content:""}</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="7" t="str">
@@ -3738,7 +4376,7 @@
         <v>3. Declaration matters:</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -3767,11 +4405,11 @@
         <v>[language=Chinese] [i18n=descriptionCA]:before{content:"（一）申請人確無記帳士法第 4 條第 1 項各款不得充任記帳士情事。"}[language=Chinese] [i18n=descriptionCA]:after{content:""}[language=English] [i18n=descriptionCA]:before{content:"a. The applicant does not have the conditions under Subparagraph 1, Article 4 of the Certified Public Bookkeepers Act that he/she shall not act as a certified public bookkeeper."}[language=English] [i18n=descriptionCA]:after{content:""}</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="7" t="str">
@@ -3783,7 +4421,7 @@
         <v>(1) The applicant does not have the book 4 (1), paragraph 1, paragraph 1 of each account.</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -3812,11 +4450,11 @@
         <v>[language=Chinese] [i18n=descriptionCB]:before{content:"（二）申請人所填資料及附繳文件均為真實，如有不實願負法律責任。"}[language=Chinese] [i18n=descriptionCB]:after{content:""}[language=English] [i18n=descriptionCB]:before{content:"b. The information filled in by the applicant and the attached documents are all true; if there is any untrue statement, the applicant accepts the legal responsibility."}[language=English] [i18n=descriptionCB]:after{content:""}</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="7" t="str">
@@ -3828,7 +4466,7 @@
         <v>(2) The information filled by the applicant and the attachment documents are true, and if they are unreasonable, they are unwilling to bear legal responsibility.</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -3857,11 +4495,11 @@
         <v>[language=Chinese] [i18n=applicantInformation]:before{content:"申請人資料："}[language=Chinese] [i18n=applicantInformation]:after{content:""}[language=English] [i18n=applicantInformation]:before{content:"Applicant information:"}[language=English] [i18n=applicantInformation]:after{content:""}</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="7" t="str">
@@ -3873,7 +4511,7 @@
         <v>Applicant information:</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -3902,13 +4540,13 @@
         <v>[language=Chinese] [i18n=applyFor]:before{content:"申請項目"}[language=Chinese] [i18n=applyFor]:after{content:""}[language=English] [i18n=applyFor]:before{content:"Apply for"}[language=English] [i18n=applyFor]:after{content:""}</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="7" t="str">
@@ -3920,7 +4558,7 @@
         <v>Application Project</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -3949,13 +4587,13 @@
         <v>[language=Chinese] [i18n=applicant]:before{content:"申請人"}[language=Chinese] [i18n=applicant]:after{content:""}[language=English] [i18n=applicant]:before{content:"Applicant"}[language=English] [i18n=applicant]:after{content:""}</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="7" t="str">
@@ -3967,7 +4605,7 @@
         <v>applicant</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -3996,13 +4634,13 @@
         <v>[language=Chinese] [i18n=identityCardNumber]:before{content:"身分證字號"}[language=Chinese] [i18n=identityCardNumber]:after{content:""}[language=English] [i18n=identityCardNumber]:before{content:"ID number"}[language=English] [i18n=identityCardNumber]:after{content:""}</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="7" t="str">
@@ -4014,7 +4652,7 @@
         <v>ID number</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4043,13 +4681,13 @@
         <v>[language=Chinese] [i18n=contactNumber]:before{content:"連絡電話"}[language=Chinese] [i18n=contactNumber]:after{content:""}[language=English] [i18n=contactNumber]:before{content:"Contact number"}[language=English] [i18n=contactNumber]:after{content:""}</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="7" t="str">
@@ -4061,7 +4699,7 @@
         <v>Connection</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4090,13 +4728,13 @@
         <v>[language=Chinese] [i18n=phoneNumber]:before{content:"手機號碼"}[language=Chinese] [i18n=phoneNumber]:after{content:""}[language=English] [i18n=phoneNumber]:before{content:"Phone number"}[language=English] [i18n=phoneNumber]:after{content:""}</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="7" t="str">
@@ -4108,7 +4746,7 @@
         <v>phone number</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -4137,13 +4775,13 @@
         <v>[language=Chinese] [i18n=residence]:before{content:"居住縣市"}[language=Chinese] [i18n=residence]:after{content:""}[language=English] [i18n=residence]:before{content:"City/County of residence"}[language=English] [i18n=residence]:after{content:""}</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="7" t="str">
@@ -4155,7 +4793,7 @@
         <v>Residential county</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -4184,13 +4822,13 @@
         <v>[language=Chinese] [i18n=address]:before{content:"通訊地址"}[language=Chinese] [i18n=address]:after{content:""}[language=English] [i18n=address]:before{content:"Address"}[language=English] [i18n=address]:after{content:""}</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="7" t="str">
@@ -4202,7 +4840,7 @@
         <v>mailing address</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -4227,24 +4865,35 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="7" t="str">
-        <f t="shared" ref="B32:B36" si="3">if(C32="", "",
+        <f t="shared" ref="B32:B34" si="3">if(C32="", "",
 "[lang=Chinese] [i18n="&amp;C32&amp;"]:before{content:"""&amp;E32&amp;"""}"
 &amp;"[lang=Chinese] [i18n="&amp;C32&amp;"]:after{content:"""&amp;F32&amp;"""}"
 &amp;"[lang=English] [i18n="&amp;C32&amp;"]:before{content:"""&amp;G32&amp;"""}"
 &amp;"[lang=English] [i18n="&amp;C32&amp;"]:after{content:"""&amp;J32&amp;"""}"
 )</f>
-        <v/>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+        <v>[lang=Chinese] [i18n=username]:before{content:"使用者名稱"}[lang=Chinese] [i18n=username]:after{content:""}[lang=English] [i18n=username]:before{content:"Username"}[lang=English] [i18n=username]:after{content:""}</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="5"/>
+        <v>Username</v>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E32,""zh-tw"",""en""),"""")"),"username")</f>
+        <v>username</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -4269,18 +4918,29 @@
       <c r="A33" s="5"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+        <v>[lang=Chinese] [i18n=password]:before{content:"密碼"}[lang=Chinese] [i18n=password]:after{content:""}[lang=English] [i18n=password]:before{content:"Password"}[lang=English] [i18n=password]:after{content:""}</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="5"/>
+        <v>Password</v>
+      </c>
+      <c r="H33" s="7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E33,""zh-tw"",""en""),"""")"),"password")</f>
+        <v>password</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -4305,18 +4965,29 @@
       <c r="A34" s="5"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+        <v>[lang=Chinese] [i18n=email]:before{content:"電子郵件"}[lang=Chinese] [i18n=email]:after{content:""}[lang=English] [i18n=email]:before{content:"Email"}[lang=English] [i18n=email]:after{content:""}</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="5"/>
+        <v>Email</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("iferror(GOOGLETRANSLATE(E34,""zh-tw"",""en""),"""")"),"e-mail")</f>
+        <v>e-mail</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -4339,18 +5010,12 @@
     </row>
     <row r="35">
       <c r="A35" s="5"/>
-      <c r="B35" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -4375,18 +5040,12 @@
     </row>
     <row r="36">
       <c r="A36" s="5"/>
-      <c r="B36" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -9239,96 +9898,6 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198">
-      <c r="A198" s="5"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="5"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
-      <c r="O198" s="5"/>
-      <c r="P198" s="5"/>
-      <c r="Q198" s="5"/>
-      <c r="R198" s="5"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
-      <c r="U198" s="5"/>
-      <c r="V198" s="5"/>
-      <c r="W198" s="5"/>
-      <c r="X198" s="5"/>
-      <c r="Y198" s="5"/>
-      <c r="Z198" s="5"/>
-      <c r="AA198" s="5"/>
-      <c r="AB198" s="5"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="5"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5"/>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="5"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
-      <c r="U199" s="5"/>
-      <c r="V199" s="5"/>
-      <c r="W199" s="5"/>
-      <c r="X199" s="5"/>
-      <c r="Y199" s="5"/>
-      <c r="Z199" s="5"/>
-      <c r="AA199" s="5"/>
-      <c r="AB199" s="5"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="5"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5"/>
-      <c r="V200" s="5"/>
-      <c r="W200" s="5"/>
-      <c r="X200" s="5"/>
-      <c r="Y200" s="5"/>
-      <c r="Z200" s="5"/>
-      <c r="AA200" s="5"/>
-      <c r="AB200" s="5"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9353,10 +9922,10 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="5"/>
@@ -9383,22 +9952,22 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -9430,13 +9999,13 @@
         <v>[language=Chinese] [select=true][i18n=firstTime]:before{content:"☑第1次請領"}[language=Chinese] [select=false][i18n=firstTime]:before{content:"☐第1次請領"}[language=English] [select=true][i18n=firstTime]:before{content:"☑Issuance for the first time"}[language=English] [select=false][i18n=firstTime]:before{content:"☐Issuance for the first time"}</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F3" s="7" t="str">
         <f t="shared" ref="F3:F29" si="2">if(H3&lt;&gt;"",H3,G3)</f>
@@ -9447,7 +10016,7 @@
         <v>The first time, please lead</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -9475,13 +10044,13 @@
         <v>[language=Chinese] [select=true][i18n=certificateHasCeased]:before{content:"☑撤銷原因消滅補發"}[language=Chinese] [select=false][i18n=certificateHasCeased]:before{content:"☐撤銷原因消滅補發"}[language=English] [select=true][i18n=certificateHasCeased]:before{content:"☑Reissuance due to the reason for the revocation or cancellation of the original certificate has ceased to exist"}[language=English] [select=false][i18n=certificateHasCeased]:before{content:"☐Reissuance due to the reason for the revocation or cancellation of the original certificate has ceased to exist"}</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9492,7 +10061,7 @@
         <v>Rejuvenation reasons to eliminate replenishment</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -9520,13 +10089,13 @@
         <v>[language=Chinese] [select=true][i18n=lost]:before{content:"☑遺失補發"}[language=Chinese] [select=false][i18n=lost]:before{content:"☐遺失補發"}[language=English] [select=true][i18n=lost]:before{content:"☑Reissuance for lost certificate"}[language=English] [select=false][i18n=lost]:before{content:"☐Reissuance for lost certificate"}</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9537,7 +10106,7 @@
         <v>Loss of replenishment</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -9565,13 +10134,13 @@
         <v>[language=Chinese] [select=true][i18n=replacement]:before{content:"☑換發記帳士證書"}[language=Chinese] [select=false][i18n=replacement]:before{content:"☐換發記帳士證書"}[language=English] [select=true][i18n=replacement]:before{content:"☑Replacement of the Certificate of Public Bookkeeper"}[language=English] [select=false][i18n=replacement]:before{content:"☐Replacement of the Certificate of Public Bookkeeper"}</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9582,7 +10151,7 @@
         <v>Removal account certificate certificate</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -9610,13 +10179,13 @@
         <v>[language=Chinese] [select=true][i18n=englishVersion]:before{content:"☑英文版記帳士證書"}[language=Chinese] [select=false][i18n=englishVersion]:before{content:"☐英文版記帳士證書"}[language=English] [select=true][i18n=englishVersion]:before{content:"☑The English Version of the Certificate of Public Bookkeeper"}[language=English] [select=false][i18n=englishVersion]:before{content:"☐The English Version of the Certificate of Public Bookkeeper"}</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9627,7 +10196,7 @@
         <v>English version of the bookkeeper certificate</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -9655,14 +10224,14 @@
         <v>[language=Chinese] [select=true][i18n=taipeiCity]:before{content:"☑台北市"}[language=Chinese] [select=false][i18n=taipeiCity]:before{content:"☐台北市"}[language=English] [select=true][i18n=taipeiCity]:before{content:"☑Taipei City"}[language=English] [select=false][i18n=taipeiCity]:before{content:"☐Taipei City"}</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ref="D8:D29" si="3">"dataForm" &amp; replace(C8,1,1, UPPER(LEFT(C8,1)))</f>
         <v>dataFormTaipeiCity</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9673,7 +10242,7 @@
         <v>Taipei City</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -9701,14 +10270,14 @@
         <v>[language=Chinese] [select=true][i18n=keelungCity]:before{content:"☑基隆市"}[language=Chinese] [select=false][i18n=keelungCity]:before{content:"☐基隆市"}[language=English] [select=true][i18n=keelungCity]:before{content:"☑Keelung City"}[language=English] [select=false][i18n=keelungCity]:before{content:"☐Keelung City"}</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormKeelungCity</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9719,7 +10288,7 @@
         <v>Keelung City</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -9747,14 +10316,14 @@
         <v>[language=Chinese] [select=true][i18n=newTaipeiCity]:before{content:"☑新北市"}[language=Chinese] [select=false][i18n=newTaipeiCity]:before{content:"☐新北市"}[language=English] [select=true][i18n=newTaipeiCity]:before{content:"☑New Taipei City"}[language=English] [select=false][i18n=newTaipeiCity]:before{content:"☐New Taipei City"}</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormNewTaipeiCity</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9765,7 +10334,7 @@
         <v>New Taipei City</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -9793,14 +10362,14 @@
         <v>[language=Chinese] [select=true][i18n=lienchiangCounty]:before{content:"☑連江縣"}[language=Chinese] [select=false][i18n=lienchiangCounty]:before{content:"☐連江縣"}[language=English] [select=true][i18n=lienchiangCounty]:before{content:"☑Lienchiang County"}[language=English] [select=false][i18n=lienchiangCounty]:before{content:"☐Lienchiang County"}</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormLienchiangCounty</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9811,7 +10380,7 @@
         <v>Lianjiang County</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -9839,14 +10408,14 @@
         <v>[language=Chinese] [select=true][i18n=yilanCounty]:before{content:"☑宜蘭縣"}[language=Chinese] [select=false][i18n=yilanCounty]:before{content:"☐宜蘭縣"}[language=English] [select=true][i18n=yilanCounty]:before{content:"☑Yilan County"}[language=English] [select=false][i18n=yilanCounty]:before{content:"☐Yilan County"}</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormYilanCounty</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9857,7 +10426,7 @@
         <v>Yilan County</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -9885,14 +10454,14 @@
         <v>[language=Chinese] [select=true][i18n=hsinchuCity]:before{content:"☑新竹市"}[language=Chinese] [select=false][i18n=hsinchuCity]:before{content:"☐新竹市"}[language=English] [select=true][i18n=hsinchuCity]:before{content:"☑Hsinchu City"}[language=English] [select=false][i18n=hsinchuCity]:before{content:"☐Hsinchu City"}</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormHsinchuCity</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9903,7 +10472,7 @@
         <v>Hsinchu City</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -9931,14 +10500,14 @@
         <v>[language=Chinese] [select=true][i18n=hsinchuCounty]:before{content:"☑新竹縣"}[language=Chinese] [select=false][i18n=hsinchuCounty]:before{content:"☐新竹縣"}[language=English] [select=true][i18n=hsinchuCounty]:before{content:"☑Hsinchu County"}[language=English] [select=false][i18n=hsinchuCounty]:before{content:"☐Hsinchu County"}</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormHsinchuCounty</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9949,7 +10518,7 @@
         <v>Hsinchu County</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -9977,14 +10546,14 @@
         <v>[language=Chinese] [select=true][i18n=taoyuanCity]:before{content:"☑桃園市"}[language=Chinese] [select=false][i18n=taoyuanCity]:before{content:"☐桃園市"}[language=English] [select=true][i18n=taoyuanCity]:before{content:"☑Taoyuan City"}[language=English] [select=false][i18n=taoyuanCity]:before{content:"☐Taoyuan City"}</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormTaoyuanCity</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F15" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9995,7 +10564,7 @@
         <v>Taoyuan City</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -10023,14 +10592,14 @@
         <v>[language=Chinese] [select=true][i18n=miaoliCounty]:before{content:"☑苗栗縣"}[language=Chinese] [select=false][i18n=miaoliCounty]:before{content:"☐苗栗縣"}[language=English] [select=true][i18n=miaoliCounty]:before{content:"☑Miaoli County"}[language=English] [select=false][i18n=miaoliCounty]:before{content:"☐Miaoli County"}</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormMiaoliCounty</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10041,7 +10610,7 @@
         <v>Miaoli County</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -10069,14 +10638,14 @@
         <v>[language=Chinese] [select=true][i18n=taichungCity]:before{content:"☑台中市"}[language=Chinese] [select=false][i18n=taichungCity]:before{content:"☐台中市"}[language=English] [select=true][i18n=taichungCity]:before{content:"☑Taichung City"}[language=English] [select=false][i18n=taichungCity]:before{content:"☐Taichung City"}</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormTaichungCity</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10087,7 +10656,7 @@
         <v>Taichung City</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10115,14 +10684,14 @@
         <v>[language=Chinese] [select=true][i18n=changhuaCounty]:before{content:"☑彰化縣"}[language=Chinese] [select=false][i18n=changhuaCounty]:before{content:"☐彰化縣"}[language=English] [select=true][i18n=changhuaCounty]:before{content:"☑Changhua County"}[language=English] [select=false][i18n=changhuaCounty]:before{content:"☐Changhua County"}</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormChanghuaCounty</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="F18" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10133,7 +10702,7 @@
         <v>Changhua County</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10161,14 +10730,14 @@
         <v>[language=Chinese] [select=true][i18n=nantouCounty]:before{content:"☑南投縣"}[language=Chinese] [select=false][i18n=nantouCounty]:before{content:"☐南投縣"}[language=English] [select=true][i18n=nantouCounty]:before{content:"☑Nantou County"}[language=English] [select=false][i18n=nantouCounty]:before{content:"☐Nantou County"}</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormNantouCounty</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10179,7 +10748,7 @@
         <v>Nantou County</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -10207,14 +10776,14 @@
         <v>[language=Chinese] [select=true][i18n=chiayiCity]:before{content:"☑嘉義市"}[language=Chinese] [select=false][i18n=chiayiCity]:before{content:"☐嘉義市"}[language=English] [select=true][i18n=chiayiCity]:before{content:"☑Chiayi City"}[language=English] [select=false][i18n=chiayiCity]:before{content:"☐Chiayi City"}</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormChiayiCity</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10225,7 +10794,7 @@
         <v>Chiayi City</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -10253,14 +10822,14 @@
         <v>[language=Chinese] [select=true][i18n=chiayiCounty]:before{content:"☑嘉義縣"}[language=Chinese] [select=false][i18n=chiayiCounty]:before{content:"☐嘉義縣"}[language=English] [select=true][i18n=chiayiCounty]:before{content:"☑Chiayi County"}[language=English] [select=false][i18n=chiayiCounty]:before{content:"☐Chiayi County"}</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormChiayiCounty</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10271,7 +10840,7 @@
         <v>Chiayi County</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10299,14 +10868,14 @@
         <v>[language=Chinese] [select=true][i18n=yunlinCounty]:before{content:"☑雲林縣"}[language=Chinese] [select=false][i18n=yunlinCounty]:before{content:"☐雲林縣"}[language=English] [select=true][i18n=yunlinCounty]:before{content:"☑Yunlin County"}[language=English] [select=false][i18n=yunlinCounty]:before{content:"☐Yunlin County"}</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormYunlinCounty</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10317,7 +10886,7 @@
         <v>Yunlin County</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -10345,14 +10914,14 @@
         <v>[language=Chinese] [select=true][i18n=tainanCity]:before{content:"☑台南市"}[language=Chinese] [select=false][i18n=tainanCity]:before{content:"☐台南市"}[language=English] [select=true][i18n=tainanCity]:before{content:"☑Tainan City"}[language=English] [select=false][i18n=tainanCity]:before{content:"☐Tainan City"}</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormTainanCity</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="F23" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10363,7 +10932,7 @@
         <v>Tainan City</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10391,14 +10960,14 @@
         <v>[language=Chinese] [select=true][i18n=kaohsiungCity]:before{content:"☑高雄市"}[language=Chinese] [select=false][i18n=kaohsiungCity]:before{content:"☐高雄市"}[language=English] [select=true][i18n=kaohsiungCity]:before{content:"☑Kaohsiung City"}[language=English] [select=false][i18n=kaohsiungCity]:before{content:"☐Kaohsiung City"}</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormKaohsiungCity</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F24" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10409,7 +10978,7 @@
         <v>Kaohsiung</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10437,14 +11006,14 @@
         <v>[language=Chinese] [select=true][i18n=penghuCounty]:before{content:"☑澎湖縣"}[language=Chinese] [select=false][i18n=penghuCounty]:before{content:"☐澎湖縣"}[language=English] [select=true][i18n=penghuCounty]:before{content:"☑Penghu County"}[language=English] [select=false][i18n=penghuCounty]:before{content:"☐Penghu County"}</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormPenghuCounty</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F25" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10455,7 +11024,7 @@
         <v>Penghu County</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10483,14 +11052,14 @@
         <v>[language=Chinese] [select=true][i18n=kinmenCounty]:before{content:"☑金門縣"}[language=Chinese] [select=false][i18n=kinmenCounty]:before{content:"☐金門縣"}[language=English] [select=true][i18n=kinmenCounty]:before{content:"☑Kinmen County"}[language=English] [select=false][i18n=kinmenCounty]:before{content:"☐Kinmen County"}</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormKinmenCounty</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="F26" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10501,7 +11070,7 @@
         <v>Kinmen County</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10529,14 +11098,14 @@
         <v>[language=Chinese] [select=true][i18n=pingtungCounty]:before{content:"☑屏東縣"}[language=Chinese] [select=false][i18n=pingtungCounty]:before{content:"☐屏東縣"}[language=English] [select=true][i18n=pingtungCounty]:before{content:"☑Pingtung County"}[language=English] [select=false][i18n=pingtungCounty]:before{content:"☐Pingtung County"}</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormPingtungCounty</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="F27" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10547,7 +11116,7 @@
         <v>Pingtung County</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -10575,14 +11144,14 @@
         <v>[language=Chinese] [select=true][i18n=taitungCounty]:before{content:"☑台東縣"}[language=Chinese] [select=false][i18n=taitungCounty]:before{content:"☐台東縣"}[language=English] [select=true][i18n=taitungCounty]:before{content:"☑Taitung County"}[language=English] [select=false][i18n=taitungCounty]:before{content:"☐Taitung County"}</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormTaitungCounty</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F28" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10593,7 +11162,7 @@
         <v>Taitung County</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10621,14 +11190,14 @@
         <v>[language=Chinese] [select=true][i18n=hualienCounty]:before{content:"☑花蓮縣"}[language=Chinese] [select=false][i18n=hualienCounty]:before{content:"☐花蓮縣"}[language=English] [select=true][i18n=hualienCounty]:before{content:"☑Hualien County"}[language=English] [select=false][i18n=hualienCounty]:before{content:"☐Hualien County"}</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="3"/>
         <v>dataFormHualienCounty</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="F29" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10639,7 +11208,7 @@
         <v>Hualien County</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>

--- a/others/Web-Page-Design-i18n.xlsx
+++ b/others/Web-Page-Design-i18n.xlsx
@@ -2091,13 +2091,14 @@
     <row r="3">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A26" si="1"> if(C3 = "index", "&lt;?php $tableQuery = &lt;&lt;&lt;EOD", 
+  if(or(C3 = "A00", C3 = "P00"), ""&amp;REPT(char(32), 4)&amp;"DROP TABLE IF EXISTS `"&amp;LOWER($B4)&amp;"`;",
   if(or(C3 = "A01", C3 = "P01"), ""&amp;REPT(char(32), 4)&amp;"CREATE TABLE IF NOT EXISTS `"&amp;LOWER($B3)&amp;"` (",
   if(or(C3 = "N00", C3 = "Z00"), ""&amp;REPT(char(32), 4)&amp;") ENGINE=InnoDB DEFAULT CHARSET=utf8 COLLATE=utf8_general_ci;",
   if(E3 = "primaryKey", ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` int(64) NOT NULL,",
   if(or(E3 = "dateOfApplication", E3 = "accountCreationDate"),  ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` timestamp NOT NULL DEFAULT current_timestamp() ON UPDATE current_timestamp() COMMENT '"&amp;H3&amp;"',",
   if(and(or(G3 = "choice", G3 = "text"), or(C4 = "N00", C4 = "Z00")), ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` tinytext NOT NULL COMMENT '"&amp;H3&amp;"'",
   if(or(G3 = "choice", G3 = "text"), ""&amp;REPT(char(32), 8)&amp;"`"&amp;B3&amp;"` tinytext NOT NULL COMMENT '"&amp;H3&amp;"',",
-  if(and(or(C2 = "N00", C2 = "Z00"), C4 = ""), "EOD ?&gt;", ""))))))))</f>
+  if(and(or(C2 = "N00", C2 = "Z00"), C4 = ""), "EOD ?&gt;", "")))))))))</f>
         <v>&lt;?php $tableQuery = &lt;&lt;&lt;EOD</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -2132,7 +2133,7 @@
     <row r="4">
       <c r="A4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>    DROP TABLE IF EXISTS `dataform`;</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>columns!A4</f>
@@ -2574,7 +2575,7 @@
     <row r="17">
       <c r="A17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>    DROP TABLE IF EXISTS `datamember`;</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>columns!A17</f>
